--- a/output/Total_time_range_data/湖南省/衡阳市_学习考察.xlsx
+++ b/output/Total_time_range_data/湖南省/衡阳市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5118 +436,5600 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>177</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>娄底市委宣传部考察组来衡阳考察学习强国地方学习平台建设</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20230928/i3111129.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['9月27日，娄底市委宣传部考察组来衡，考察学习“学习强国”衡阳学习平台建设运营情况。', '娄底市委宣传部考察组实地参观了“学习强国”衡阳学习平台编辑部，该编辑部工作人员现场演示了“学习强国”衡阳学习平台App端、PC端的页面建设。随后，双方就平台相关的建设及运营工作深入交流。', '座谈会上，娄底市委宣传部考察组观看了“学习强国”衡阳学习平台上线一周年宣传片，听取了平台建设及日常运营情况的介绍，详细了解了该平台以及石鼓融媒号、常宁融媒号、衡山融媒号的建设、运营、机构设置、稿件签发流程和整体推进等方面的工作。', '娄底市委宣传部考察组表示，此次来衡考察收获很大，学到了很实用的实战经验，将把衡阳的好经验、好做法带回去，力推“学习强国”衡阳学习平台的“推送+原创”机制，激发采编人员潜力，充分挖掘平台的供稿链路，强力凝聚县市区融媒力量，争取向更高平台推送好稿优稿，展示地方形象。注重抓内容、抓策划、抓创新，以更新的理念进一步推动娄底学习平台的建设和运营。', '当天下午，娄底市委宣传部考察组还就“学习强国”常宁融媒号的建设运营情况进行了考察。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>177</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>耒阳市汨罗市考察团来我市考察学习项目建设情况</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2020-04-16</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200416/i1966513.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['4月15日，汨罗市委副书记、市长朱平波，副市长姚书茂率考察团，来我市考察学习项目建设情况。耒阳市委副书记、市长吴旭东，市人大常委会副主任曹晓江，副市长王翔，市经济开发区管委会副主任周斐等领导陪同考察。', '考察团一行先后到美蓓达公司、武广顺湖中学、全民健身中心等项目进行实地考察，详细了解了我市在项目融资管理、文旅景观融合打造、城市亮化美化、项目建设及运营等方面的经验做法，高度评价了我市近年来在项目建设各方面所取得的成绩。', '在随后召开的座谈会上，市城农投公司相关负责人介绍了有关工作情况，双方就相关工作进行了深入交流和探讨。', '朱平波表示，通过这次考察，亲眼目睹了耒阳近年来在城市建设、项目落地、文化景区打造等方面所取得的成绩，亲身感受到了耒阳干部群众干事的热情，特别是武广教育新城在规划设计、征地拆迁、项目开展及运营管理等方面的经验和做法，为汨罗市提供了宝贵的经验。此次考察，学习了经验、促进了交流、鼓足了干劲，回去后会组织有关干部认真总结，借鉴耒阳先进的发展经验，谋划好今后的发展思路。', '吴旭东对朱平波一行前来考察表示欢迎，他说，耒阳和汨罗两地一衣带水，共同流入洞庭湖；耒有蔡伦、汨有屈原，两地历史文化深厚，自古以来交流频繁，特别是两地缔结友好城市后更是“亲上加亲”。同时，两地在城乡建设、商贸旅游、重点产业、文化交流等方面具有良好的合作基础和巨大的发展潜力，希望两地今后能进一步加强交流与合作，取长补短，实现双方的优势互补、协同发展，共同推动兄弟城市发展共荣。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>177</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>衡阳市党政代表团赴长沙考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20230208/i2924481.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['2月6日至7日，市委书记刘越高，市委副书记、市长朱健率衡阳市党政代表团，就深入学习贯彻党的二十大精神、全面落实“三高四新”战略定位和使命任务、加快推进高质量发展，赴长沙市考察学习。省委常委、长沙市委书记吴桂英，长沙市委副书记、市长郑建新与衡阳市党政代表团交流并召开座谈会，畅叙情谊、共话合作、共谋发展。', '6日上午一抵达长沙，衡阳市党政代表团便深入园区、考察企业，学经验、找差距。代表团一行先后考察了长沙经开区、望城经开区、宁乡高新区等园区，深入中国铁建重工集团股份有限公司、三一重工、蓝思科技、望城经开区政务大厅、长沙戴卡智能制造产业园、星邦智能装备股份有限公司、湖南邦普循环科技有限公司、长沙格力暖通制冷设备有限公司、长沙中电软件园、中联智慧产业城等企业，围绕产业发展、核心技术研发、园区管理体制改革等方面，一路参观、一路交流、一路感悟。刘越高强调，衡阳要始终坚持把制造业作为立市之本，主动学习长沙在“五好”园区建设、推动制造业发展、优化营商环境等方面的先进经验和成功做法，结合自身实际，切实把学习成果转化为推动经济高质量发展的强大动力。', '7日举行的交流座谈会上，吴桂英对衡阳市党政代表团的到访表示热烈欢迎。她说，长衡两地自古山水相连、文脉相通、人缘相亲，情谊深厚、源远流长。特别是进入新时代，习近平总书记为湖南擘画了“三高四新”战略定位和使命任务的宏伟蓝图，党的二十大对长江经济带、中部地区高质量发展等作出了重点部署，省委、省政府提出实施“强省会”战略支持长沙市高质量发展、支持衡阳市加快建设省域副中心城市等决策部署，两地深化合作机遇大好、前景可期。希望双方以更高质量推进产业发展共兴、更实举措推进文旅发展共赢、更宽视野推进生态环保共治、更高标准推进公共服务共享，持续推动两地合作朝着更高水平、更宽领域、更深层次发展，共同谱写区域协同发展新篇章。', '刘越高说，通过学习考察，亲眼目睹了长沙经济社会发展取得的巨大成就，亲身感受了长沙广大党员干部干事创业的闯劲干劲，看到了“强省会”建设的新气象，看到了长沙以大担当涵养的大格局、以大手笔推动的大发展、以大情怀惠及的大民生，省会城市“核”的作用愈发凸显。这次来长沙，学到了“五好”园区的新思路，探求了“中心化”的新路径，衡阳一方面要突出制造业立市，另一方面要突出旅游兴城，切实加快区域“中心化”进程。下一步将全面总结、认真借鉴长沙的好思路、好措施、好经验，加快推进区域中心化进程，为全省高质量发展作出省域副中心城市的应有担当和贡献。', '郑建新介绍了长沙经济社会发展和“五好”园区建设情况，他说，随着全省加快构建“一核两副三带四区”区域经济发展格局，衡阳、长沙两地在“三个高地”建设、红色文化传承、公共服务共享等方面合作越来越多，两地一定会携手创造更加美好的明天。', '朱健介绍了衡阳市经济社会发展情况。他说，衡阳将倍加珍惜交流学习的机会，努力创造不负历史、不负时代、不负人民的实绩实效。', '长沙市领导谭勇、彭华松、刘拥兵、彭涛等参加考察或座谈。衡阳市领导赖馨正、于新凡、尹培国、朱春光、黄艳娥、曾建华、颜和平参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>177</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>刘越高率队在浙江湖州继续考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-07-08</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20230710/i3053290.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['继7月6日在浙江杭州考察学习后，7日，市委书记刘越高率衡阳市党政代表团赴浙江湖州继续考察学习“千万工程”先进经验。', '在湖州市安吉县，代表团首先深入余村，实地感受和学习“两山”理念的诞生与生动实践。随后考察了灵峰街道大竹园村乡村休闲度假型“美丽乡村”建设成果、小瘾·半日村民宿建设发展模式，观摩了递铺街道鲁家村全国首个家庭农场集聚区和示范区建设情况。', '在湖州市德清县，代表团考察学习了莫干山镇五四村全国先进基层党组织和未来乡村建设情况，实地察看并了解了舞阳街道双燕村党建文化综合体、福庆坞自然村示范整治项目等。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>177</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>郴州市考察组来衡考察学习全社会研发经费投入情况和经验</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20220623/i2736862.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['6月22日上午，郴州市委常委、副市长马天毅率队来衡，考察学习全社会研发经费投入情况和经验。', '会上，衡阳市科技局负责人对全市科技创新情况作了详细的介绍，双方就全社会研发经费投入使用情况、科技成果转化、产学研合作等问题进行了深度探讨。有数据显示，2020年，我市研发经费投入总量达63.43亿元，增速位列全省第一，总量排名由全省第6位上升到第3位；研发经费投入强度为1.81%，增速位列全省一类地区第一，强度排名由全省第9位上升到第6位（一类地区第4位）；基础研究投入占研发投入比重达7.31%，位列全省一类地区第一。2022年1-5月，规上企业R&amp;D快报数为28.52亿元，比去年同期增长41%。', '考察组表示，衡阳市在科技创新、全社会研发经费投入等方面的经验做法值得学习和借鉴，希望两地能进一步加强合作交流，充分发挥各自资源优势，推动双方资源共享、优势互补，为两地高质量发展注入新动能。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>177</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>南岳区刘浪蒋炳炎率队赴石鼓区考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20220916/i2793782.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['外出考察取真经，学习借鉴谋发展。9月15日上午，南岳区委书记刘浪，区委副书记、区长蒋炳炎率队赴石鼓区学习文旅发展、标准化建设、基层社会治理、政务服务、集团办学、乡村振兴等方面的先进经验和做法。市政协副主席、石鼓区委书记颜和平，石鼓区委副书记、区长谢海蓉会见考察团一行。', '金秋九月，秋风习习。刘浪、蒋炳炎一行首先来到玛雅海滩水公园考察。玛雅海滩项目作为湖南华侨城文化旅游度假区首期项目产品，占地面积14万公顷，总投资约10亿元，于今年七月建成使用，暑期营业额高达2000余万元。刘浪、蒋炳炎在详细了解项目规划、建设运营情况后指出，该项目为南岳文旅发展提供了很好的借鉴，考察团成员要将学习成果转化为推动南岳高质量发展的强大动力，进一步解放思想，打破传统观念，加快旅游转型升级步伐。', '随后，刘浪、蒋炳炎一行来到石鼓区建设村农贸市场考察市场标准化建设工作，就市场提质改造、规范化管理、消防安全等方面与石鼓区相关人员展开探讨交流。刘浪要求，要把好的经验、做法运用到南岳具体实践中去，努力将南岳的农贸市场打造成衡阳的样板市场。', '石鼓区综治中心是全市首个集“综治中心、人民来访接待中心、矛盾纠纷调处中心、信访维稳中心、网格化服务管理中心”的“五中心合一”服务管理平台。2021年被命名为全省首批法治政府建设示范项目。考察团成员对石鼓区“五中心合一”的创新模式予以高度赞扬，大家纷纷表示受益匪浅，对南岳基层社会治理工作起到了累积经验、借鉴推广的良好作用。', '刘浪、蒋炳炎一行还实地考察了石鼓区政务服务中心，详细了解中心运行和政务服务“三化”建设情况，要求相关部门要活学活用，不断提升我区政务服务能力和水平。', '都司街碧桂园小学是全市集团化办学的标杆。刘浪指出，集团化办学是南岳目前正在积极探索的办学模式，教育部门要加强对接，充分汲取该校在集团办学方面的先进经验及做法，推动我区教育事业蓬勃发展。', '考察团还前往角山镇利民村、黄沙湾街道灵官庙村等地，考察乡村治理标准化和乡村振兴工作。', '区领导谢斌、刘军、魏仲文、谭建红、江莉、沈伟、徐红松、谭庆年、王翊安、胡融峰、陈细柳、周建国、彭建军参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>177</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>衡山县考察交流谋共进相互学习促发展一一江西省黎川县考察团来我县考察调研</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-08-08</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20220808/i2767425.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['8月5日，江西省抚州市黎川县县委常委、常务副县长陈武光率考察团一行来到我县开展调研交流。县委常委、副县长戴诗庭，县领导宋少峰、唐自立等参加。', '黎川县考察团一行先后参观考察了开云镇双全新村皇茶文化园，黄花新区体育馆、景贤小学，县政务服务中心及恒岳重钢、衡山齿轮、佳诚新材料、嘉力机械等4家企业，详细了解我县文旅发展、重点民生实事项目、政务集成服务、民营企业发展等方面情况。', '在下午召开的座谈会上，戴诗庭对黎川县考察团一行的到访表示热烈欢迎，我县相关职能部门负责人分享了各自领域创造的衡山经验。双方还就经济运行、工业产业发展和文化旅游、招商引资等方面进行了深入的交流和探讨。', '黎川县考察团表示，本次调研是一次有益的尝试，大家学有所思、学有所想、学有所悟，将把衡山好的经验带回去进行学习消化。同时也将以此次考察调研为契机，进一步增强信息互通，持续深化黎川和衡山两地的合作与交流，助推双方经济高质量发展，真正实现合作共赢。（胡程远、唐有权）']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>177</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>衡阳市党政代表团赴张家界考察学习</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-02-09</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20230209/i2925436.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['为深入学习贯彻党的二十大精神，加快推进全域旅游战略全面落实，结束在长沙市的考察学习后，2月7日至8日，市委书记刘越高，市委副书记、市长朱健率衡阳市党政代表团（以下简称代表团）赴张家界市考察学习。张家界市委书记刘革安，张家界市委副书记、市长王洪斌一同考察并与代表团座谈，交流经验、畅谈合作，共同谋划推动旅游产业高质量发展。', '张家界市人民政府游客中心长张高速东出口门店是首届湖南旅游发展大会重点项目和观摩点，主要承载公共交通调度、应急抗疫、旅游接待、形象广场、充电桩、智慧旅游展示等公共服务功能。代表团实地察看了该中心，重点听取了智慧旅游平台建设和运行情况。刘越高强调，衡阳市要认真学习张家界的成功经验，大力推进智慧旅游建设，提升旅游管理服务水平。', '梓山漫居毗邻武陵源核心景区，是张家界市首家“遗产文化＋休闲旅游＋生态农业”的原乡轻奢生态精品民宿。代表团一行考察了该民宿点，详细了解硬件建设、开发模式、客流引进、宣传推荐等经营管理情况。刘越高强调，衡阳要对标一流，在硬件建设和软件服务上学习借鉴张家界的经验做法，因地制宜发展民宿产业，全力提升旅游承载能力和接待水平。', '8日，双方进行了友好的座谈，交流了发展经验，谋划了合作前景。刘越高说，张家界是湖南旅游龙头，正不断加快建设世界一流旅游目的地，切实推动文化和旅游业高质量发展。通过实地考察，我们感受了张家界的快速发展之变，领略了张家界的风土人情之美，学习了张家界的旅游立市之策，对旅游产业的培育有了更深刻的认识，对旅游品牌的打造有了更直观的感受，对旅游资本的运作有了更有益的借鉴，对旅游市场的营销有了更真实的触动。', '刘越高表示，衡阳与张家界山水相依、人文相亲，两市都有得天独厚的旅游资源、广泛辐射的带动优势、千亿产业的发展图景、强劲复苏的良好来势。去年，省委、省政府提出打造湖南旅游“五张名片”，其中包括以张家界为代表的奇秀山水名片，南岳衡山为代表的历史文化名片。两市在构建锦绣潇湘旅游产业发展版图中都肩负着重大的使命任务，也都有着光明灿烂的发展前景。衡阳坚决贯彻落实党的二十大精神和习近平总书记关于旅游工作重要论述，深入实施全域旅游战略，推动旅游工作整体上层次上水平。希望双方相互合作、携手共进，构建游客互送、线路互推、政策互惠、资源互享的旅游发展机制，共同推动衡张两地以及全省旅游产业高质量发展。', '刘革安对衡阳市党政代表团的来访表示热烈欢迎。他说，衡阳市上下一心、锐意进取，着力打基础、利长远，思路举措新、工作成效大、发展质量高、发展来势好，有许多鲜活经验和先进做法值得张家界学习借鉴。', '刘革安表示，张家界因旅游而建、因旅游而兴。近年来，张家界市坚持以习近平新时代中国特色社会主义思想为指导，以加快建设世界一流旅游目的地为目标，着力完善全域旅游布局、推动旅游转型升级、提高服务水平、提升旅游环境、创新宣传营销。尤其是去年首届湖南旅游发展大会在张家界成功举办，张家界旅游品牌的影响力不断扩大。真诚期待张家界与衡阳在文旅深度融合、生态绿色发展、县域经济发展等方面联袂共进，推动发展共兴、民生共享，携手为湖南高质量发展作出更大贡献。', '衡阳市领导赖馨正、周玉梅、尹培国、颜和平，张家界市领导舒行钢、田华玉、欧阳斌、刘卫兵、吴文海、汪涛参加考察或座谈。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>177</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>岳阳市委宣传部工作组来衡考察学习强国衡阳学习平台情况</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-05-07</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20220507/i2679687.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['5月6日，岳阳市委宣传部工作组一行来衡，就“学习强国”衡阳学习平台建设运营情况进行考察学习。', '岳阳市委宣传部工作组一行实地参观了“学习强国”衡阳学习平台编辑部。编辑部工作人员详细介绍了上线以来的平台运营情况，现场演示了衡阳学习平台App端、PC端页面建设，并就相关平台建设运行工作进行了座谈交流。', '座谈会上，岳阳市委宣传部工作组通过听取衡阳日报社就“学习强国”衡阳学习平台建设及推进情况的介绍，详细了解“学习强国”衡阳学习平台的建设、运营、机构设置、稿件签发流程和整体推进等方面的工作。', '工作组表示，此次来衡考察学习收获很大，高度赞扬了衡阳学习平台的运营工作，并表示回去以后将充分借鉴衡阳的办台经验：政治站位要更高，对标中央级媒体办好地方学习平台；人员配备要更强，要配备精兵强将，实现传统媒体和新媒体有机融合；栏目设计要更优，讲好地方故事、传播地方声音、彰显地方风采；体制机制要更活，力推衡阳学习平台的“推送+原创”机制，激发采编人员潜力；推稿发稿要更广，要充分发展平台的供稿链路，强力凝聚县市区融媒体力量，争取向更高平台推送好稿优稿，展示地方形象。', '当天下午，岳阳市委宣传部工作组还就“学习强国”石鼓融媒号的建设运营情况进行了考察。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>177</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>衡东县上海市闵行区人大常委会考察团赴荣桓镇考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2024-04-11</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20240410/i3310042.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['衡东融媒4月10日讯（融媒体记者 宁典）4月10日，上海市闵行区人大常委会一行赴湖南省衡东县荣桓镇进行考察学习，市人大常委会成员和县人大常委会主任任中元参加活动。', '考察团一行首先来到了罗荣桓元帅故居，参观了纪念馆和故居。在纪念馆内，大家认真听取了讲解员对罗荣桓元帅的生平事迹介绍，深入了解伟人的革命历程和卓越贡献。罗帅故居内陈列着元帅生前的生活用品，展现了他艰苦朴素、清正廉洁的高尚品质。', '随后，考察团参观了荣桓镇人大代表联络站。联络站作为人大代表联系群众、履行职责的重要平台，在推动基层民主建设、促进地方经济社会发展方面发挥着积极作用。考察团详细了解了联络站的运行机制、工作内容和成效，对荣桓镇在人大代表工作方面的创新做法和取得的成果给予了高度评价。', '在考察过程中，两地人大常委会成员进行了深入的座谈交流。大家一致认为，通过此次考察学习，不仅增进了两地之间的友谊和了解，也为今后进一步加强人大工作交流合作提供了宝贵的经验和启示。考察团将认真总结此次考察学习的收获和体会，结合本地实际，不断创新人大工作方式方法，提高人大工作水平，为推动地方经济社会发展贡献更大力量。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>177</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>张兴二率团赴娄底湘西学习考察公路工作</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2021-06-02</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20210601/i2387650.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['5月26日至28日，市公路中心党委书记、主任张兴二一行赴娄底、湘西学习考察公路工作。娄底市公路建设养护中心党委书记、主任刘文伟，湘西自治州公路建设养护中心党委书记、主任姚文凯陪同考察或参加座谈。', '张兴二一行先后参观了娄底国家区域性公路交通应急装备物资湖南储备中心，湘西“最美公路”矮寨盘山公路和花垣公路观景平台。衡阳考察团与娄底、湘西公路建设养护中心召开了座谈会，就公路日常养护、大中修、应急抢修、观景平台和最美公路创建等方面工作进行了友好交流。', '座谈中，张兴二向娄底、湘西对此次学习考察提供的周到安排表示衷心感谢。娄底、湘西两个兄弟市州公路工作亮点纷呈，成效显著，给大家留下了深刻的印象，为衡阳公路建设养护工作高质量发展提供有益借鉴。当前，衡阳公路已站在新的起点上，正按照“创亮点、强弱项、建制度、树形象”的思路，攻坚克难、奋发有为，全力推动全市公路事业高质量发展。期待衡阳与娄底、湘西公路部门之间加强交流合作，携手绘就高质量发展新篇章。', '衡阳市公路建设养护中心领导郑晓宏、肖华宝、廖爱古，机关有关科室负责人，县市区公路中心有关负责人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>177</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>永州市委宣传部工作组来衡考察学习强国地方学习平台建设</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-07-05</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20220705/i2746977.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['7月4日，永州市委宣传部工作组一行来衡，考察学习“学习强国”衡阳学习平台建设运营情况。', '永州市委宣传部工作组一行实地参观了衡阳日报社报史馆、“学习强国”衡阳学习平台编辑部，该编辑部工作人员现场演示了“学习强国”衡阳学习平台App端、PC端的页面建设，随后，双方就平台相关的建设及运营工作进行了深入的交流。', '座谈会上，永州市委宣传部工作组先后观看了“学习强国”衡阳学习平台上线宣传片、“学习强国”石鼓融媒号上线宣传片，听取了“学习强国”衡阳学习平台建设及推进情况的介绍以及石鼓区融媒号建设运营情况的介绍，详细地了解了“学习强国”衡阳学习平台以及石鼓融媒号的建设、运营、机构设置、稿件签发流程和整体推进等方面的工作。', '永州市委宣传部工作组表示，此次来衡考察学习不虚此行。“学习强国”衡阳学习平台的先进经验和亮点工作非常值得学习和借鉴。衡阳永州两地一直保持着友好合作的联系，此次对“学习强国”衡阳学习平台的考察，衡阳毫无保留地为永州“传经送宝”，介绍了很实用的实战经验。永州市委宣传部工作组将把衡阳的好经验好做法带回去，注重抓内容、抓策划、抓创新，以更新的理念进一步推动永州学习平台的建设和运营。', '衡阳市委宣传部相关负责人表示，要继续加强两地的紧密交流和相互学习，积极探索如何将“学习强国”地市级平台以及县级融媒号运营得更好。衡阳学习平台在讲好地方故事、传播地方声音、彰显地方风采等方面已经做出了一些有益的尝试，下一步将继续对标中央级媒体，整合地方资源，强力推进传统媒体和新媒体的有机融合，以高标准高质量办好地方学习平台。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>177</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>衡山县民进衡山总支组队赴重庆特园考察学习</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2018-08-14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200111/i35111.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['为做好民进全国会史教育岳云基地的升级改造，8月8日-12日，民进衡山总支组队赴重庆特园中国民主党派历史陈列馆考察学习。市政协副主席、民进衡阳市委主委陈淼，衡山县委常委、统战部长谢石中受邀参加考察。', '重庆特园始建于1931年，本是民盟元老鲜英的公馆，2008年依特园遗址建立了中国民主党派历史陈列馆，它是全国统战系统唯一的国家一级博物馆，第一个以中国民主党派历史为主题的陈列馆。', '参观结束后，陈淼表示，中国民主党派历史陈列馆有许多具有开创性的先进经验和做法，为民进全国会史教育岳云基地的升级改造工作提供了宝贵的借鉴经验。', '据悉，湖南岳云中学教育基地是由民进中央审批挂牌的第一批民进会史教育基地。基地由岳云中学和南岳半山亭的省心山庄、何炳麟墓园三部分组成。为了进一步发挥其作用，基地改造升级正在如火如荼进行。改造后的岳云基地将是一个集学习实践与会史学习于一体的综合性学习实践活动教育基地，届时将能容纳近千人前来参观和开展相关学习教育活动。(张国勋)']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>177</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>李来清带队赴新疆考察学习并慰问援疆民警和家属</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2021-09-22</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20210922/i2487980.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['一载奋战不言苦、援疆民警尤牵念。带着市局党委的亲切关怀和浓浓关爱，受副市长、市公安局局长胡志文委托，9月14日至9月19日，市局党委副书记、常务副局长李来清带队赴新疆吐鲁番鄯善县看望慰问援疆民警，并深入喀什、乌鲁木齐等地就维稳处突、基层基础建设、治安防控等工作进行实地考察调研。', '衡阳公安援疆工作队全体民警在市局党委和湖南公安援疆工作队的坚强领导下，以扎实的作风、严明的纪律，过硬的业务技能，克服家庭生活、气候环境等诸多困难，始终与新疆民警一道坚守在处突维稳和基层实战一线，为维护新疆平安稳定作出了重要贡献，充分展示了衡阳公安的担当作为。看望慰问期间，李来清同志认真听取了衡阳公安援疆工作队的工作情况汇报，详细询问了援疆民警的工作学习生活情况，代表市局党委向援疆民警送上慰问金，并表示市局党委是衡阳援疆民警的坚强后盾，将一如既往关心支持衡阳公安援疆工作队工作。', '在衡阳-吐鲁番两地公安机关警务交流座谈会上，湖南公安援疆工作队队长、吐鲁番市公安局党委委员、副局长蒋藴菁，鄯善县副县长、公安局局长周毅新介绍了相关工作情况，对衡阳援疆民警在疆工作给予高度赞赏，就深化两地警务交流、技术支援等方面工作与李来清同志交换意见。李来清指出，志文副市长和衡阳市公安局党委历来高度重视援疆工作，此次派出慰问团专程来疆表达真诚地慰问，衡阳公安援疆工作队全体队员在疆期间始终保持高度的政治自觉和行动自觉，尽职尽责，艰苦付出，顽强奋战，成绩予以充分肯定。李来清同志对湖南公安援疆工作队、吐鲁番市公安局和鄯善县公安局一直以来对衡阳公安工作和援疆工作、援疆民警的关心支持表示感谢，对衡阳援疆工作队提出了殷切希望和美好祝福。希望援疆工作队好好总结经验，援学结合、边援边学，再立新功。在援助资金捐赠仪式上，李来清同志代表市局党委向鄯善县公安局援助20万，以支持鄯善县公安事业发展。', '李来清同志一行还专程前往市公安局国保支队新疆籍民警沙迪克阿吉·艾白都拉的家中看望慰问其父母亲，送去组织上的温暖和问候。民警阿吉远离家乡，扎根衡阳，一直奋战在衡阳公安战线10余年，因工作成绩突出，多次受到部省市表彰奖励。', '在考察调研期间，李来清同志一行先后赴喀什地区、乌鲁木齐市等地公安机关就维稳处突、基层基础建设、治安防控体系建设等工作，开展实地考察学习。先后参观学习喀什地区疏附县公安局布拉克苏派出所警务运行机制，考察乌鲁木齐市天山区分局南关派出所和小东梁派出所227警务站，并深入了解勤务运行、指挥调度、治安防控等情况。乌鲁木齐市公安局党委委员、副局长吕强，喀什地区公安局党委委员、副局长哈杰提·卡曼分别陪同参加相关活动。', '李来清指出，乌鲁木齐市、喀什地区等地公安机关大力夯实基层基础工作，铸就“一分钟快速反应处置”体系建设，警情案件大幅度下降，群众满意度安全感连创新高，民警责任心、奉献精神强，为我们提供了很好的学习标杆和榜样，我们要更深入细致的学习，汲取成功经验，完善工作机制，提升工作水平。', '李来清强调，要进一步从思想上重视、从力量上保证、从制度上完善，切实增强责任感、使命感和紧迫感，要与新疆各地区公安机关加强警务协作交流，为进一步推进警务援疆、促进衡阳公安工作高质量发展迈出新的步伐。', '市局政治部、警保处、治安、国保、环食药、衡南县公安局等相关负责人参加慰问和考察学习活动。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>177</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>衡山县民宗干部专程南岳考察学习宗教工作</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2019-11-05</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/hyly/hyly/xx/20200111/i54575.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['衡山县民宗局11月4日讯（通讯员 汪赞） 11月1日，衡山县委常委、统战部长谢石中带领县民族宗教工作人员到南岳区实地考察学习宗教工作，南岳区委常委、统战部长黄顺发陪同考察。 谢石中先后深入南岳大庙、南岳基督教堂、坤道学院进行考察。在南岳大庙，谢石中来到佛教组，详细了解南岳区佛协对佛教场所财务管理、安全隐患治理、商业化治理、教职人员素质提升等工作开展情况。 在南岳基督教堂，他观看了相关管理工作资料，并与教堂负责人详细交流基督教人才队伍建设、开展社会公益事业、抵御渗透等工作做法。 在南岳坤道学院，谢石中实地了解学院的管理情况，仔细询问了南岳区“五进五好”进场所的推广措施。 考察中，谢石中指出，要通过本次考察学习，加强与兄弟县市区的沟通交流对接，多学习长处，看到自身短板，取长补短，把好的经验做法带回衡山。他强调，要切实理清工作思路，大胆创新管理模式，着力提升衡山县宗教工作管理水平。 相关阅读：', '衡山县民宗局11月4日讯（通讯员 汪赞） 11月1日，衡山县委常委、统战部长谢石中带领县民族宗教工作人员到南岳区实地考察学习宗教工作，南岳区委常委、统战部长黄顺发陪同考察。', '谢石中先后深入南岳大庙、南岳基督教堂、坤道学院进行考察。在南岳大庙，谢石中来到佛教组，详细了解南岳区佛协对佛教场所财务管理、安全隐患治理、商业化治理、教职人员素质提升等工作开展情况。', '在南岳基督教堂，他观看了相关管理工作资料，并与教堂负责人详细交流基督教人才队伍建设、开展社会公益事业、抵御渗透等工作做法。', '在南岳坤道学院，谢石中实地了解学院的管理情况，仔细询问了南岳区“五进五好”进场所的推广措施。', '考察中，谢石中指出，要通过本次考察学习，加强与兄弟县市区的沟通交流对接，多学习长处，看到自身短板，取长补短，把好的经验做法带回衡山。他强调，要切实理清工作思路，大胆创新管理模式，着力提升衡山县宗教工作管理水平。', '加强与兄弟县市区的沟通交流对接，多学习长处，看到自身短板，取长补短，把好的经验做法带回衡山。他强调，要切实']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>177</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>学习强国衡阳学习平台成模版益阳市委宣传部一行来衡阳考察交流</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-06-24</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20220624/i2737667.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['6月23日，益阳市委宣传部工作组一行来衡，对“学习强国”衡阳学习平台建设运营情况进行考察。', '益阳市委宣传部工作组一行实地参观了衡阳日报社报史馆、“学习强国”衡阳学习平台编辑部。编辑部工作人员介绍了平台筹建及运营情况，现场演示了衡阳学习平台手机端、PC端页面建设。', '益阳市委宣传部工作组带着“学习强国”市级平台建设的申报审批流程、平台载体、平台定位、平台栏目设置、平台内容审核流程、平台组织构架、平台的经费保障等方面的问题，认真听取了衡阳市委宣传部及衡阳日报社就“学习强国”衡阳学习平台建设及推进情况的详细介绍。工作组表示，衡阳学习平台的先进经验和亮点工作具有现实可复制的价值。下一步，益阳市将结合本地情况，学习和借鉴衡阳的经验和做法，将其转化到工作实践中去。', '市委宣传部相关负责人对衡阳学习平台下一步工作提出了具体要求。衡阳学习平台要以创新优化工作制度，外活内严。对外拓宽供稿链路，对内严把稿件质量关；要以创新提质工作，树立创新标杆，提高传播力、引导力、影响力、公信力；要把握党的大政方针，学深悟透省、市主要精神，彰显地方特色。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>177</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>衡南县湖南省水利投组团来我县学习考察</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2019-09-09</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200111/i22194.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['为学习大型水利枢纽淹没耕地抬填项目管理等方面的先进经验和做法，做好犬木塘水库工程移民工作，湖南省水利投发展投资有限公司组织邵阳市移民事务服务中心、邵阳县移民服务中心及有关乡镇、村民代表于9月5日来我县土谷塘航电枢纽实地学习考察。', '考察团依次前往云集镇清竹村土谷塘库区抬填项目现场实地考察，工程建设方和指挥部相关人员介绍了库区抬填项目的基本情况。库区抬填项目的实施，一是可以减少耕地淹没损失；二是可以优化项目投资；三是可以建成“旱能灌、涝能排”的高标准农田。库区抬填项目创造了“加强宣传发动，营造良好施工环境；属地管理，包干负责；现场协调，就地处理和实行耕补平衡”的重要经验。', '土谷塘航电枢纽库区淹没涉及衡南、常宁及耒阳3个县（市）143个乡（镇）98个村，淹没土地共计49434.48亩。土谷塘库区抬填、桥梁及道路工程分别涉及我县云集、松江、向阳等6个乡镇25个村，总投资9000余万元。项目建设范围涵盖41片2822亩耕地，多座公路桥、机耕道及其他交通设施。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>177</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>衡南县许达率队赴祁阳市学习考察房票安置工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230802/i3069220.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['8月1日，衡南县委副书记、县长许达率队赴祁阳市学习考察房票安置工作经验。祁阳市委副书记、市长陈小平陪同考察并主持座谈会。', '当天，学习考察组一行参观了祁阳市房票服务中心，详细了解祁阳市房票安置推进情况和房票操作流程、相关税费减免政策等情况。', '座谈会上，陈小平介绍了祁阳市经济社会发展情况。他表示，房票安置有利于解决一事一例、有利于解决群众实际民生、有利于解决资金压力、有利于推动房地产消费。希望两地今后能够加强交流走访，进一步增进友谊、深化合作，实现优势互补，推动两地共同发展进步。', '许达介绍了衡南经济社会发展情况。他表示，祁阳市房票安置工作以维护安置群众根本利益为出发点和落脚点，走出了一条破难题、惠民生、促发展的安置转型之路，为衡南今后开展征拆安置工作拓宽了思路。希望两地建立长效沟通机制，互相借鉴、携手共进，促进两地经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>177</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>衡南县衡南县党政代表团赴成都考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-04-20</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230420/i2987697.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['4月16日至18日，衡南县委书记胡果雄率县党政代表团赴四川省成都市考察学习乡村振兴、农旅融合、农产品精深加⼯（生态绿色食品）产业链建设等先进经验，并为成都新都区衡南商会"湘商回归乡情联络站"揭牌。', '在成都新都区衡南商会举行的乡情恳谈会上，商会代表围绕物流总部经济建设、宣传衡南本土产品、返乡创业等方面积极发言，点赞家乡的变化，为家乡发展建言献策。大家表示，衡南发展日新月异，我们对回乡发展信心倍增，今后将同家乡人民一起共创美好未来。', '胡果雄说，近年来，衡南围绕加快建成"四区一花园"目标，大力推进"一主一特双总部"产业建设，全县经济社会呈现"三稳、三优、四好"发展态势。"庐山烟雨浙江潮，未至千般恨不消。到得还来别无事，庐山烟雨浙江潮。"家乡永远是大家最坚强的"后盾"、最温馨的"港湾"。希望大家继续发挥联系广泛的优势，多宣传家乡、展示家乡、推介家乡，吸引更多的人才、企业、项目、资金向家乡集聚，更好地推动家乡发展，造福家乡人民。衡南将以最大的诚意、最好的政策、最优的服务，为大家打造更加开放广阔的发展平台，让大家在衡南能够放心发展、放手发展、放开发展。', '在成都期间，胡果雄一行来到绿翠集团新都区泉印心都现代产业园和大邑县稻香渔歌现代产业园参观考察。"泉印心都"项目规划总面积约17000亩，计划总投资80亿元，总体定位"十泉十美"林盘公园，规划建设集高端有机种植、文教旅游体验、健康度假养生、共享休闲民宿于一体的农商文旅体的特色林盘公园。"稻乡渔歌"田园综合体占地约15000亩，总投资超20亿元，探索"现代农业产业园+田园景观+川西林盘"产业融合发展新模式，建成了游客接待中心、创客中心、梦田园、"天府田园·壹号林盘"、乐农职业技能培训学校等田园新场景。', '胡果雄在新都区座谈交流时说，2022年衡南地区生产总值突破400亿元，在赛迪顾问县域经济研究中心发布"2022中部百强县"榜单中位列第87位。"大美衡南，‘电’亮未来"，衡南把电子信息和电力装备制造确定为全县主导产业，湖南省电力装备配套产业园获批落户，提出了打造"中国输变电第一县"目标。"这次来新都大有收获、不虚此行。"胡果雄表示，新都区推动乡村旅游的可持续化、品质化、多元化、品牌化和专业化发展，在农旅融合上顺势而为，实现了绿色发展，走出了一条富有新都特色的乡村旅游新路径。希望新都与衡南建立长期沟通联系渠道，在乡村振兴、农旅融合等方面给衡南传经送宝，共同培育乡村旅游新产品与新品牌。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>177</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>朱健率队前往长沙考察学习并同郑建新举行会谈</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-01-17</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20220117/i2590895.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['1月14日下午，市委副书记、市长朱健率队前往长沙考察学习，并就深化双城合作同长沙市委副书记、市长郑建新举行会谈。', '郑建新对朱健一行的到来表示欢迎。他指出，长沙、衡阳分别作为省会城市、省域副中心城市，感情深厚、联系紧密，在经济社会发展各个方面均有很强的互补性。希望今后常来常往，不断强化双城联动，共同为落实省委“三高四新”战略定位和使命任务、建设现代化新湖南提供强大支撑。', '朱健介绍了衡阳近期发展情况。他指出，长沙近年来发展十分迅猛，各方面都走在全省前列，有很多好经验、好模式值得衡阳学习借鉴。期待两地进一步深化交往，发挥联系紧密的区域优势，加大产业项目配套合作，推动实现双城共赢发展。', '随后，朱健与长沙市委常委、常务副市长彭华松及长沙部分市直部门、园区相关负责人举行座谈，围绕财税体制机制、园区发展、产业建设、城市管理等方面进行深度交流。', '彭华松结合过去的任职经历和在长沙工作的感受，以“事权基本匹配，关键是加快发展；收支基本平衡，关键是做大蛋糕”概述他对长沙发展的思考。他说，近年来，长沙通过加快片区开发，探索城市发展的有效路径；通过市场化运作的产业基金，引导产业发展，努力做大经济蛋糕；通过不断地削权、放权，让园区放开手脚抓产业、抓发展；通过打造一支讲政治、有担当的干部队伍，营造干事创业的浓厚氛围。围绕这些方面，愿与衡阳分享探索经验，共同学习、共同促进。', '“倍感亲切，收获满满，不虚此行。”朱健说，衡阳要对标学习长沙的发展模式和管理体制机制，对标学习委办局、城区主要负责人的干事能力和业务素养，对标学习干部队伍积极担当作为的工作作风。落实到具体行动中，市政府领导要“一对一”深入园区调度，贴身服务园区发展；各委办局负责人要与长沙委办局负责人结对子，动态学、跟进学；发挥产业基金引导功能和市场效应，扶持企业、产业创新发展，做大经济蛋糕；结合湖南华侨城、苏州湾片区开发的有益经验，以市场化手段加快推进片区开发；系统梳理审批清单、备案清单、监管清单、负面清单，消除权力“灰色地带”，优化营商环境，努力与长沙实现同频共振、共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>177</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>耒阳市西安市高陵区人大来耒阳市考察学习</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2018-12-02</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200111/i32210.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['11月27日，西安市高陵区人大常委会副主任阎红伟率考察团到耒阳市，考察学习规范性文件备案审查工作。市领导黎家能、曾阳生出席交流会。', '会上，市人大常委会主任黎家能向考察团一行介绍了耒阳的基本情况，并就市人大规范性文件备案审查等工作作了经验介绍。', '2008年3月，耒阳市人大常委会正式启动了规范性文件备案审查工作，开启了人大常委会对一府两院法律监督新的工作方式。十年来，我市规范性文件备案审查工作从零起步，不断完善工作制度、改进工作方式、规范工作程序，该项工作已基本实现了制度化、规范化和常态化，得到了上级领导和人民群众的充分肯定，社会效果明显。', '阎红伟对耒阳市人大规范性文件备案审查工作的先进经验表示赞赏，他指出，考察团将积极借鉴耒阳市的好经验、好做法，为确保政府依法行政，促进法治政府建设作出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>177</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>刘越高率队赴苏州考察学习并召开湘商回归恳谈会</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-11-09</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20231109/i3159518.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['11月7日—8日，市委书记刘越高率队赴苏州市开展学习考察园区或企业，并举行“湘商回归”恳谈会，与湘籍企业家深入交流，共话桑梓情谊、共商发展大计、共谋美好未来，推动更多湘商、衡商回家乡投资兴业，为衡阳大力实施“制造立市、文旅兴城”发展战略持续注入强劲动能。', '8日举行的恳谈会上，刘越高向各位企业家介绍了衡阳的发展变化，对大家一直来关注家乡、支持家乡、投资家乡表示感谢。他说，一直以来，广大湘商、衡商富而思进、富而思源、富而思报，充分发挥示范引领、动能蓄积和桥梁纽带作用，将企业发展和家乡建设紧密结合起来，谱写了一个又一个湘商回归、互利共赢的美好篇章。', '刘越高说，广大湘商是湖南建设发展的重要力量，是促进湖南高质量发展的动力引擎。湖南省委、省政府历来高度重视湘商，把湘商回归作为战略举措，全力支持湘商在经济社会发展中站前台、唱主角、挑大梁，重商亲商在衡阳已蔚然成风。当前，省委、省政府锚定习近平总书记为湖南擘画的“三高四新”美好蓝图，号召广大湘商找到切入点和发力点，同心同德、共建共享，到处都是投资的好机会、合作的好平台，希望大家因势而动、顺势而为，把握机遇、赢得未来。', '刘越高表示，未来，湘商回衡机遇无限。当前，衡阳被赋予国家区域重点城市和省域副中心城市发展定位，正大力实施“制造立市、文旅兴城”发展战略，持续擦亮“五张产业名片”，全力以赴承办第三届湖南旅发大会，衡阳有产业可选、有项目可投、有赛道可抢。无论是肩负“重拾荣光、争当中心”的历史担当，还是巩固“稳中向好、好中提质”的良好来势，都需要每一位湘商、衡商参与进来。希望大家一如既往关心、支持家乡发展，当好兴湘兴衡的“先锋”、招商引资的“红娘”、决策部署的“参谋”、宣传家乡的“鼓手”。衡阳市委、市政府将全力保障一流的要素供给、提供一流的生活配套、打造一流的营商环境，让企业在衡放心投资、安心经营、专心创业。', '会上，纽克斯电源、宏瑞达新能源、中明光电、亨瑞新能源等企业代表依次发言，大家分享了顽强拼搏、敢闯敢干的创业故事，对衡阳发展提出了意见建议。企业家们纷纷表示，衡阳发展前景广阔，将加快在衡投资步伐，推动更多合作项目落地衡阳，为家乡发展贡献更多力量。', '恳谈会之前，刘越高一行还先后前往金鸡湖右岸、苏州工业园区、苏州生物医药产业园、江苏苏净集团有限公司、宏瑞达新能源等园区或企业，考察了园区发展、城市更新、业态融合、产业创新等情况。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>177</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>衡东县鄯善县人大考察团来衡东交流学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-06-05</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230605/i3024794.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['图：新疆维吾尔自治区鄯善县人大常委会党组副书记、主任赛福丁·艾则孜在我县罗荣桓故居参观考察，县委副书记、县长蒋崇华陪同调研', '衡东融媒6月5日讯（融媒体记者 廖仲国 杨波）6月5日，新疆维吾尔自治区鄯善县人大常委会党组副书记、主任赛福丁·艾则孜一行来到我县，瞻仰罗荣桓故居，并交流学习。县委副书记、县长蒋崇华，县人大常委会党组书记、主任任中元陪同调研。', '在罗荣桓纪念馆，一张张珍贵的照片、一件件珍贵的文物、一份份珍贵的文献资料，承载着光荣的历史，诉说着罗荣桓元帅为民族独立解放，祖国繁荣昌盛作出的不懈努力并为之奋斗一生的光辉历程。赛福丁·艾则孜不时在照片、文物、影像前驻足观看，认真听取工作人员的讲解，并详细询问纪念馆的情况。', '蒋崇华指出，去年衡东以罗荣桓元帅诞辰120周年群众纪念性活动为契机，推动文旅深度融合，提升旅游发展质量。罗荣桓纪念馆变化巨大，不仅仅表现在面积的扩展，内容相比过去也更加的丰富立体，表现形式多样化，让大家能够更全面更深入地了解罗帅精神。南湾老街的改造工程也完成得非常圆满，方便、富裕了周边老百姓，得到大家的一致认可。', '蒋崇华表示，鄯善和衡东都有着丰富的文化旅游资源。希望双方进一步加强沟通交流，互相借鉴发展经验，加深两地友谊，在深度交流中实现发展共赢。', '赛福丁·艾则孜一行还参观了罗帅故居和新大屋旧址。鄯善县人大常委会党组成员、副主任朱建江参加调研。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>177</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>胡志文同志率队赴广州市考察学习交通管理工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2018-01-22</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20200111/i41693.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['为学习借鉴广州市公安科技强警、智慧交通及考场建设等先进工作经验，进一步提升我市公安科技管理水平，1月19日上午，副市长、市公安局党委书记、局长胡志文率队赴广州市考察学习。', '考察组一行先后到广州市公安局联勤指挥中心、交警支队驾驶人考试中心和交通管理指挥中心等地实地考察，参观学习了广州市公安局交警支队警营文化墙建设。', '广州市公安局副局长蔡巍和交警支队支队长欧日文等全程陪同，热情接待考察组一行，每到一处都安排专人进行详细介绍和讲解，并与考察人员进行深入探讨与交流。', '胡志文同志代表衡阳公安考察学习组对广州市公安局热情的接待表示衷心感谢，对广州市公安局联勤指挥中心和交通管理指挥中心先进的设备和高科技含量的管理模式，交警支队驾驶人考试中心一流的规划、设计、布局及警营文化墙浓厚的历史传承和丰富的内涵给予了高度赞扬。考察组成员一致认为，此次考察收获良多，受益匪浅，广州市公安局超前的管理模式、大数据技术的运用、先进的科技装备等都值得认真学习和借鉴，并将结合自身工作实际，认真提炼、取其精华，深化运用到衡阳公安及公安交管工作中，助推我市公安工作紧跟新时代科技发展步伐，真正实现质的飞越和大跨步前进。', '市政府副秘书长张少华，市局党委委员、副局长李衡，警令部、交警支队主要负责人及交警支队相关业务科室负责人等一行14人参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>177</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>衡山县我县考察组赴汨罗市学习新时代文明实践中心建设经验我县考察组赴汨罗市学习新时代文明实践中心建设经验</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2020-10-12</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20201010/i2161372.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['[衡山县] 我县考察组赴汨罗市学习新时代文明实践中心建设经验我县考察组赴汨罗市学习新时代文明实践中心建设经验', '国庆前夕，县委宣传部组织各乡镇和有关部门相关负责人赴汨罗市，参观学习新时代文明实践中心建设的先进经验。', '在汨罗市新时代文明实践中心、归义镇新时代文明实践所、瞭家山社区新时代文明实践站以及龙塘大屋新时代文明实践基地，考察组听取了文明实践中心、所、站建设情况介绍，了解汨罗市新时代文明实践工作组织机构、场地建设、活动开展等相关内容。', '汨罗市去年10月被定为全国第二批新时代文明实践中心建设试点县以来，将文明实践纳入县委重点工作任务，通过搭建一套工作体系，建立一批实践阵地，建强一支志愿队伍，开展一系列实践活动，积极探索了新时代文明实践的“汨罗模式”。', '县委常委、宣传部长雷继红代表考察组对汨罗市新时代文明实践中心建设表示充分赞赏，认为汨罗市在新时代文明实践中心(所、站)建设方向明确，思路清晰，工作具有创新性，对于我县新时代文明实践工作具有指导作用。考察组成员表示将结合我县的实际，借鉴学习汨罗市新时代文明实践工作的先进经验，解放思想，开阔思路，深入推进新时代文明实践中心(所、站)建设，打通宣传群众、教育群众、关心群众、服务群众的“最后一公里”，确保文明实践各项工作不断向纵深推进。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>177</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>怀化市河长办来衡考察学习小微河流清淤疏浚工作经验</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20230707/i3047667.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['7月3日至4日，由怀化市水利局党组成员、总工程师夏治宇带队的怀化市河长办考察组一行不顾高温酷暑，在衡阳市考察学习小微河流清淤疏浚工作经验，并同衡阳市河长办就相关工作进行探讨交流。衡阳市水利局党组成员、副局长、市河长办副主任肖志华陪同。', '7月3日下午，两市河长办在市水利局进行交流座谈。听取了衡阳市河湖与水资源中心主任肖静所作《持续推进小微河流清淤，打造老百姓身边的幸福河》主题汇报，汇报重点介绍衡阳市小微河流基本情况及小微河流清淤疏浚政策出台背景、清淤疏浚成效及完成情况、清淤疏浚工作流程与步骤、疏浚清淤工作所产生的良好社会效果。2021年8月，衡阳市在湖南省率先开展小微河流清淤疏浚五年行动，两年共清理河道2200公里，为2022年抗击严重干旱发挥了积极作用，被新华社等各级媒体先后报道，2022年12月，人民日报以《畅通小微河流 支撑抗旱保灌》为题专版报道衡阳市小微河流清淤疏浚工作情况。', '座谈会后，考察组先后现场考察了衡山县白果镇新庄村丁家港、衡东县石滩乡石金村白依港小微河流清淤疏浚工作情况。', '在衡山县白果镇新庄村，当地村支书介绍：“丁家港从去年开始小微河流清淤疏浚，去年那么严重的干旱，由于水源有保障，我们水稻产量不但没有减产，反而有所增加。”', '在衡东县石滩乡石金村白依港，衡东县水利局局长详细介绍了小微河流清淤疏浚资金如何筹集、地里毁坏农作物怎样赔偿、清淤疏浚每公里费用等情况。', '4日上午，考察组一行来到衡南县水利局，参观智慧河湖监控平台，听取衡南县水利局河长制工作汇报，赴相市乡参观乡镇河长制标准化建设情况。在相市河，考察组现场参观了示范河标准化建设管理和小微河流清淤疏浚情况。', '在相市乡合溪村，大家饶有兴趣的参加了一场屋场恳谈会，亲自体验“屋场恳谈+河长制”工作开展情况，当听到村民和当地乡村负责人就河流保护进行面对面交流，考察组表示这种工作方式非常接地气，能够及时沟通民意，在推进河长制工作上切实可行。', '考察组表示，衡阳市在小微河流清淤疏浚、河长制标准化、示范河建设、智慧河湖建设、发动社会公众参与河长制工作走在全省先列，给我们提供了可参照复制的先进经验，回去后，将对衡阳经验进行研究探讨、消化吸收，不断推进河长制工作高质量开展，共建美丽河湖。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>177</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>快讯丨刘越高率团赴浙江考察学习千万工程先进经验</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20230707/i3047516.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['为深入学习贯彻习近平总书记关于巩固拓展脱贫攻坚成果同乡村振兴有效衔接的重要讲话和重要指示精神，全面推进乡村振兴，加快推进农业农村现代化，7月6日起，市委书记刘越高率衡阳市党政代表团赴浙江省杭州市、湖州市等地考察学习“千村示范、万村整治”工程（“千万工程”）。', '七月的杭州，流金铄石。6日下午一下高铁，刘越高便带领代表团直奔萧山区临浦镇横一村，考察“绿色+农文旅”为特色的未来乡村建设，从先进经济模式的宝贵经验中，找寻有力推动衡阳城乡协调发展的启示和方法。', '“千万工程”是习近平总书记在浙江工作期间亲自谋划、亲自部署、亲自推动的一项重大决策，造就了万千美丽乡村，造福了万千农民群众，充分彰显了习近平新时代中国特色社会主义思想的真理力量和实践伟力。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>177</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>衡南县新疆鄯善县政协考察团来衡南交流学习</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20240422/i3319641.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['4月19日，新疆维吾尔自治区鄯善县政协主席、二级巡视员买明·阿不都热衣木率队来衡南，就工业经济、农业特色产业和精神文明建设等方面进行交流学习，县政协主席阳旭辉陪同考察。', '考察团先后前往特变电工云集5G科技产业园、大三湘东方树油茶庄园、县新时代文明实践中心，详细了解衡南县在工业经济、农业特色产业和精神文明建设等方面工作开展情况。', '阳旭辉对鄯善县考察团的到来表示欢迎，希望两地以此次交流互动为契机，进一步加强双方的交流与合作，互相借鉴和学习两地在经济社会发展中好的发展理念和先进经验，做到优势互补，相互促进，共同开创和实现两地美好未来。', '考察团表示，通过考察深切感受到衡南县域经济呈现高质量发展态势，工业经济和农业特色产业建设定位明确、发展思路清晰。希望以此次考察活动为契机，进一步加强两地经济文化交流，互相借鉴学习经验做法，深化合作，推动两地经济社会共同繁荣进步。', '鄯善县政协副主席王新强，衡阳市政协相关领导，县政协副主席贺桂香、许宏丽，秘书长汤爱民参加。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>177</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>市财政局赴外市考察学习特殊人群涉毒人员收治工作</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2018-10-14</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20200111/i37067.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为充分借鉴外市成功经验,切实提升衡阳市公安机关对于特殊人群涉毒人员的收治水平，根据市禁毒委领导的指示，9月28-29日由市禁毒办牵头，会同市财政、市卫计委、市民政局等市禁毒委成员单位赴常德进行了考察学习。', '考察期间重点了解常德市在特殊人群收治中心收治办法、机构设置、人员配置、勤务模式以及经费、安防、医疗等方面保障情况。通过此次考察学习为我市下一步特殊人群涉毒人员收治工作提供了努力的方向,我市将借鉴吸收外地成功经验，进一步完善特殊人群涉毒收治工作的运行体制和保障机制，同时特殊人群涉毒人员收治中心的建设也将进一步从源头上遏制病残吸毒人员引发的治安刑事案件，为经济社会发展提供更好的保障。 (通讯员：柏志华 )']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>177</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>衡阳市工信局组织产业链专职副主任赴长沙株洲考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2020-11-13</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20201112/i2204570.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['为学习、借鉴长沙、株洲等地产业链建设先进经验和做法，11月5日—6日，市工信局组织18名产业链专职副主任赴长沙、株洲考察学习。市政府副秘书长肖春林，市工信局局长胡小刚、总经济师李文革、市政府办四级调研员刘海涛分别参加考察学习和总结交流活动。', '在株洲市高新区、长沙市高新区，考察组详细了解两市产业链推进情况及链办、联合党委、行业协会（产业联盟）运行情况，并就产业链全域企业调度、链办工作人员管理等工作进行了深入探讨。互动交流中，株洲、长沙相关负责同志对专职副主任提出的困惑和问题一一进行了解答。', '6日下午，18位专职副主任返回衡阳，在市工信局参加学习考察总结交流会。会议由市工信局总经济师李文革主持，专职副主任结合前期工作开展情况，逐一分享了学习考察体会，并表示要认真学习借鉴长沙、株洲的经验做法，加速推进产业链建设各项任务落实落细。市工信局局长胡小刚充分肯定了各产业链前期工作取得的成效，并勉励大家要尽快转变角色、进入工作状态，全面摸清所在产业链基本情况；不等不靠，不推不拖，主动作为，切实担负起专职副主任职责使命，加快推进产业链建设，为建设现代产业强市作出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>177</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>雁峰区雁峰区召开区创建办赴外地学习考察情况汇报会</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230301/i2939047.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['2月28日下午，雁峰区召开区创建办赴外地学习考察情况汇报会。会上，区委书记王燕听取了考察组成员对此次赣州、六安学习考察情况及文明创建方面先进经验的汇报，畅谈考察感悟，交流学习心得，并就进一步做好文明创建工作提出意见建议。区委副书记、统战部长彭顺利参加。', '王燕指出，此次考察学有所思、思有所悟、悟有所动，开拓了视野、转变了观念，看到了不足、学到了经验，明确了方向，改进了工作，取得了预期效果。', '王燕强调，要对标对表学以致用，围绕创建全国文明城市工作目标做到以学提标改机制，设立曝光台，开展交叉督查，确保中央、省、市对我区的检查验收圆满通过；做到以学促干长亮点，加强市场及医院周边整治、飞线充电、文明养宠等专项整治，精心设计，打造“一街一品”亮点；做到以学见效争先进，弘扬首峰精神，争当全市的先进区、领头雁。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>177</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>衡阳市组团学习考察长沙理工大学节水工作经验</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/zdlyxxgk/zdmsxx/szjs/20230922/i3105413.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['为认真落实习近平总书记"节水优先、空间均衡、系统治理、两手发力"治水思路，进一步深入推进在衡高校节约用水工作，9月20日，衡阳市节约用水办公室牵头组织南华大学、衡阳师范学院、湖南工学院等10所在衡高校后勤负责人，赴长沙理工大学学习考察节约用水工作经验。', '长沙理工大学后勤服务保障中心负责人向学习考察组全面介绍了该校节水工作经验和成效。近年来，该校充分吸引民间资本技术参与，创新合同节水的合作模式与运营机制，在节水技术手段、节水理念、节水模式、节水管理等方面，打造立体、系统、全方位的节水环境，实现了社会效益、生态效益、经济效益等综合效益的长效性。仅2022年1-8月份学校用水量同比2021年减少774550立方米，节省资金223万元。', '学习考察期间，衡阳市节约用水办公室相关人员就高校如何落实计划用水、定额用水管理、强化节水宣传等与长沙理工大学进行了探讨交流。衡阳高校后勤负责人就老旧管网改造、节约用水目标管理、节水激励机制、管网维护、信息化管理，以及合同节水等具体工作向长沙理工大学后勤服务保障中心负责人进行了请益取经。', '与会人员纷纷表示，本次学习考察收获丰启发大，长沙理工大学节水模式有较强的前瞻性、可操作性和可复制性，今后，将充分学习借鉴长沙理工大学节水模式和成功经验，紧密结合衡阳和学校的节水工作实际，将高校节约用水工作进一步做深做实。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>177</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>常宁市省委宣传部来常考察学习强国常宁融媒号创建工作</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2022-07-22</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20220722/i2758098.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['7月21日，省委宣传部来常考察“学习强国”常宁融媒号建设工作。省委宣传部理论宣讲工作处处长田辉，“学习强国”湖南运营中心主任张劼夫、衡阳市委宣传部二级调研员洪明星，常宁市委常委、宣传部长龙显蓉参加。', '考察组一行参观了市融媒体中心调度指挥中心，观看了专题片，详细了解运营管理、设施配备以及新闻采编播和新媒体平台的全流程操作等情况，就进一步推进常宁融媒号建设工作提出指导意见。', '座谈会上，市融媒体中心主任方富贵就我市在“学习强国”平台开办融媒号的工作情况进行汇报。我市着力把建强用好“学习强国”融媒号作为媒体融合发展工作大格局的重要一环。自申办工作启动以来，高度重视，多次安排调度，做优做实前期工作，积极与上级对接联系，准备相关申报资料。', '田辉对“学习强国”平台常宁融媒号建设工作给予充分肯定，认为常宁融媒体中心领导能力突出，团队能力较强，工作基础扎实，精品创作出彩，宣传影响力广泛。希望常宁务必要瞄准高标准，把“学习强国”平台常宁融媒号打造成衡阳地区的标杆。他要求，常宁要多与上级沟通，多向其他先进地区学习交流，充分利用常宁红色文化、廉政文化、大义文化等资源优势，把大义常宁的特质展现出来，让“学习强国”平台常宁融媒号具有常宁特色和特质。要完善人财物保障，安排专人负责管理运营融媒号，及时添置更新设备，为“学习强国”平台常宁融媒号建设打下良好基础。', '洪明星指出，在常宁市委、市政府的推动下，常宁市融媒体中心团结协作，创建“学习强国”平台常宁融媒号卓有成效。希望常宁进一步加快“学习强国”平台常宁融媒号创建工作，提高常宁知名度、美誉度。', '龙显蓉表示，常宁文化底蕴深厚，办公场地初具规模，系统安全可靠，管理有序。融媒号创建成功后，常宁将踔厉奋发、奋勇前进，做好宣传思想工作和融媒号运营工作，争取做出特色、做出影响、做出品牌。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>177</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>耒阳市罗琼吴旭东率队赴汨罗考察学习农村人居环境整治工作</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2020-01-06</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200111/i17804.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['2020年1月2日，伴随着新年第一个工作日的晨光，衡阳市委常委、耒阳市委书记罗琼，市委副书记、市长吴旭东率党政考察团赴汨罗市，考察学习农村人居环境整治工作。汨罗市委书记喻文，市委副书记李冯波等陪同考察。', '考察团一行先后深入到白水镇西长村、汨罗镇武夷山村、桃林寺镇三新村，以实地参观、听取工作介绍、询问交流等方式，全面考察学习了汨罗市农村垃圾处理、污水治理、“厕所革命”、拆旧复绿、新农村建设、乡风文明治理等工作中的先进经验和做法。大家边听边看、边学边思，开阔了视野，看到了差距，坚定了推进农村人居环境整治工作的信心和决心。', '随后召开的座谈会上，汨罗市介绍了农村人居环境综合整治工作情况，双方就相关工作进行了深入交流和探讨。', '罗琼说，汨罗在农村人居环境整治工作中始终坚持“大发展小困难、小发展大困难、不发展最困难”的发展理念，不断强化党建引领、推进环境整治、创新社会治理，形成了党员带头、乡贤助推、村民齐参与的工作格局，探索出了一条极具地方特色的乡村振兴路子，为耒阳提供了可借鉴的宝贵经验。耒阳将认真梳理和总结此次考察学习的收获，因地制宜做好借鉴和创新相结合文章，全力推进农村人居环境整治工作，让人民群众有更多获得感幸福感。希望双方以此次考察为新的起点，开展全方位、宽领域、多层次合作，实现共同发展。', '吴旭东表示，将认真学习借鉴“汨罗经验”，进一步理清工作思路，细化工作措施，取长补短，以更高标准、更严要求，推动人居环境整治工作再上新台阶。', '市领导邱小兵、谢培、曾三成、郭兴中、姚玮、钟文光，相关单位主要负责人和30个乡镇(街道)党（工）委书记参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>177</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>南岳区雁峰区到我区水濂村考察学习乡村治理标准化工作</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2022-07-20</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20220719/i2755916.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['7月15日下午，雁峰区组织干部职工100余人来我区水濂村考察学习乡村治理标准化建设情况。', '考察团先后前往星空营地、水帘洞景区、麦客精品民宿等地，现场参观学习水濂村在乡村治理标准化方面的成功经验和做法。区委常委、区委办主任徐红松为考察团成员介绍了水濂村的基本情况以及近年来的变化。', '近年来，南岳镇水濂村坚持“用标准化治理，促进乡风文明，助力乡村振兴”的总体思路，从党建引领、社会治理、人居环境、产业发展四个方面发力，建设了星空营地研学基地、生态“荷花园”、四季果园、等特色产业，形成了全面推进、全民参与、全域皆游的工作格局，乡村面貌实现了蝶变，先后获评湖南省首批国家全域旅游示范区单列乡村、湖南省乡村旅游重点村等荣誉称号。', '考察团看到各处环境整洁优美、管理井井有条、群众喜笑颜开，大家纷纷点赞。希望今后加强沟通交流，相互借鉴学习，加快推进乡村治理标准化进程，助力乡村振兴。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>177</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>衡南县许达率队赴浙江杭州市富阳区和萧山区考察学习</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230824/i3080857.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['8月20日至22日，衡南县委副书记、县长许达带队赴浙江省杭州市富阳区和萧山区考察学习优化营商环境、深化"一网通办"、政务服务标准化规范化便利化等工作。', '在当地政府主要领导的陪同下，许达一行先后参观了杭州市富阳区行政服务中心、富阳区江滨社区、萧山区行政服务中心、杭州富春湾新城转型发展成果展示馆，详细了解了富阳区、萧山区在深化行政审批制度改革、"一网通办""一窗通办""一站式"政务服务平台建设、综窗改革、无差别受理、投资项目集中审批、政务服务智慧化建设、基层公共服务等方面创新发展实践的经验作法，并就深入推进"放管服"改革、"互联网+政务服务"、机构职能配置、大厅管理等方面进行深入探讨和座谈交流。', '他山之石，可以攻玉。许达表示，通过考察学习，感受到"一网通办""一件事一次办"给企业和群众带来的服务便利，提升了思维、开拓了视野。衡南将认真学习借鉴富阳区、萧山区等地的成功经验，聚焦"放管服"改革，探索"综窗改革""无差别受理"新模式；深化政务数字化建设，打造互联互通、协同创新的"数字政务"新方向，推动数据和服务深度融合；深化服务标准化建设，推动审批事项服务标准化、数据运行标准化，打破数字壁垒，真正实现优化营商环境"零距离"、企业群众办事"一次就办成"，努力实现在服务理念、服务体制、技术支撑、作风转变上有新作为，全力打造"只要来衡南，一切都不难"政务服务品牌。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>177</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>雁峰区雁峰区组团赴浙江省考察学习文明城市创建工作</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2021-09-17</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20210916/i2484438.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['近日，雁峰区委副书记、统战部长李世钧率雁峰区考察团赴浙江省考察学习全国文明城市创建工作经验。', '绿水青山就是金山银山。考察团一行首先抵达“两山”理念诞生地——浙江省湖州市安吉县天荒坪镇余村交流学习余村绿色发展先行的乡风文明建设理念。步入余村，家家户户的庭院色彩斑斓、相映成趣，庭院间用步行道串联，穿行其间，一步一景，仿佛置身大花园中。', '在安吉县委宣传部文明中心主要负责人的陪同下，雁峰区考察团考察了余村数字乡村管控平台、电商服务中心、新时代文明实践影剧院等地。余村目前已成为全国美丽宜居的示范村，全国文明村，余村通过修编《村规民约》，向村民征集好家风、好家训，通过墙体画和宣传册等形式积极加强宣传，成效明显。同时，通过"美丽家庭"等评选活动，树立了一批移风易俗、乡风文明先进典型，发挥了示范作用，调动了村民参与文明建设的积极性。', '来到杭州市临平区和上城区，考察团实地察看了老旧小区改造、新时代文明实践中心、社区垃圾分类、农贸市场以及5G湖上直播等。', '考察团一行还来到金华市婺城区兰溪门市场学习农户自产自销区域管理经验，婺城区新时代文明实践中心学习“思想、道德、人文、幸福、活力、志愿”六大花之建设，江南街道兴学社区学习老旧小区四级微网格治理经验、高畈社区睦邻巷学习背街小巷改造治理。', '据悉，婺城区江南街道实行四级网格管理，建立了街居网格管理信息平台，实现基础工作信息化。街道党委书记为一级网格负责人，社区书记为二级网格负责人，三级网格以居民小组所辖范围为基础，网格长由组长担任；四级网格责任人由楼道长担任。明确了“格姐”的“三个五”责任。基础网格按照居住相邻、关系和睦的原则，又划分为N个小网格点，把网格点居民包责给网格点信息员。由信息员负责定期报告所排查出的社情民情信息，形成了自上而下的顺向管理和自下而上的逆向信息反馈模式，延伸了中心触角。', '高畈社区为城市老旧小区，上百栋楼没有物业管理，街道以网格、单元、楼道管理模式，发挥党员先锋模范作用，让“小网格”推动大党建，“微事情”推动大服务。在居民微网格平台上，将党员责任区划小、划细、划精，管好自己、管好家人、管好楼道。', '考察团一行最后还来到中国社交电商第一村——义乌市江北下珠村学习电子商务产业链工作。', '文明不是刻意，而是一种自然而然的气质。通过对这些文明城市、乡镇的创建考察，发现其无一不是通过党建引领、因地制宜、广泛发动，从而创新理念，摸索方法，逐步试点，形成规章制度、联动机制、乡风民俗，进而升级管理、健全长效、提升素质，让文明创建的理念蔚然成风。下一步，雁峰区将总结此次考察学习的经验，结合自身实际，完善机制体制，加强治理建设，为雁峰区创建工作提供新的动力。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>177</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>赣州市生态环境局来衡考察学习扬尘污染防治条例立法工作</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2021-07-29</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20210728/i2442381.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['7月27日，赣州市生态环境局党组成员、副局长邓智勇率有关人员来衡考察学习扬尘污染防治条例立法工作，我市生态环境局党组成员刘环建、二级调研员谢利国陪同考察。', '考察组一行与我市参与扬尘污染防治条例立法的相关部门进行了座谈交流。与会同志就《衡阳市扬尘污染防治条例》的制定过程，起草的工作经验及颁布实施后带来的变化等进行进行座谈讨论、交换意见。赣州市生态环境局考察组，我市人大法制委、市司法局、市住建局、市交通运输局、市城管执法局、市自然资源和规划局等部门负责人，市生态环境局相关科室负责人参加了会议。', '考察组还实地察看了城区建筑工地、混凝土搅拌站生产场地以及部分重点道路的扬尘污染防治工作情况。', '考察组表示，衡阳的扬尘污染防治立法工作坚持问题导向，在立法、管理等方面有很多创新做法、特色经验，可操作性强、实施效果好，值得学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>177</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>秦国文率队赴苏州考察学习加强两地交流合作携手互促联动发展</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2021-10-29</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20211029/i2524111.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['立足新发展阶段、贯彻新发展理念、构建新发展格局，加强苏衡交流合作，携手互促联动发展。10月27日至28日，市委书记秦国文率队赴苏州考察学习，苏州市委副书记、代市长吴庆文会见了秦国文一行。', '在27日晚的会见中，吴庆文代表苏州市委、市政府对衡阳市考察团的到来表示欢迎，并简要介绍了苏州经济社会发展情况。他希望两地进一步加强交流、互学互鉴，深化产业协作和干部人才交流，全面拓展合作空间，提升合作质效。', '秦国文说，苏州经济发展强劲，创新活力迸发，在产业转型、创新发展等方面的经验做法值得衡阳学习借鉴。中央和湖南省委赋予衡阳国家区域重点城市和省域副中心城市的新定位新使命。当前，衡阳正全面贯彻习近平总书记考察湖南重要讲话精神，全面落实“三高四新”战略，大力推进强创新、强开放、强集聚，加快区域“中心化”进程，奋力建设国家区域重点城市和省域副中心城市。两地发展各具特点和优势，合作潜力巨大。希望两地成为重要的合作伙伴，加强产业对接，拓展合作领域，携手实现高质量发展。', '苏州工业园区是中国和新加坡两国政府间的重要合作项目，经过27年发展，实现国家级经开区综合考评“五连冠”。28日上午，秦国文一行来到园区展示中心和智慧城市运营中心等，详细了解园区规划建设、创新发展、城市管理等情况。随后，秦国文一行与苏州市副市长杨知评、苏州工业园区管委会相关负责人一同座谈交流，当天的座谈取得了建设性的成果。秦国文指出，要学习借鉴苏州工业园区发展的经验做法，坚持高标准定位、新理念引领、大战略推动、强队伍支撑、优机制保障，加快“五好”园区建设，不断提升园区发展质量和效益，努力把园区打造成为衡阳落实“三高四新”战略、推进“三强一化”建设的重要支撑。下一步，双方将抓紧成立工作专班，在深入调研和论证的基础上，在规划咨询、人才培训、产业合作、招商引资、城市治理等方面寻求更多合作点，加强战略协同、深化务实合作，推动双方互利共赢发展。', '建设，不断提升园区发展质量和效益，努力把园区打造成为衡阳落实“三高四新”战略、推进“三强一化”建设的重要支撑。下一步，双方将抓紧成立工作专班，在深入调研和论证的基础上，在规划咨询、人才培训、产业合作、招商引资、城市治理等方面寻求更多合作点，加强战略协同、深化务实合作，推动双方互利共赢发展。', '期间，秦国文还考察了联东集团旗下核心企业联东U谷。联东U谷专注服务科技型企业，已在全国 40 余个城市投资建设产业园区200余个，服务客户超10000家。在座谈交流中，双方在产城融合发展、园区运营等方面达成了共识。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>177</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>衡东县县领导率队到长沙市长沙县公安局考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2021-02-25</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20210224/i2309500.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['2月22日，副县长、公安局局长农勇率县公安局、检察院、法院等相关单位组成的考察学习组分别赴长沙市公安局、长沙县公安局考察学习，对标先进找差距，自我加压促提升。', '农勇一行先后到长沙市公安局警史馆、刑侦支队和反诈中心参观学习，听取有关部门负责人的情况介绍，深入了解视频侦查、警情研判、技术支撑等工作，双方就反电诈问题进行了深入交流探讨。', '在长沙县公安局，农勇一行深入了解规范化执法、信息化建设、队伍建设、暖警惠警、警营文化建设等方面的工作开展情况，还就打击治理电信网络新型违法犯罪进行了充分交流，并与长沙县公安局商议开展警务合作。', '每到一地，考察学习组都与对方交流工作心得，对比先进找差距，思考未来方向，谋划工作蓝图。通过一路行、一路听、一路看、一路比、一路思，大家拓宽了视野、增长了见识，为推进衡东公安工作现代化、力保县域社会治安稳定打下了坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>177</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>市委办专题学习习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2020-09-29</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20200929/i2156415.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['9月28日下午，衡阳市委办公室召开秘书长（主任）办公会议，专题传达学习习近平总书记在湖南考察调研时的重要讲话精神。', '会议传达学习了习近平总书记在湖南考察期间和在基层代表座谈会上的重要讲话精神，班子成员分别畅谈了心得体会。', '会议强调，要把深入学习贯彻习近平总书记重要讲话和重要指示作为当前市委办首要政治任务，采取不同方式，不断地学、持续地学、深入地学，吃透精神实质，深刻认识习近平总书记视察湖南的重要意义，不断将学习成果转化为武装头脑、指导实践、推动工作的强大动力。', '会议要求，要按照市委常委会会议要求，全面深入、不折不扣抓好习近平总书记重要讲话精神在衡阳的落实落地。全办党员干部要切实把思想和行动统一到习近平总书记的重要讲话精神上来，努力在服务全市工作大局中创新思路，主动作为，为建设名副其实的省域副中心城市、现代产业强市和最美地级市作出党办新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>177</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>衡阳市财政局党组理论学习中心组举行学习贯彻习近平总书记考察湖南重要讲话精神专题学习</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2024-04-19</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20240419/i3318033.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['衡阳市财政局党组理论学习中心组举行学习贯彻习近平总书记考察湖南重要讲话精神专题学习', '4月3日下午，市财政局党组理论学习中心组举行学习贯彻习近平总书记考察湖南重要讲话精神专题学习，党组书记、局长雷高飞主持学习并讲话，市财政局党组理论学习中心组成员参加会议。', '会上，组织原文学习了习近平总书记在听取湖南省委和省政府工作汇报时的讲话、习近平总书记主持召开新时代推动中部地区崛起座谈会上的讲话精神。党组理论学习中心组成员依次交流发言。', '雷高飞在总结讲话中强调，要把学习宣传、贯彻落实习近平总书记在湖南考察时的重要讲话精神作为当前和今后一个时期的重要政治任务，进一步找准工作切入点和着力点，推动习近平总书记重要讲话和指示精神在衡阳财政落实落地。一要在学深悟透上下实功。切实把学习热情和成效转化为实干担当促进发展的生动实践，转化为干事创业、狠抓落实的不竭动力，坚定拥护“两个确立”，坚决做到“两个维护”。二要在履职尽责上求实效。坚持“中央和省委决策部署推进到哪里，财政服务保障就跟进到哪里”，锚定“三高四新”美好蓝图，抢抓中央政策机遇，充分发挥职能作用，加快培育新质生产力，全力组织收入征管、全力抓好财源建设、全力实施积极财政政策、全力统筹财政资源、全力加强债务管理，服务经济社会高质量发展。三要在自身建设上出实招。坚持政治统领，巩固拓展主题教育成果，强化“财”服从服务于“政”的意识，把政治标准和政治要求贯彻到制定财政政策、推进财政改革、开展财政工作的全过程。加快推进清廉财政建设，大力发扬斗争精神，推动全面从严治党不断向更高水平、更深层次发展，为衡阳财政高质量发展提供坚强保障。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>177</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>市气象局学习贯彻习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2020-10-09</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/bmxxgkml/qtdw/sqxjfjy/gzjz/20201019/i2176846.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['9月29日下午， 衡阳市气象局召开全局干部职工大会， 传达学习习近平总书记在湖南考察时的重要讲话精神， 同时结合部门工作实际， 以7条具体措施贯彻落实习近平总书记重要讲话精神。', '衡阳市气象局党组书记、局长刘从省主持会议并强调， 传达学习习近平总书记在湖南考察时的重要讲话精神是当前一项重要的政治任务， 要通过领导带头学、支部集中学、全员覆盖学， 将习近平总书记重要讲话精神吃深悟透。', '会议指出， 要深刻把握习近平总书记提出的重点任务， 联系实际， 将学习宣传与贯彻落实一体谋划、一体推进：一要对标监测精密， 实现灾害性天气监测不漏网； 二要对标预报精准， 做到灾害性天气不漏报； 三要对标服务精细， 做到气象灾害保障服务零失误； 四要围绕生态文明建设和脱贫攻坚， 做好气象保障服务； 五要履行气象防灾减灾职能， 着力增强防灾减灾合力； 六要强化统筹协调， 着力推动局市合作； 七要促进党建业务融合， 发挥基层党组织和共产党员的先锋模范作用。', '会议强调， 要充分认识习近平总书记视察湖南省的重大意义， 准确把握习近平总书记重要讲话的丰富内涵和精神实质， 切实增强“四个意识”、坚定“四个自信”、做到“两个维护”， 勇于争先、攻坚克难， 提升气象服务保障能力， 发挥气象防灾减灾第一道防线作用， 谋划和推动新时代衡阳气象事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>177</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>常宁市省政协文史博览杂志社来常考察学习油茶产业经验</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2020-11-27</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20201127/i2219056.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['调研组一行来到西岭镇平安村，实地察看了解我市油茶产业、文化、旅游发展及油茶品牌创建等方面的具体经验，给与了高度评价。', '近年来，我市坚持把油茶产业作为最具成长性的富民产业来抓，油茶林种植面积达100万亩，成功创建全国油茶生物产业基地、国家油茶示范林基地试点县，“常宁茶油”成为国家地理标志保护产品，并出台全省首个油茶地方标准；以发展油茶产业、文化、旅游为核心打造的西岭平安油茶小镇已成为全省、乃至全国乡村建设示范点。2019年，全市生产茶油1.3万吨，年产值达42亿元。', '调研组表示，常宁油茶文化、地方特色文化-大义文化，底蕴深厚，油茶全产业链发展模式布局长远、特色鲜明、成绩喜人，为油茶产业发展和乡村振兴创造了优秀的实践经验，将深入学习、宣传、推广，为全省油茶产业发展作出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>177</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>市文旅广体局传达学习习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2020-09-25</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20200925/i2152893.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['9月22日下午，市文旅广体局召开党委扩大会议，传达学习习近平总书记在湖南考察时的重要讲话精神。', '会议指出，要把学习宣传贯彻习近平总书记重要讲话精神作为当前头等大事和长期任务，各级党组织要提高认识，加强政治学习，组织好党员干部学习讲话精神，把讲话精神学深悟透，要联系工作学，结合实际学。', '会议要求，文旅广体系统党员干部要对标习近平总书记对湖南的新要求，结合文旅广体工作实际，认真谋划工作，以实际行动落实好总书记讲话精神。文旅产业发展、艺术精品创作、公共文旅服务等要坚持正确导向、坚持守正创新，确我市文化产业健康持续发展。要做好文旅结合文章，弘扬好红色文化、保护好红色文物、开发好红色旅游，宣讲好“衡阳故事”，使革命传统、红色基因代代相传。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>177</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>祁东县祁东县人大常委会赴祁阳县考察学习教育工作</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2018-05-22</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200111/i37301.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为学习借鉴外地教育工作成功经验，促进祁东县教育二次腾飞，5月16日，祁东县人大常委会主任张永法率队赴祁阳县就教育工作开展考察。', '考察组一行先后实地考察了祁阳四中、一中、职业中专三所学校，并召开了座谈会。祁阳县人大常委会主任邓晓阳、副主任刘双顺，祁阳县编办、人社局、教育局有关负责人参加座谈。座谈会上，祁阳县教育局就高中阶段教育发展情况作了详细介绍。随后，与会人员就争取领导重视、加强人才引进、建立激励机制等具体问题进行了深入探讨交流。', '张永法对祁阳县教育发展所取得的成绩给予了高度评价。他指出，祁阳县大力实施“教育优先发展”和“文教兴县”战略，持续加大投入，不断改善办学条件，加强教师队伍建设，积极促进教育均衡，全县教育教学取得了优异成绩，特别是近年来祁阳职业中专的校园建设和教学质量取得了质的飞跃，非常值得学习和借鉴。并强调，考察组要认真总结祁阳县的好经验、好做法，及时向县委、县政府报告，积极争取县委、县政府尽快出台教育发展相关政策，尤其是要引进优秀人才，并确保人才引得进、留得住、安得心，以强师促强教，提升教育发展软实力，带动祁东教育二次腾飞。', '考察组一行表示，此次考察学习收获很大，深受启发，拓宽了视野，增长了见识，增强了做好学校教育教学管理与教师队伍建设工作的信心和决心。', '祁东县人大常委会副主任赵双凤、副县长高瑛、县委原副县级干部曾志、县人大常委会教工委主要负责人、县人大常委会办公室相关人员、县编办、县人社局、县教育局等单位负责人陪同考察。 5月18日讯(通讯员 何亚慧)']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>177</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>它山之石可以攻玉我市小水电清理整改联席办组织赴浏阳市考察学习</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2022-07-11</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20220711/i2750592.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['本网讯王小云报道：7月4-5日，我市小水电清理整改联席会议办公室主任、市水利局党组副书记、副局长文昌荣同志带队，组织我市有小水电退出任务的三个县市区联席办主要成员共16人赴浏阳市考察学习小水电退出工作补偿、拆除、解网等方面的先进经验。', '我市今年有11座小水电退出任务，占全省37座总任务的近三分之一，该项工作已纳入了省纪委监委“洞庭清波”专项行动，任务重、困难大、时间紧。为全面落实国家四部委和省市有关小水电清理整改文件精神，有序推进我市小水电清理整改工作的开展，确保按期保质完成任务，市联席办组织有退出任务的衡山县、南岳区、常宁市小水电联席办成员赴浏阳市考察学习。', '此次考察学习通过参加浏阳市小水电清理整改联席办组织的经验分享座谈会、到现场实地参观整改并已完成标准化建设的小水电站和退出电站进行。通过学习，参加人员一致认为：小水电退出工作是环保工作、也是底线工作，提高政治站位是责任；要全面动员，做好宣传发动工作是基础；要制定科学的评估办法，资产重置成本法是首选；补偿要一个标准、一把尺子，财政做好兜底是保障；要按期实施拆除，把好验收关是要义；对逾期未拆除，强制拆除，做好应急方案，维稳是关键；对整改后的电站要推行安全生产标准化建设，安全生产是核心。', '它山之石，可以攻玉。通过此次交流，我市有退出任务的三个县市联席办成员纷纷表示对退出工作有了更全面的理解，对如何做好补偿、拆除、解网等工作有了更清晰的思路和办法，对进一步做好我市小水电日常监管工作有了更明确的目标。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>177</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>市政协专题学习习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2020-09-28</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20200928/i2155547.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['9月27日上午，市政协召开全体机关党员干部会议，专题学习传达习近平总书记在湖南考察调研时的重要讲话精神。市政协副主席张亮主持会议并讲话。', '会议指出，全市各级政协组织和广大政协委员要把学习贯彻习近平总书记在湖南考察时的重要讲话精神作为当前首要政治任务，紧密结合政协工作实际，贯穿履职全过程，按照总书记为湖南谋划的“三高地、四个新”的战略指引，为推进衡阳“一体两翼”发展思路，发挥政协优势、体现政协特色、展现政协作为、作出政协贡献。', '张亮强调，要围绕习近平总书记在湖南考察时关注的基层建设、粮食生产、现代农业、乡村教育、文化科技、产业项目、生态环境等，把握衡阳高质量发展新阶段新要求，突出协商重点，创新协商方式，增加协商频次，通过不同层面的协商交流，促进问题解决，真正发挥政协作为专门协商机构在服务国家治理体系和治理能力现代化中的作用。要用心用情办好民生实事，突出政协“人民性”的本质属性，真诚听取群众呼声，真实反映社情民意，多做春风化雨工、解疑释惑工作，多做理顺情绪、化解矛盾工作，最大限度团结争取人心、凝聚各方力量。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>177</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>衡山县衡山县党政代表团赴娄底开展农村人居环境整治学习考察</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2024-03-20</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20240320/i3295583.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['3月18日，县委书记戴新贤，县委副书记、县长段晓赛带队赴娄底市娄星区开展农村人居环境整治学习考察。娄星区委书记李彦文，娄星区委副书记、区长刘志刚陪同考察。', '学习考察组一行先后走进万宝镇石塘村美丽屋场、槐柳村民兵美丽屋场，杉山镇花溪村轧车坝美丽屋场、田坪村月旦亭美丽屋场，双江乡新庄村槐树湾屋场，认真听取娄星区负责人在整治村庄道路、沟渠、菜地、房前屋后环境卫生等方面的经验介绍，积极探讨和记录“秀美屋场”创建工作的经验做法。', '村头巷尾整洁有序，和美屋场郁郁葱葱，农家院子错落有致，整洁宽敞的柏油路和规划整齐的菜畦相得益彰……娄星区农村人居环境整治工作的成效给大家留下了深刻印象。', '戴新贤指出，娄星区的农村人居环境整治经验值得学习借鉴，要以此次学习考察为契机，找准差距，抓住重点，因地制宜做好借鉴和创新结合文章，把娄星区在乡村振兴、农村人居环境整治工作中的好经验、好做法融入到今后的工作中，积极发挥人民群众的主观能动性，坚定信心、持续发力、久久为功，推动我县乡村振兴和“秀美屋场”建设迈上新台阶。', '唐年初、王威、谷蓉、周耀辉、夏冰、颜海峰等县领导，娄星区领导曾祥文、徐迪仁、肖亮、王谦参加。（旷雨澄、刘永欢）']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>177</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>衡东县浙江省建德市政协委员到大浦镇岭茶村学习考察</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2019-12-09</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200111/i18940.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['12月5日, 浙江省建德市政协党组副书记、副主席程旭率该市部分政协委员到我县大浦镇岭茶村考察学习。', '考察组一行来到岭茶村村部，边参观边听取该村在班子建设、乡村振兴、产业发展、生态环境等方面的成功经验，考察组分享了杭州市第二水源千岛湖配水工程经验。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>177</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>郴州市组团来我市考察学习农村土地承包经营权确权登记颁证</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2017-05-17</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/rdzt/mszt/hysjzfpzxd/tpxw/20200112/i102207.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['2017年5月16日，郴州市农委、郴州市农经站在郴州市农委副主任袁兴山、郴州市农委副处级干部欧阳诚明、郴州市农经站站长吕银俊的带领下，组织郴州市下辖的11个县市区农经站站长共计25人来我市考察学习农村土地承包经营权确权登记颁证工作。', '考察组一行先后考察了常宁市农经服务中心、常宁市柏坊镇，衡阳县农经服务中心、衡阳县演陂镇，查阅了相关确权资料、观看了确权视频、听取了县乡情况汇报，并与县、乡镇和技术服务公司人员进行了互动交流。考察组对我市和常宁市、衡阳县在农村土地承包经营权确权登记颁证工作和农村经营管理工作方面提供的经验和作法给予了高度评价。', '衡阳市农委纪工委书记刘庆凡、市农委调研员唐东荣、市农经站副站长李丽芳陪同考察。（市农经站供稿）']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>177</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>雁峰区学习先进经验深化交流合作王燕带队赴广州深圳考察文旅工作</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230724/i3062942.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['7月19日至21日，区委书记王燕带队赴广州、深圳考察文旅工作，探索文旅融合模式，促进文旅产业高质量发展。', '19日下午，王燕一行走进广州励丰文化科技股份有限公司的沉浸式交互演艺实验室，深度体验了裸眼3D内容与动捕交互给人带来的震撼效果。随后，大家还参观了非遗数字化实验室、全景多声道体验剧场、全息院线实验室、消声实验室等数个展厅，感受数字声学环境系统“场景丛林”和全息裸眼3D“大咖演唱会”等效果。王燕对企业创新的文化体验、消费业态等给予高度评价，希望双方保持沟通、深入交流，并诚挚邀请企业负责人加强与雁峰合作，挖掘雁峰文化亮点，加快推动文化产业高质量发展。', '当晚，王燕还去到广州永庆坊、粤剧艺术博物馆、珠江琶醍啤酒文化创意艺术区等地，就夜间经济、旧城改造、文化街区建设等内容进行考察。每到一处，王燕详细听取旧城改造、历史文化建筑修缮的基本情况介绍，感受广东传统文化特色和文艺成果。王燕指出，要认真研究学习永庆坊项目在旧城改造、文旅规划、运营管理等方面的成功经验，积极打造具有雁峰特色的亮点项目，为城市留下“原汁原味”的历史记忆。', '20日上午，在深圳市布吉甘坑古镇，王燕先后参观了二十四史、甘坑博物馆等古镇内特色文创、文博馆群、商业街区，详细了解古镇基本情况、发展历程，并表示，要对标先进，积极学习古镇发展经验，精准施策，筹谋推进我区乡村生态旅游和特色旅游建设工作。', '21日，王燕一行还到福田街道（CBD商圈）党群服务中心考察，详细了解基本情况、机构设置、历史沿革、重点工作等社区相关情况，通过交流，对社区商圈党建、文明创建以及商圈经济等工作有了更加深入的了解。', '期间，王燕还去到深圳市大田匠作文化、DCC创意文化园、大筒仓工业遗址、平安金融中心116层云际观光层等地，就城中村改造、文化街区、元宇宙体验、观光旅游等内容进行考察。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>177</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>雁峰区雁峰区政协赴兄弟单位考察学习政协委员工作室建设经验</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2022-03-21</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20220321/i2644841.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['考察组一行先后来到坐落于石鼓区的“市政协民盟界别委员工作室”“人民路街道委员工作室”和珠晖区“东风路街道委员工作室”参观学习。每到一处，考察组都认真学习查看相关台账资料，详细了解委员工作室创建、日常运行先进经验以及服务地方经济社会发展和群众工作的先进做法。', '座谈会上，考察组就如何发挥委员优势、推进协商下沉、服务好群众以及如何通过基层委员工作室打通政协委员履职的“最后一公里”等方面进行了深入座谈交流。', '考察组指出，石鼓区、珠晖区政协委员工作室制度健全，成效显著，社会效益明显，经验值得借鉴。特别是在紧扣群众需求、发挥委员特长，提升履职意识、服务居民群众等方面，赢得了广泛好评，树立了良好形象。下一步，将认真学习借鉴先进经验做法，结合雁峰实际，着力打造1-2个“示范性委员工作室”。通过典型引领，示范带动，着力推进政协委员工作室联系服务群众平台切实发挥作用，全力推动政协工作提质增效，在助推区域经济社会高质量发展中展现政协新作为。同时，希望兄弟县区政协能加强联系交流，增进友谊，互学互鉴，共同促进政协工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>177</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>市政府研究室传达学习习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20200930/i2157553.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['9月29日上午，市政府研究室召开专题党组会议传达学习习近平总书记在湖南考察时的重要讲话精神，交流学习心得体会，研究贯彻落实意见。', '会议指出，习近平总书记在湖南考察调研期间作出的一系列重要讲话和指示，高屋建瓴、内涵丰富，总揽全局、引领方向，为湖南发展明确了新定位、新目标，是从全局出发谋划湖南发展所作出的最高指引，是奋力谱写新时代坚持和发展中国特色社会主义的湖南新篇章的行动指南，更是衡阳投身全省“三高地、四个新”战略的根本遵循。', '会议强调，要按照市委、市政府的部署要求，把学习宣传贯彻习近平总书记重要讲话精神作为当前头等大事和政治任务，迅速掀起学习宣传贯彻热潮，以支部学、党课学等形式达到深入学、用心学，学深悟透、入脑入心。要以亲切关怀为动力，鼓足工作干劲；以使命任务为指引，奋力担当作为；以言传身教为典范，自觉对标看齐。要自觉联系工作实际，增强做好各项工作的信心底气，深入调查研究，勤于思考谋划，勇于担当作为，把经世致用、敢为人先的湖湘精神充分投入到衡阳“一体两翼”建设的事业中来。', '务，迅速掀起学习宣传贯彻热潮，以支部学、党课学等形式达到深入学、用心学，学深悟透、入脑入心。要以亲切关怀为动力，鼓足工作干劲；以使命任务为指引，奋力担当作为；以言传身教为典范，自觉对标看齐。要自觉联系工作实际，增强做好各项工作的信心底气，深入调查研究，勤于思考谋划，勇于担当作为，把经世致用、敢为人先的湖湘精神充分投入到衡阳“一体两翼”建设的事业中来。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>177</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>吐鲁番市生态环境考察团来衡考察</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20240322/i3298036.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['3月20日下午，吐鲁番市生态环境局党组书记、副局长赵明军带领生态环境考察团来衡考察，在市生态环境局召开座谈会。衡阳市生态环境局党组书记、局长蒋云新出席座谈会并讲话，会议由局党组副书记、副局长曹运才主持。', '会上，观看了吐鲁番市鄯善县经济社会发展宣传片，与会人员进行了交流发言，纷纷表示，要加强工作沟通和学习，互相取长补短，促进两地生态环境保护工作。', '蒋云新向考察团简要介绍了我市地理概况及经济社会发展情况和生态环境保护工作取得的成绩，分析了当前我市生态环境保护工作面临的形势，他表示，要学习吐鲁番市生态环境保护工作的好经验、好做法，为美丽衡阳建设做出新的贡献。', '赵明军对衡阳市生态环境局给予吐鲁番市、鄯善县各项工作的支持和帮助表示衷心感谢。他介绍了吐鲁番市风土人情、经济社会发展的基本情况，以及生态环境保护工作特别是风沙治理情况，希望两地生态环境保护部门不断加强沟通协作交流，共同推动两市生态环境保护工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>177</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>常宁市贵州省玉屏侗族自治县来常考察学习油茶产业发展吴乐胜参加</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2022-08-22</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20220822/i2775241.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['8月21日，贵州省玉屏侗族自治县县委书记杨启明率队来常宁考察学习油茶产业发展经验，常宁市委书记吴乐胜参加考察。', '杨启明一行先后来到西岭镇平安村大三湘油茶基地观景台、农民夜校 、平安油茶小镇广场、游客服务中心参观学习，详细了解油茶产业种植规模、油茶品种、加工方式、旅游和文化为一体的油茶产业发展等方面情况，相互交流油茶产业发展经验。', '西岭镇油茶林种植面积达6.1万亩，“中联天地”“殷理基”“大三湘”“大山生态”等20余家油茶产业化龙头企业、专业合作社、家庭农场在该镇从事油茶生产、加工、销售，从业人员达3.67万人。通过新造高产油茶林、低产油茶林改造、油茶脱壳仓储、销售平台、互联网+等项目实施，力争小镇主导产业产值 40 亿元以上。', '近年来，常宁围绕加快建成“中国油茶产业第一县（市）”目标，全市现有油茶林面积100万亩，并成功创建全国油茶生物产业基地、国家油茶示范林基地试点县、全国首个森林经营认证（CFCC）县（市），全国木本油料特色区域示范县（市），“常宁油茶”成为国家地理标志保护产品，并出台全省首个油茶地方标准。通过政府主导、市场推动和社会参与，油茶产业已成为我市推进乡村振兴、加快绿色崛起的富民产业。2021年产茶油2.08万吨，综合产值突破40亿元。', '考察组表示，将把常宁的油茶产业发展经验带回去，进一步研究，加强交流，共同推进油茶产业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>177</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>南岳区常务副区长胡书伟率队考察学习市行政审批服务局放管服改革经验</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019-08-22</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20200111/i19499.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['8月20日，南岳区常务副区长胡书伟一行来到市行政审批服务局考察学习“放管服”改革经验。胡书伟副区长详细介绍了南岳区近期“放管服”改革的成功经验和对改革难点堵点问题的整改措施。', '市行政审批服务局局长戴新贤强调，招商引资靠的是营商环境，中美贸易战实质是大国之争，党中央、国务院高度重视改善营商环境，出台了“减税降费”等一系列改革举措提升国际竞争力。我省也为改善营商环境将“一件事一次办”改革内容纳入了营商环境重要指标考评。在南岳区委、区政府的高度重视下，南岳区“放管服”改革取得了实质性进展，要继续大力快速推进政务大厅建设、“一张网”建设和“一件事一次办”政务服务一体化平台数据落地，专业化进行事项梳理，压缩企业开办时间，推动工程建设领域审批制度改革。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>177</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>耒阳市市政协传达学习习近平总书记在湖南考察时的系列讲话指示精神</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2020-09-27</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200927/i2154101.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['近日，市政协召开党组扩大会，传达学习习近平总书记在湖南考察时的系列讲话指示精神。市政协党组书记、主席张东辉主持会议。', '会议组织学习了习近平总书记在湖南考察时的系列讲话指示精神，以及省、衡阳市、耒阳市相关会议精神。', '张东辉指出，习近平总书记在湖南考察时的系列重要讲话，立意高远、内涵丰富，非常有针对性和指导性，是今后开展工作的重要指南。市政协党组和机关党支部要高度重视，认真学习。要制订详细的学习方案，全体党员干部要通过集中学习和个人自学相结合，认真领会，融会贯通。要创新学习方式，开展讨论交流，切实做到学深悟透。要学以致用，把总书记讲话精神贯彻落实到实际工作中，引领推动政协工作再上新台阶，齐心协力促进耒阳经济高质量发展。(通讯员 刘容芳)']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>177</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>省企业家代表考察团来衡考察寻求合作</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2020-04-23</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/tpxw/20200423/i1974445.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['4月22日下午，市委书记邓群策会见了由省商务厅副厅长王庭恺率领的企业家代表考察团，双方就未来合作进行了深入交流探讨，达成了广泛共识。该考察团成员主要来自三类500强、跨国公司及行业领军企业。', '“如果将合作比喻成恋爱，那么衡阳就是我们企业仰慕已久的姑娘！”座谈会上，沃尔玛湖南公司事务区域总经理刘石炎对投资衡阳非常感兴趣，他表示，将加快考察对接，期待早日扎根衡阳。国药控股湖南有限公司副总经理申志华用“大格局、大手笔、大平台、大发展”高度概括了他对衡阳的认识，他希望未来能与衡阳进行广泛深入的合作。随后，百胜中国控股有限公司公共事务和政府关系经理郑杰、浙江中国小商品城集团股份有限公司湖南项目负责人姜文超、德勤会计事务所湖南业务和市场主管合伙人袁丰等企业家代表也纷纷畅所欲言，表达了投资衡阳的强烈意愿。', '邓群策对考察团一行的到来表示欢迎，并介绍了我市坚决贯彻党中央、国务院和省委、省政府决策部署，统筹推进疫情防控和经济社会发展，一季度主要经济指标位居全省前列，各项事业发展来势较好。邓群策指出，衡阳是粤港澳大湾区往北的第一个大城市，也是承接东部产业转移的“领头雁”城市。当前，衡阳正努力建设名副其实的省域副中心城市和最美地级市、打造现代产业强市，未来发展空间非常广阔。', '邓群策表示，衡阳具有产业基础、枢纽区位、市场潜力等方面的多种优势，希望省商务厅进一步加强对衡阳在招商引资、扩大开放、发展枢纽经济等方面的支持，帮助衡阳将优势进一步转化成发展实力。衡阳与各企业家有着广阔的合作空间，真诚期盼广大客商深入了解衡阳，来此投资兴业，实现互利共赢的美好愿景。衡阳将营造最优营商环境，为各企业在衡发展提供更好更优质服务。', '王庭恺对衡阳优良的营商环境印象深刻，她表示，近年来，衡阳的营商环境、产业基础、对外形象都上到了一个崭新的台阶，对衡阳未来发展充满信心。下一步，将进一步梳理总结此行考察成果，进一步做好对接协调，加快促成一批合作项目签约落地，为衡阳高质量发展作出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>177</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>衡南县衡南县传达学习贯彻习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2020-09-24</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200923/i2151458.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['9月22日上午，衡南县委常委会召开扩大会议，专题传达学习贯彻习近平总书记在湖南考察调研时的重要讲话指示精神和全省领导干部会议、市委常委会（扩大）会议精神。县委书记胡果雄主持会议并讲话。他强调，衡南要切实提高站位，把思想和行动统一到习近平总书记重要讲话指示精神和省委、市委传达贯彻要求上来，务必做到思想认识到位、学习贯彻到位、推动落实到位。', '胡果雄指出，在决胜全面建成小康社会、开启全面建设社会主义现代化国家新征程的关键节点，在"十三五"即将收官、"十四五"即将开局的重要时刻，习近平总书记亲临湖南考察调研、指导工作时发表的一系列重要讲话，是指引各项事业发展的行动纲领和根本遵循。', '胡果雄强调，要提高政治站位，推动习近平总书记重要讲话指示精神在衡南落地生根、开花结果。全县上下要深入学习领会、认真贯彻落实，把习近平总书记的亲切关怀、殷切嘱托和指示要求转化为牢记初心使命、对党绝对忠诚的政治信仰，转化为服务人民、造福人民的责任担当，转化为推动高质量发展、加快现代化建设的强大动力。要把学习宣传贯彻习近平总书记在湖南考察调研时的系列重要讲话指示精神作为当前头等大事和长期任务，以实际行动践行"两个维护"，确保总书记的殷殷嘱托在衡南落地生根、开花结果。', '要坚持真抓实干，在贯彻落实习近平总书记重要讲话指示精神中，彰显衡南担当、贡献衡南力量。要深刻领会把握习近平总书记提出的五个方面重点任务，对标对表、真抓实干。坚决落实"推动经济高质量发展"要求，抓优抓强产业发展；坚决落实"推进农业农村现代化"要求，做优做强精细农业；坚决落实"加强生态文明建设"要求，盯紧盯实绿色发展；坚决落实"改善民生和维护社会稳定"要求，全心全意为民服务；坚决落实"从党的光辉历史中汲取砥砺奋进的精神力量"要求，从严从实加强党的建设。', '要勇担时代使命，坚定不移沿着习近平总书记指引的方向奋勇前进。要切实将习近平总书记的系列重要讲话指示精神和省委、市委工作部署同衡南"四区一花园"建设结合起来，坚持实事求是原则，把以人民为中心贯穿"十四五"规划编制始终，科学编制好"十四五"规划，确保规划编制符合中央精神、切合衡南实际、发挥衡南优势、体现衡南特色、顺应人民期待。', '胡果雄要求，要坚持以习近平总书记重要讲话指示精神为指引，围绕习近平总书记提出的新要求、新目标、新任务，汇聚"万众一心加油干"的磅礴力量，砥砺"越是艰险越向前"的昂扬斗志，为加快建设"四区一花园"，全面建成小康衡南而努力奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>177</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>衡南县交通运输局传达学习习近平总书记在湖南考察的重要讲话精神</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2020-09-24</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20200923/i2151274.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['9月22日下午，衡南县交通运输局召开全局干部职工大会，局党委书记、局长阳祥云同志组织传达学习习近平总书记考察湖南时的重要讲话精神、习近平总书记在基层代表座谈会上的重要讲话精神及衡南县委书记胡果雄同志在县委扩大会议上关于学习贯彻习近平总书记考察湖南重要讲话精神的讲话要求，局党委副书记、副局长谷碧森主持会议并讲话。', '会议要求，全县交通运输系统要提高政治站位，坚决把思想和行动统一到习近平总书记重要讲话精神上来，努力把党和人民的事情办好，把各项交通工作做实、做细、做好。把学习习近平总书记考察湖南重要讲话精神作为重中之重，多层次、多角度做好深入解读和大力宣传，广泛动员，组织好、宣传好、学习好，在全县交通系统中迅速掀起学习热潮。（李超、阳依霏）']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>177</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>省委宣讲团来衡举行报告会学习贯彻习近平总书记考察湖南重要讲话精神</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2020-10-21</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/tpxw/20201021/i2181786.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['根据省委统一安排，10月20日，学习贯彻习近平总书记考察湖南重要讲话精神省委宣讲团报告会在衡举行。市委书记邓群策主持报告会。市委副书记、市长朱健出席报告会。', '报告会上，省委宣讲团成员围绕习近平总书记为湖南发展明确的战略定位、战略目标、战略任务，发展先进制造业和实体经济，脱贫攻坚和乡村振兴，生态文明建设，调查研究、问计于民，红色文化等十二个方面，全面生动概括了习近平总书记考察湖南重要讲话精神的主要内容、丰富内涵、精神实质、核心要义，并详实讲述了湖南贯彻落实的生动实践。强调要在对标看齐中学会绝对忠诚，在领会实质中把握正确方向，在融会贯通中学懂、学深、学透；牢牢把握两个大局的基本出发点，牢牢把握稳中求进的工作总基调，牢牢把握新发展理念的内在要求，牢牢把握服务国家战略的使命担当。', '邓群策强调，全市上下要提高政治站位，以此次省委宣讲团来衡宣讲为新的契机、新的起点，把学习贯彻习近平总书记考察湖南重要讲话精神。作为首要政治任务持续抓紧抓好，在多思多想、学深悟透上，在系统全面、融会贯通上，在知行合一、学以致用上再下功夫。要坚持学习宣传和贯彻落实一体谋划、一体推动，围绕打造“三个高地”、担当“四新”使命、抓好“五项任务”和省委全会决定，结合本地本部门本单位工作实际，认真做好对标对照工作。以加快推进“一体两翼”发展战略为总抓手，聚焦实体经济、农业农村现代化、生态文明建设、民生实事、社会稳定、全面从严治党等方面再发力、再加速，敢担当勇作为，在落实习近平总书记赋予湖南战略定位和使命任务以及省委全会精神中走前列当主力，彰显衡阳使命担当。', '邓群策要求，要科学统筹安排，精心部署，创新方式方法，做好结合文章，以高度的政治自觉和饱满的热情，掀起学习宣传贯彻习近平总书记考察湖南重要讲话精神的热潮。充分激发全市干部群众昂扬向上、锐意进取的精气神，确保习近平总书记重要讲话精神在衡阳落地生根、结出硕果。', '市领导廖健、段志刚、刘泽友、毛朝晖、张霞、杨龙金及全体在家副市级以上领导出席报告会。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>177</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>衡山县浙江企业专家考察团来衡考察洽谈</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2024-05-11</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20240511/i3364957.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['5月6日至8日，杭州米舍文化、浙大之光科技有限公司、雷迪森酒店集团、阿里云等浙江企业专家考察团一行来衡考察交流，洽谈合作文旅、工业项目，考察团一行实地考察了店门镇石门社区、镭钵峰景区、九观湖片区、八里小镇、开云新区、衡山西站、双全新村、衡山智能制造产业园、衡山专用汽车制造有限公司、白果镇岳北农工会、西游洞天、花果山景区、白果镇岳北高标准农田等地，现场听取项目建设及运营等相关情况介绍。', '5月7日晚，双方在县政府四楼会议室召开浙江文旅企业专家考察团来衡考察座谈会，县委书记戴新贤出席座谈会并讲话，县委副书记、县长段晓赛主持会议。', '会上，米舍文化CEO尉建、浙大之光董事长陈中、雷迪森酒店集团业务发展总经理景成钢等与会企业家分别结合各自公司发展情况、业务能力、资源优势以及从自身专业角度发言，对衡山考察项目的思考和发展提出了建议，分享了发展地方文旅和工业的项目经验，并围绕文旅、工业合作新机遇、资源优势、客源市场需求及如何推动衡山高质量发展展开深入交流。', '戴新贤作总结讲话，他对衡山县的发展定位及产业发展情况进行系统介绍，对各位文旅企业家们关于考察项目的思考能够直击衡山发展的痛点予以高度认可，他表示，要学习浙江经验，争取把浙江经验留在衡山，更期望能集合众人智慧及力量，找到衡山县文旅发展的突破口，促进项目快速落地，助推衡山县文旅有序发展。', '戴新贤诚挚邀请企业家们参与到“制造立县、文旅兴城”发展战略中来，通过结合经验与衡山特色经济思路，培育和发展衡山特色优质文旅产业和工业产业，增强衡山产业支撑能力，推动衡山人民群众集体收入；推动衡山高质量发展，实现跨越性经济发展，凭借区域独特的优势资源培育和打造优势产业。', '下一步，双方将继续加强沟通交流，携手推动全域文旅与乡村振兴产业的深度融合与发展，通过不断创新与合作，共同打造更多具有地方特色的文旅项目与乡村振兴示范点，为地方经济社会发展注入新的活力、动力。', '县委副书记、政法委书记谢斌，县人大常委会主任旷志军，县委常委、宣传部部长谷蓉，副县长谭斌、涂闻卿，衡山高新区管委会主任唐自立陪同考察并参加座谈会。（郑檬）']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>177</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>蒸湘区蒸湘区传达学习习近平总书记在湖南考察时的重要讲话和指示精神</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2024-03-28</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20240328/i3301685.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['3月26日，区委副书记、区长李健主持召开区委常委会会议，传达学习习近平总书记在湖南考察时的重要讲话和指示精神以及新时代推动中部地区崛起座谈会精神。', '会议指出，习近平总书记在湖南考察指导、听取汇报，并主持召开新时代推动中部地区崛起座谈会，充分体现了对湖南的高度重视和亲切关怀。全区上下要以强烈的政治自觉和行动自觉，更加紧密地团结在以习近平同志为核心的党中央周围，坚定不移沿着习近平总书记指引的方向前进，认真学习领会，切实把习近平总书记在湖南考察时的重要讲话和指示精神转化为加快推进蒸湘高质量发展的生动实践。', '会议强调，学习宣传贯彻习近平总书记重要讲话重要指示精神是当前和今后一个时期全区的首要政治任务。全区各级各部门要深刻领悟精神实质、深刻领会精髓要义，抓好贯彻落实，切实强化组织领导，深入开展多形式、全方位、广覆盖的宣传解读，把习近平总书记的亲切关怀和工作要求传递到千家万户，做到家喻户晓、深入人心。要全面融会贯通，与学习贯彻习近平新时代中国特色社会主义思想、习近平总书记在新时代推动中部崛起座谈会上的重要讲话精神，与加快推进区域中心化、“制造立市、文旅兴城”发展战略的部署要求，与“五区”建设、“五业”发展、奋力打造省域副中心城市高质量发展示范区结合起来，强化系统领会、统筹把握、协同落实，切实让习近平总书记的关心厚爱和殷殷嘱托转化为推动蒸湘各项事业发展的强大动力，一步一个脚印把总书记擘画的美好蓝图变为现实图景。', '会议强调，全区各级各部门、镇（街道）要聚焦产业发展、“五区”建设、改革创新、城乡建管、群众期盼、社会稳定，大力实施乡村振兴战略，深入推进城乡融合发展，持续深化文旅融合发展，纵深推进党风廉政建设，不断提高人民群众获得感、安全感、满意度，全力真抓实干、争先创优，保持定力、久久为功，凝心聚力为续写高质量蒸湘更加出彩绚丽篇章作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>177</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>耒阳市赖馨正率队赴云南滇中新区昆明市晋宁区考察学习园区建设乡村振兴等工作</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20231208/i3207831.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['[耒阳市] 赖馨正率队赴云南滇中新区、昆明市晋宁区考察学习园区建设、乡村振兴等工作', '12 月 6 日下午至7 日，衡阳市委副书记、耒阳市委书记赖馨正率队赴云南滇中新区、昆明市晋宁区考察学习园区建设、乡村振兴等工作，并到昆明先导新材料科技有限责任公司考察座谈。滇中新区党工委副书记、管委会副主任杨东伟，党工委委员、管委会副主任段宏波参加考察或座谈；先导科技集团执行董事朱世明参加并主持座谈会。', '7日上午，赖馨正一行考察了滇中新区规划展览馆、昆明先导新材料科技有限责任公司，详细了解新区经济社会发展、园区建设、产业培育等情况。', '赖馨正介绍了耒阳经济社会发展情况及特色亮点工作，感谢滇中新区和先导科技集团对耒阳经济社会发展的关心和支持。他说，当前，耒阳已步入高质量发展起势起航的新阶段 ，正举全市之力加快推进“211+X”产业发展和“五好园区”建设，坚持大抓产业、抓大产业，穷尽一切办法满足产业发展需求，力争早日实现先进制造、循环经济和纸品、童车四个主导和特色优势产业产值分别过百亿目标，打造“月亮和星星交相辉映”的产业发展格局，助推经济转型升级和高质量发展。耒阳先导新材料项目是先导科技集团功能材料事业部的总部基地，与昆明先导新材料项目“兄弟”同心，携手共进，一定都会发展得越来越好。热切期盼滇中新区和昆明先导多来耒阳走一走、看一看，多加强沟通交流、多为耒阳传经送宝、多宣传推介耒阳，相信在多方的共同努力和密切合作下，滇中新区、先导科技集团和耒阳一定会乘势而上、前景美好。', '杨东伟热烈欢迎赖馨正一行，表示希望以此次考察为契机，持续加强沟通联系，取长补短、相互促进，共同推动两地经济社会高质量发展。段宏波对耒阳经济社会发展取得的成绩点赞，他表示，滇中新区正依托昆明长水国际机场加快发展航空服务业，培育壮大临空先进制造业，鼓励发展稀有金属深加工产业，重点支持智能终端产业链式发展，提升集成电路产业链上游关键材料供给能力。先导科技集团在滇中新区、耒阳市均布局了重点项目，希望双方建立常态化互动交流机制，合力推进先导科技集团上下游产业协同发展，实现合作多赢。', '7日下午，赖馨正一行考察了昆明市晋宁区上蒜镇牛恋村委会小渔村，详细了解小渔村产业发展、乡村旅游等情况，要求相关单位认真学习小渔村好经验好做法，引导社会资本参与，探索市场化运营模式，因地制宜发展壮大特色产业，大力发展乡村旅游，加快推进“强村计划”和“三灰一白”行动，建设宜居宜业和美乡村。', '滇中新区临空先进制造业发展局局长苏志云、副局长张与明参加在新区考察活动；耒阳市领导郭兴中、周斐、张涛及部分乡镇党委书记、相关单位负责人参加。（记者 袁成龙 曾志明）']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>177</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>市直工委举行理论中心组学习习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2020-09-28</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20200928/i2155520.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['25日，市直工委举行理论中心组（扩大）第七次学习，传达学习习近平总书记在湖南考察时的重要讲话精神和省委、市委有关学习贯彻要求，进一步推动习近平总书记重要讲话精神在市直工委落地生根。', '当天，与会人员认真学习了习近平总书记在湘考察期间的重要讲话精神，学习习近平总书记关于打造“三高地、四个新”的指示要求和推动经济高质量发展、推进农业农村现代化进程、加强生态文明建设等5个方面的内容。重点学习了习近平总书记关于加强基层党组织建设有关内容。', '与会人员纷纷表示，在决战脱贫攻坚、决胜全面建成小康社会、开启全面建设社会主义现代化国家新征程的关键节点，在收官“十三五”、谋划“十四五”的关键阶段，习近平总书记亲临湖南考察，充分体现了对湖南工作的高度重视，体现了对湖南人民的亲切关怀，大家备受鼓舞，倍感振奋、倍增信心。', '市直工委常务副书记谢柯表示，下阶段市直工委将谨记习近平总书记的嘱托，着力抓好市直机关各级党组织和党员的学习和宣传，把学习贯彻习近平总书记重要讲话精神，作为当前和今后一个时期的重要政治任务；着力抓好党的建设，夯实基层基础，始终把党的政治建设放在首位，教育引导广大党员、干部筑牢信仰之基、补足精神之钙、把稳思想之舵；着力聚焦我市“一体两翼”发展战略，发挥党建引领作用，服务衡阳高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>177</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>耒阳市尹立鑫率队赴永顺县开展乡村振兴对口帮扶考察学习美丽乡村建设工作</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20220530/i2700975.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['5月27日至28日，按照上级工作要求，受衡阳市委副书记、耒阳市委书记赖馨正委托，市委副书记、市长尹立鑫带领政府办、乡村振兴局、财政局、农业农村局以及部分乡镇街道负责人赴湘西州永顺县开展乡村振兴对口帮扶，并考察学习美丽乡村建设工作。耒阳市领导陆冬生，永顺县领导向加茂、鲁开发等参加。', '27日，在乡村振兴对口乡镇永顺县万坪镇，尹立鑫一行实地调研了该镇竹产品加工产业和小城镇建设，并召开座谈会，与对口帮扶单位交流工作经验，学习先进做法，探索拓宽帮扶方式，共商对口帮扶工作大计，两地情谊进一步加深。', '尹立鑫首先转达了衡阳市委副书记、耒阳市委书记赖馨正对永顺县各位领导以及衡阳市驻永顺县工作组各位同志的问候，并指出，耒阳市与永顺县都是革命老区，产业具有类似性，工作相同、感情相近、心灵相通、很有渊源，去年以来，耒阳市将万坪镇作为耒阳的第“31”个乡镇街道进行帮扶，通过共同努力，看到了喜人变化，感到很振奋、很欣慰。他表示，对口帮扶工作既是贯彻落实习近平总书记关于对口支援和东西部扶贫协作工作系列重要指示精神的生动实践，也是全面落实“三高四新”战略定位和使命任务的具体表现，耒阳将进一步贯彻落实上级工作部署，带着感情、带着责任，继续在对口帮扶的广度和深度上下功夫，确保帮扶取得实效；将结合两地的优势资源，形成稳定的联席、推进、交流机制，围绕人才培养、产业发展、项目建设、电商服务等方面进行深度对接，为永顺县有力有序推进乡村振兴战略蓄势赋能。', '永顺县委副书记、县长向加茂代表永顺县委、县政府向尹立鑫一行的到来表示热烈欢迎和衷心感谢。他表示，希望耒阳市进一步加大对永顺县的帮扶力度，细化实化工作重点和政策措施，带动永顺县乡村振兴战略落实落地。', '28日，尹立鑫一行又赴永顺县高坪乡西米村、场坪村考察学习美丽乡村建设工作。一路走来，看到永顺县满眼绿水青山、沿路整洁有序、墙上诗情画意、村落古香古色，传统文化、民族特色很好融入了美丽乡村建设，尹立鑫要求相关单位借鉴永顺县的宝贵经验与管理方法，认真学习研究，结合耒阳实际及文化元素，因地制宜，制订符合地方实际的人居环境治理方案，在耒阳打造更多、更美、更富地方特色的乡村样板。(通讯员邓海云记者 袁成龙)']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>177</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>珠晖区学习贯彻习近平总书记考察湖南重要讲话精神市委宣讲团到珠晖宣讲</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2020-10-30</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20201030/i2192029.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['10月29日下午，学习贯彻习近平总书记考察湖南重要讲话精神市委宣讲团到我区进行宣讲，市委宣讲团成员洪明星作宣讲报告，区委书记刘桢干主持宣讲会。', '市委宣讲团成员洪明星在宣讲报告中从习近平总书记考察湖南的基本情况，重要讲话的重大意义，重要讲话的丰富内涵和精神实质，全面贯彻落实重要讲话精神四个方面深刻阐述了习近平总书记对湖南各项工作的高度肯定、对湖南发展的新目标新定位，真情传达了习近平总书记对湖南的亲切关怀、深情厚望和殷切期盼，并结合珠晖经济社会发展实际，对我区的学习宣传贯彻工作提出了重要指导意见。', '刘桢干说，习近平总书记考察湖南系列重要讲话精神，是对新时代湖南发展的又一次全面把脉、精准导航、系统定向，也为我们推进珠晖高质量发展指明了前进方向、提供了根本遵循。他要求，要提高政治站位，把学习贯彻习近平总书记考察湖南重要讲话精神作为首要政治任务持续抓紧抓好；要全面贯彻落实，坚定不移沿着习近平总书记指引的方向开拓前行，切实将学习贯彻习近平总书记考察湖南系列重要讲话精神转化为推进珠晖高质量发展的磅礴力量；要深入学习宣传，推动习近平总书记系列重要讲话精神入脑入心。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>177</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>华北地区企业家考察团来衡进行投资考察</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20231127/i3185756.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['11月25日，省政府驻京办副主任、省驻京工作专班副主任叶劲松率华北地区企业家考察团来衡进行投资考察。副市长黄艳娥参加。', '来自中机国际工程设计研究院有限责任公司、北京久银投资、北京资源亿家等20余家企业的负责人参加此次投资考察，实地参观了建滔、衡阳比亚迪、特变电工衡变公司、光云科技等企业，并同市直有关部门负责人座谈交流。', '叶劲松在座谈会上指出，湖南正迎来投资环境最好、发展机遇最好的时期，营商环境不断优化，是投资兴业的好时机。衡阳作为省域副中心城市，深入实施“制造立市、文旅兴城”发展战略，产业生态日新月异，是投资兴业的好地方。希望通过这次投资考察，推动央地政企强强联手，找到互利共赢的好出路，实现双向奔赴、融合发展、携手共进。', '黄艳娥表示，期待同各位企业家进一步加强沟通、交流，建立深厚友谊，开展深度合作。衡阳将全心全意为企业服务，全面落实好“一件事一次办”企业“零跑路”制度，让企业放心投资；真心实意为企业降低水电气物流等要素成本，让企业安心经营；满怀诚意地落实好“稳增长20条”，认真履行招商惠企政策，让企业专心发展。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>177</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>衡阳县耒阳市考察组来我县交流学习城乡客运一体化示范县市推进工作</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2023-03-17</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230317/i2953856.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['3月15日，耒阳市副市长伍检告率考察组来我县交流学习城乡客运一体化示范县市推进工作。', '座谈会上，副县长伍建春就我县城乡客运一体化工作面临的形势、创建存在的问题以及下阶段如何攻坚克难进行了分析。县交通运输局主要负责人就我县城乡客运一体化已经开展的工作进行了介绍。双方就各县市如何推进城乡客运一体化工作进行了深入探讨。', '伍检告表示，此次学习交流启发很大，将会认真思考耒阳市城乡客运一体化推进工作，同时希望两地进一步加强交流，互相学习，取长补短。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>177</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>我市党员干部学习贯彻习近平总书记在湖南考察时的重要讲话精神座谈会召开</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2020-09-27</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20200927/i2154078.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['9月25日下午，衡阳市党员干部学习贯彻习近平总书记在湖南考察时的重要讲话精神座谈会召开，市委常委、市委组织部部长胡绪阳出席会议并讲话。', '在座谈中，来自机关事业单位、乡镇街道、村社区、企业等方面的党员干部结合工作实际，畅谈了学习习近平总书记重要讲话精神的心得体会，并就如何把习近平总书记重要讲话精神贯彻落实到实际工作中去进行了深入交流。', '胡绪阳指出，全市各级党组织和广大党员要把学习贯彻习近平总书记重要讲话精神，作为当前和今后一个时期的重要政治任务。领导干部带头学，全体党员深入学，教育培训重点学，联系实际结合学，形式多样广泛学，学深悟透、学以致用。将习近平总书记重要讲话精神内化于心、外化于行，转化为践行初心使命的自觉行动，把新要求、新目标、新任务全面贯彻到“十四五”规划编制工作中去。要深刻把握习近平总书记重要讲话精神中蕴含的思想精髓和核心要义、鲜明的人民性、贯穿的守正创新精神、强基固本的导向，加强党的政治建设，强化干部人才队伍建设，着力夯实基层基础，提升基层治理水平，努力彰显党员干部担当作为，推动衡阳高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>177</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>河南省信阳市考察团考察我市油茶产业发展</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021-12-13</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20211210/i2564085.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['12月8日至9日，河南省信阳市委常委、副市长秦保建率市政企考察团一行来我市考察油茶产业发展情况。市委常委市政府党组成员黄立、市林业局（市油茶产业发展局）局长刘晓利、大三湘董事长周新平陪同考察。', '考察团一行实地考察了我市大三湘常宁西岭油茶种植基地、平安油茶小镇、衡南大三湘东方树油茶庄园、大三湘油茶现代加工基地总部，并召开了座谈会。座谈会上，双方就油茶产业政策支持、发展措施、油茶产业全产业链加工、品牌创建、市场营销、科技支撑体系、林旅融合发展等情况进行了全方位交流。', '考察团高度肯定了我市在市委市政府的高度重视下，油茶产业发展所取得的成绩，特别是对我市，通过增加体量、提升质量、做优品牌、做大市场等措施，到“十四五”末，油茶林面积达到500万亩，丰产林面积350万亩以上，年产茶油12万吨，产值突破500亿元的目标充满信心。希望双方龙头企业加大交流与合作，共同促进两地油茶产业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>177</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>衡山县衡山县政府考察团赴深圳招商考察</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2023-03-28</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230328/i2971625.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['考察团先后考察了深圳市亿道信息股份有限公司、智讯控股（广州）有限责任公司等企业，参加深圳市衡山商会2023春茗会。深圳市亿道信息股份有限公司是专业从事笔记本电脑、平板电脑及其他智能硬件等电子设备的研发、设计、生产和销售的高新技术企业。考察团参观了该企业的产品展厅和实验室，并与企业负责人进行座谈。智讯控股（广州）有限责任公司是房产数字化整合营销服务商，为住宅地产、产业地产、商业地产等客户提供一站式数字化解决方案。在该企业的座谈会上，双方就互联网传播、文旅宣传策划、矩阵化声量宣传等方面进行了交流。', '在深圳市衡山商会的春茗会上，副县长涂闻卿做了招商引资优惠政策及重点项目推介，详细介绍了衡山县独特的区位优势、产业优势、交通便利优势、政策红利优势等，深入阐述了衡山产业发展情况和重点发展、招商引资方向，期望深圳衡山商会进一步发挥广大企业家的优势，积极搭建深圳市与衡山县的桥梁，不断拓展在衡山县的投资合作领域，继续深化合作交流。', '在深圳市衡山商会晚宴活动中，县人大常委会副主任、县工商联主席赵晓阳发表致辞，他希望商会的各位企业家一如既往地关心家乡发展，投资家乡建设，助力家乡招商引资，为推进“五兴六强”现代化新衡山贡献力量。', '在深圳的衡山企业家们纷纷表示，衡山县区位优势明显，生态环境好、营商环境优、政策叠加优势凸显，是企业投资创业的福地，对回衡山投资兴业充满期待，愿意进一步加强沟通、加深了解、深入考察，促进合作共赢。（文峰）']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>177</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>习近平在新疆考察</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2022-07-16</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202207/t20220716_27559360.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['习近平：完整准确贯彻新时代党的治疆方略 建设团结和谐繁荣富裕文明进步安居乐业生态良好的美好新疆', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区考察时，向各族群众挥手致意。新华社记者 李学仁 摄', '新华社乌鲁木齐7月15日电 中共中央总书记、国家主席、中央军委主席习近平近日来到新疆考察调研，看望慰问各族干部群众。习近平强调，要坚决贯彻党中央决策部署，完整准确贯彻新时代党的治疆方略，牢牢扭住社会稳定和长治久安总目标，坚持稳中求进工作总基调，全面深化改革开放，推动高质量发展，统筹疫情防控和经济社会发展，统筹发展和安全，在新时代新征程上奋力建设团结和谐、繁荣富裕、文明进步、安居乐业、生态良好的美好新疆。', '7月12日至15日，习近平在新疆维吾尔自治区党委书记马兴瑞、自治区政府主席艾尔肯·吐尼亚孜陪同下，先后来到乌鲁木齐、石河子、吐鲁番等地，深入学校、国际陆港区、社区、博物馆、农村和新疆生产建设兵团等进行调研。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市高昌区亚尔镇新城片区新城西门村考察时，同各族群众在一起。新华社记者 李学仁 摄', '12日下午，习近平首先来到新疆大学考察调研。习近平参观了校史馆和铸牢中华民族共同体意识研究基地，详细了解学校历史沿革和建设、加强人才培养、促进民族交往等情况，听取调研归来的学生谈收获。习近平指出，我国是统一的多民族国家，中华民族多元一体是我国的一个显著特征。我们创造性地把马克思主义民族理论同中国民族问题具体实际相结合，确立了以民族平等、民族团结、民族区域自治、各民族共同繁荣发展为主要内容的民族理论和民族政策，各民族在社会主义制度下实现了真正意义上的平等团结进步。我们的民族理论和政策是好的、管用的。要坚持走中国特色解决民族问题的正确道路，不断丰富和发展新时代党的民族理论，推进中华民族共同体基础性问题研究。各民族大团结的中国一定是无往而不胜的，一定是有着光明未来的，我们的第二个百年奋斗目标必然会胜利实现，中华民族伟大复兴必然会到来。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是12日下午，习近平在新疆大学考察时，同师生们亲切交流。新华社记者 李学仁 摄', '习近平强调，育人的根本在于立德。要坚持社会主义办学方向，培养德智体美劳全面发展的社会主义建设者和接班人。要突出优势特色，打造高水平师资队伍，提升科研创新能力，推动新疆大学“双一流”建设不断迈上新台阶。希望同学们做为中国特色社会主义、为中华民族努力奋斗的一代青年。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是12日下午，习近平在乌鲁木齐国际陆港区，同工作人员及现场办事人员亲切交流。新华社记者 谢环驰 摄', '随后，习近平来到乌鲁木齐国际陆港区，听取有关情况介绍，通过实时画面察看中欧班列（乌鲁木齐）集结中心各功能区和阿拉山口口岸、霍尔果斯口岸现场作业情况，并同铁路货运窗口工作人员及现场办事人员亲切交流。习近平强调，随着我国扩大对外开放、西部大开发、共建“一带一路”等深入推进，新疆从相对封闭的内陆变成对外开放的前沿，要推进丝绸之路经济带核心区建设，把新疆的区域性开放战略纳入国家向西开放的总体布局中，创新开放型经济体制，加快建设对外开放大通道，更好利用国际国内两个市场、两种资源，积极服务和融入新发展格局。习近平叮嘱当地负责同志，要坚持“外防输入、内防反弹”，坚持“动态清零”，防疫工作要力求精准、力求方便群众。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区少儿阅览室，观看儿童中华优秀传统文化知识表演。新华社记者 燕雁 摄', '13日上午，习近平来到乌鲁木齐市天山区固原巷社区。该社区少数民族居民占95%以上。习近平走进党群服务中心大厅、爱心之家、舞蹈室、少儿阅览室，同社区居民亲切交流。习近平饶有兴致观看儿童中华优秀传统文化知识表演，他指出，中华优秀传统文化教育抓早抓小、久久为功、潜移默化、耳濡目染，有利于夯实传承中华优秀传统文化的根基。在维吾尔族居民阿布来提·吐尔逊家中，习近平仔细察看客厅、卧室、厨房等，同一家人围坐在一起拉家常。习近平强调，民族团结是我国各民族人民的生命线，新疆各民族都是中华民族大家庭不可分割的成员，要格外珍惜安定团结的大好局面，56个民族拧成一股绳，保持定力、脚踏实地，同心协力、踔厉奋发，在党的领导下为实现第二个百年奋斗目标继续奋斗。习近平指出，社区工作连着千家万户，要充分发挥社区基层党组织的战斗堡垒作用，把工作重心下沉，紧贴各族居民所思所想所盼，帮助大家办好事、办实事、解难题，促进各族群众手足相亲、守望相助，共建美好家园、共创美好未来。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区，同维吾尔族居民阿布来提·吐尔逊一家人围坐在一起拉家常。新华社记者 谢环驰 摄', '离开社区时，身着民族服装的各族群众载歌载舞，向总书记表达由衷的爱戴。习近平祝福大家事业欣欣向荣、生活越来越幸福。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区考察时，同各族群众在一起。新华社记者 谢环驰 摄', '随后，习近平来到新疆维吾尔自治区博物馆，参观《新疆历史文物展》，观看民族史诗《玛纳斯》说唱展示，并同《玛纳斯》非物质文化遗产传承人亲切交谈。习近平指出，中华文明博大精深、源远流长，是由各民族优秀文化百川汇流而成。要加强中华民族共同体历史、中华民族多元一体格局的研究，充分挖掘和有效运用新疆各民族交往的历史事实、考古实物、文化遗存，讲清楚新疆自古以来就是我国不可分割的一部分和多民族聚居地区，新疆各民族是中华民族大家庭血脉相连、命运与共的重要成员。要加强非物质文化遗产保护传承，把各民族优秀传统文化发扬光大。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市新疆维吾尔自治区博物馆，同《玛纳斯》非物质文化遗产传承人在一起。新华社记者 谢环驰 摄', '13日下午，习近平来到新疆生产建设兵团八师石河子市，参观新疆兵团军垦博物馆。在博物馆一层大厅，习近平会见了兵团老中青三代建设者代表。他强调，新疆生产建设兵团为推动新疆发展、增进民族团结、维护社会稳定、巩固国家边防作出了不可磨灭的贡献。兵团人铸就的热爱祖国、无私奉献、艰苦创业、开拓进取的兵团精神，是中国共产党人精神谱系的重要组成部分，要用好这些宝贵财富。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日下午，习近平在新疆生产建设兵团八师石河子市新疆兵团军垦博物馆，会见兵团老中青三代建设者代表。新华社记者 李学仁 摄', '随后，习近平乘车前往八师一四三团考察调研。在农一连棉花种植基地，习近平走进田间，察看棉花长势，向正在田间劳作的种植户、农技人员询问棉花种植、销售和家庭收入等情况。在九连蟠桃种植园，习近平对这些年连队鼓励和支持职工发展种植养殖业、生态观光旅游和农家乐产业，增加职工收入的做法表示赞许。习近平指出，兵团农业机械化程度高，农业规模化生产、产业化经营条件好，在粮棉油、果蔬生产等方面优势明显，要在保障我国粮食安全和重要农产品供给方面发挥更大作用。要落实好党中央支持兵团发展的政策，发挥兵团优势，强化农业科技和装备支撑，因地制宜发展优势农产品、壮大优势产业，促进农牧业绿色高效发展。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日下午，习近平在新疆生产建设兵团八师一四三团农一连棉花种植基地考察。新华社记者 谢环驰 摄', '在一四三团花园镇广场上，习近平同兵团干部群众亲切交谈。他强调，兵团的战略作用不可替代。要加快推进兵团改革，深化兵地融合，打造城乡和谐的田园式家园，充分发挥兵团作为安边固疆稳定器、凝聚各族群众大熔炉、发展先进生产力和先进文化示范区的功能和作用，努力形成新时代兵团维稳戍边新优势。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市葡萄沟考察时，同游客亲切交流。新华社记者 李学仁 摄', '14日，习近平来到吐鲁番市考察调研。在葡萄沟，习近平察看吐鲁番特色水果展示，了解当地发展葡萄特色产业、促进文旅融合发展等情况。习近平强调，吐鲁番美丽富饶、瓜果飘香，这是大自然的馈赠。要正确处理经济社会发展和生态环境保护的关系，推动文化和旅游融合发展，打造富民产业。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市高昌区亚尔镇新城片区新城西门村党群服务中心医务室考察。新华社记者 燕雁 摄', '习近平随后来到高昌区亚尔镇新城片区新城西门村，先后考察党群服务中心、农产品加工企业。村广场上，村民们看到总书记来了，欢呼着围拢过来，高声向总书记问好。习近平指出，全面建设社会主义现代化国家，一个民族都不能少。要巩固拓展好脱贫攻坚成果，扎实推进乡村振兴，推动实现农村更富裕、生活更幸福、乡村更美丽。习近平祝愿乡亲们的日子越来越红火、孩子们茁壮成长。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市高昌区亚尔镇新城片区新城西门村村广场，同村民们亲切交流。新华社记者 李学仁 摄', '在吐鲁番市，习近平还考察了世界文化遗产交河故城。交河故城是世界上保存最完整、延续时间最长、规模最大的生土结构古代建筑城市。习近平强调，交河故城是丝绸之路的交通要道，是中华五千多年文明史上的一个重要见证，有重要史学价值。要加强文物保护利用和文化遗产保护传承，不断扩大中华文化国际影响力，增强民族自豪感、文化自信心。', '15日上午，习近平听取了新疆自治区党委和政府、新疆生产建设兵团工作汇报，对新疆各项工作取得的成绩给予肯定，希望自治区党委和政府团结带领广大干部群众，同心协力，砥砺前进，扎实做好新疆各项工作。', '习近平指出，要聚焦新疆工作总目标，推动事关长治久安的根本性、基础性、长远性工作。要不断探索全面贯彻新时代党的治疆方略的有效办法，把党中央要求落实到实际行动上和工作成效上，确保新疆工作始终沿着正确方向前进。新疆保持长期稳定最重要的在于人心。要坚持团结一致向前看，最大限度发挥广大干部群众在保稳定、谋发展、促改革中的积极作用，注意倾听社会各界意见。要推动维稳工作法治化常态化。要多层次、全方位、立体式开展涉疆对外宣传，完善“请进来”工作，讲好中国新疆故事。', '习近平强调，要铸牢中华民族共同体意识，促进各民族交往交流交融。中华文明是新疆各民族文化的根脉所在。要教育引导广大干部群众正确认识新疆历史特别是民族发展史，树牢中华民族历史观，铸牢中国心、中华魂，特别是要深入推进青少年“筑基”工程，构筑中华民族共有精神家园。要推动各族群众逐步实现在空间、文化、经济、社会、心理等方面的全方位嵌入，促进各民族像石榴籽一样紧紧抱在一起。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是12日下午，习近平在新疆大学铸牢中华民族共同体意识研究基地，同师生亲切交流。新华社记者 李学仁 摄', '习近平指出，要提升宗教事务治理能力，实现宗教健康发展。要更好坚持伊斯兰教中国化方向，使宗教与社会主义社会相适应。要培养一支精通马克思主义宗教观、熟悉宗教工作、善于做信教群众工作的党政干部队伍，培养一支政治上靠得住、宗教上有造诣、品德上能服众、关键时起作用的宗教界代表人士队伍，培养一支思想政治坚定、坚持马克思主义宗教观、学风优良、善于创新的宗教学研究队伍。要保障信教群众正常宗教需求，把信教群众牢牢团结在党和政府周围。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区考察时，同各族群众亲切交流。新华社记者 谢环驰 摄', '习近平指出，要以增强认同为目标，深入开展文化润疆。文化认同是最深层次的认同。要端正历史文化认知，突出中华文化特征和中华民族视觉形象。要多角度全方位构建展现中华文化共同性、新疆同内地各民族交往交流交融历史事实的话语体系和有效载体，让中华文化通过实物实景实事得到充分展现、直抵人心，教育引导各族群众树立正确的国家观、历史观、民族观、文化观、宗教观，增进对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市新疆维吾尔自治区博物馆参观《新疆历史文物展》。新华社记者 李学仁 摄', '习近平强调，要深刻认识发展和稳定、发展和民生、发展和人心的紧密联系，推动发展成果惠及民生、凝聚人心。要加快经济高质量发展，培育壮大特色优势产业，增强吸纳就业能力。要把巩固脱贫攻坚成果同乡村振兴有效衔接起来，健全乡村可持续发展长效机制。要坚持山水林田湖草沙一体化保护和系统治理，推进生态优先、绿色发展，深入打好污染防治攻坚战，严守生态保护红线。要加大对外开放力度，打造向西开放的桥头堡，推进丝绸之路经济带核心区建设。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市高昌区亚尔镇新城片区新城西门村农产品加工企业考察。新华社记者 谢环驰 摄', '习近平指出，要坚持全面从严治党，切实抓好高素质干部队伍建设。要坚持严的主基调，以党的政治建设为统领推进党的各方面建设，严肃政治纪律和政治规矩。要巩固拓展党史学习教育成果，教育引导广大党员、干部坚定理想信念，传承红色基因，赓续红色血脉。要夯实基层基础，把各领域基层党组织建设成为坚强战斗堡垒。要切实改进基层工作作风，坚决克服官僚主义、形式主义。要优化党政领导班子结构，注重发挥少数民族干部作用。', '习近平强调，兵团要适应新形势新要求，在实现新疆工作总目标中发挥更大作用。要坚持兵地一盘棋，重大基础设施同步建设，全面推进兵地经济、社会、文化、生态文明建设和民族团结进步、干部人才等方面的融合发展，实现设施共建、资源共享、深度嵌入、优势互补。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日下午，习近平在新疆生产建设兵团八师一四三团九连蟠桃种植园考察。新华社记者 谢环驰 摄', '习近平指出，做好新疆工作事关大局，是全党全国的大事。全党都要站在战略和全局高度认识新疆工作的重要性，加大对口援疆工作力度，完善对口援疆工作机制，共同把新疆的工作做好，以实际行动迎接党的二十大胜利召开。', '汇报会前，习近平分别会见了新疆维吾尔自治区及有关部门、各地市负责同志及老同志代表，新疆生产建设兵团领导班子成员及有关方面负责同志，各族各界代表，援疆干部代表，政法干警代表，宗教界爱国人士代表。习近平代表党中央向奋斗在天山南北的广大同志们致以诚挚问候。', '7月15日上午，习近平在乌鲁木齐亲切接见了驻新疆部队官兵代表。习近平向驻新疆部队全体同志致以诚挚的问候，对驻新疆部队为强边固防、稳疆兴疆作出的突出贡献给予充分肯定。他强调，要贯彻新时代党的强军思想，贯彻新时代军事战略方针，为促进新疆社会稳定和长治久安积极贡献力量。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是15日上午，习近平在乌鲁木齐亲切接见驻新疆部队官兵代表，向驻新疆部队全体指战员致以诚挚的问候，对驻新疆部队作出的突出贡献给予充分肯定。新华社记者 李刚 摄', '15日下午，习近平离疆返京时，各族群众在道路旁热烈欢送总书记，欢呼声和掌声经久不息。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>177</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>衡阳市财政局认真学习宣传贯彻习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2020-10-16</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20201015/i2171677.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['9月29日下午，市财政局召开党组（扩大）会，深入学习习近平总书记在湖南考察时的重要讲话，研究贯彻落实措施。党组书记、局长秦振衡强调，要把学习贯彻习近平总书记在湖南考察时的重要讲话精神作为当前首要政治任务，做到局党组带头学、各党支部集中学、党员干部主动学，确保习近平总书记重要讲话指示精神在衡阳财政落地生根。', '9月30日，各党支部对习近平总书记在湖南考察时的系列重要讲话指示精神进行专题学习，并开展热烈讨论。大家纷纷表示，总书记的讲话鼓舞人心、催人奋进，一定牢记总书记的深情嘱托，全面贯彻到财政工作中，体现衡阳财政担当。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>177</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>衡山县县委办系统传达学习习近平总书记在湖南考察时的系列重要讲话指示精神</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2020-10-13</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20201012/i2165503.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['日前，县委办系统召开传达学习贯彻习近平总书记在湖南考察时的系列重要讲话指示精神会议，县委常委、县委办主任肖秋良参加。', '会议要求，在学习贯彻习近平总书记在湖南考察时的系列重要讲话指示精神中，县委办要充分发挥核心机关、模范机关的示范带头作用，强力推动习近平总书记在湖南考察时的系列重要讲话指示精神在衡山落实落地；要结合工作实际，切实发挥综合协调作用，面向全县各单位各部门，做好任务分解，明确责任分工，推动贯彻落实。（廖晶、旷雨澄）']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>177</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>石鼓区月日上午南岳区人大常委会党组书记主任胡显西带领考察组来到石鼓区角山镇考察学习民生实事项目人大代表票决制工作</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2020-04-21</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200421/i1970765.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['[石鼓区] 4月20日上午，南岳区人大常委会党组书记、主任胡显西带领考察组来到石鼓区角山镇考察学习民生实事项目人大代表票决制工作', '4月20日上午，南岳区人大常委会党组书记、主任胡显西带领考察组来到石鼓区角山镇考察学习民生实事项目人大代表票决制工作。', '考察组详细听取了石鼓区角山镇政府和人大主要负责人关于推行民生实施项目人大代表票决制的工作经验介绍，实地考察了角山集镇排污管网、亮化工程、环卫设施配备项目。在随后的座谈交流中，考察组一行与该镇人大、政府围绕民生实事项目征集确定、审议票决、监督评估以及项目的正式实施等具体操作环节，并就该项工作开展过程中存在的疑难问题进行深入的探讨和交流，对该镇人大、政府在推进该项工作中取得的成绩给予了高度评价。', '考察组认为，角山镇在民生实事项目人大代表票决制工作方面有很多成熟的经验和做法，工作思路清晰、步骤严谨，代表主体作用发挥明显，民众意愿反映充分。此次考察启发很大，收益颇丰，回去后，南岳区将结合实际积极推进民生实事项目人大代表票决制工作。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>177</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>衡南县湘阴县考察团来衡南考察教育改革工作</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2021-03-25</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20210324/i2332188.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['3月22日，湘阴县委副书记彭方建率教育考察团来衡南考察教育改革工作，衡南县委副书记蒋崇华陪同考察。', '座谈会上，湘阴县考察团一行听取了衡南县关于教育改革工作情况介绍，双方围绕教育改革工作中的思路、做法及取得的成效展开交流与探讨。彭方建说，衡南教育改革工作在衡南县委县政府领导下狠抓"三个平台、三个优先、五个统一"建设，改善了师生工作学习环境，赢得了社会各界高度赞赏，在全省唱响了衡南速度、衡南模式、衡南经验。湘阴县将以此次考察为契机把衡南优秀的经验带回去，认真学习研究，也希望双方今后在更多的工作中加强交流学习，促进两地经济社会高质量发展。', '蒋崇华表示，衡南县教育改革坚持以"三三五"工程为总体思路，在教育投入、规划以及教育资源的统一管理与调配等工作上抓落实；借助教育改革这一平台载体，在关键领域、操作层面上促提升；在坚持办人民满意教育、实现教育均衡优质发展、推动城乡一体化上有创新；在师德师风、学生成绩、教育质量评价几项指标上见成效。衡南将以此次考察为契机，进一步完善"三三五"工程，助推教育改革向纵深发展，同时也希望双方常来常往，加强交流互动，共促两地繁荣向好发展。', '当天，湘阴县考察团一行先后考察了云集联合学校主校区、中心幼儿园、沁园校园，详细听取相关汇报，了解各学校办学理念与发展模式，并围绕教育改革工作现场探讨交流。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>177</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>耒阳市耒阳市委组织部学习传达习近平总书记在湖南考察调研时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200930/i2158474.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['9月28日，市委组织部召开全体机关干部大会，学习传达习近平总书记在湖南考察调研时的重要讲话精神和省委、衡阳市委关于抓好贯彻落实的相关要求。市委常委、组织部部长、总工会主席(兼)王星皓主持会议。', '会议强调，要深刻认识习近平总书记考察调研湖南之行的时代背景，准确把握总书记重要讲话的深刻内涵和实践要求，迅速贯彻落实到全市组织系统各项工作中去。', '会议指出，要抓好教育培训，组织部门要把学习宣传习近平总书记视察湖南重要讲话精神作为当前最重要的政治任务，结合自身职责职能，推动总书记重要讲话精神传达到全市每一个基层党组织、每一名党员干部。要聚焦主责主业，主动对标总书记关于夯实基层党建、强化人才培育、传承红色基因等组织工作领域的重要论述，促进全市组织工作高效开展，持续推动党的组织路线服务政治路线。要学会融会贯通，学深悟透总书记提出的关于推动湖南高质量发展的新论断、新部署、新要求，结合耒阳实际，推动组织工作更加有力服务中心大局，奋力谱写全市组织工作新篇章。', '会议还集中学习了《习近平谈治国理政》部分内容和蒙汉同志先进事迹，部分干部就学习内容谈心得、讲体会。(通讯员 谷单)']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>177</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>习近平在海南考察</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2022-04-14</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202204/t20220414_22735895.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['习近平：解放思想开拓创新团结奋斗攻坚克难 加快建设具有世界影响力的中国特色自由贸易港', '新华社海口4月13日电 中共中央总书记、国家主席、中央军委主席习近平近日在海南考察时强调，要坚决贯彻党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，全面深化改革开放，坚持创新驱动发展，统筹疫情防控和经济社会发展，统筹发展和安全，解放思想、开拓创新，团结奋斗、攻坚克难，加快建设具有世界影响力的中国特色自由贸易港，让海南成为新时代中国改革开放的示范，以实际行动迎接党的二十大胜利召开。', '4月10日至13日，习近平在海南省委书记沈晓明、省长冯飞陪同下，先后来到三亚、五指山、儋州等地，深入科研单位、国家公园、黎族村寨、港口码头等进行调研。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是10日下午，习近平在位于三亚市崖州湾科技城的崖州湾种子实验室考察。新华社记者 李学仁 摄', '10日下午，习近平首先来到位于三亚市崖州湾科技城的崖州湾种子实验室考察调研。习近平听取了科技城规划建设和实验室总体情况介绍，察看了实验室搭建平台支持种业创新成果展示，对海南省探索农业科技创新模式、支撑保障国家粮食安全的做法表示肯定。习近平先后走进大型仪器公共服务中心、精准分子设计育种中心，同科研人员深入交流。习近平指出，中国人的饭碗要牢牢端在自己手中，就必须把种子牢牢攥在自己手里。要围绕保障粮食安全和重要农产品供给集中攻关，实现种业科技自立自强、种源自主可控，用中国种子保障中国粮食安全。要继承和发扬老一辈农业科研工作者胸怀祖国、服务人民的优秀品质，拿出十年磨一剑的劲头，勇攀农业科技高峰。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是10日下午，习近平在位于三亚市崖州湾科技城的崖州湾种子实验室考察。新华社记者 谢环驰 摄', '随后，习近平来到中国海洋大学三亚海洋研究院，了解海洋观测设备与信息服务系统研发应用情况，连线“深海一号”作业平台。前方工作人员向总书记汇报了一线工作情况。习近平向他们表示诚挚问候，嘱咐他们注意安全、保重身体。习近平强调，建设海洋强国是实现中华民族伟大复兴的重大战略任务。要推动海洋科技实现高水平自立自强，加强原创性、引领性科技攻关，把装备制造牢牢抓在自己手里，努力用我们自己的装备开发油气资源，提高能源自给率，保障国家能源安全。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是10日下午，习近平在中国海洋大学三亚海洋研究院考察。新华社记者 燕雁 摄', '考察途中，习近平下车察看沿海生态环境保护工作，并为他在12年前种下的一棵不老松施肥浇水。习近平叮嘱当地负责同志加强陆海统筹，把生态保护工作作为一项重要任务抓紧抓好。', '海南省于2011年4月20日试点实行离岛免税政策。11日上午，习近平来到三亚国际免税城，实地了解离岛免税政策落地实施等情况。习近平指出，要更好发挥消费对经济发展的基础性作用，依托国内超大规模市场优势，营造良好市场环境和法治环境，以诚信经营、优质服务吸引消费者，为建设中国特色自由贸易港作出更大贡献。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在海南热带雨林国家公园五指山片区考察。新华社记者 谢环驰 摄', '11日下午，习近平到海南岛中南部的五指山市考察调研。海南热带雨林国家公园是我国首批5个国家公园之一。习近平深入五指山片区，沿木栈道步行察看公园生态环境，不时停下脚步，询问树木生长、水源涵养、动植物资源保护等情况。他指出，海南要坚持生态立省不动摇，把生态文明建设作为重中之重，对热带雨林实行严格保护，实现生态保护、绿色发展、民生改善相统一，向世界展示中国国家公园建设和生物多样性保护的丰硕成果。', '水满乡毛纳村是五指山市一个黎族村寨，近年来积极推进美丽乡村建设，大力发展乡村旅游业。习近平总书记来到村里调研，沿村道边走边看。黎族村民王柏和一家热情将总书记迎进家里。习近平察看院落、客厅、卧室等，在手工茶坊参与炒茶劳动，并买下两袋茶叶。习近平勉励他们把茶叶经营好，把日子过得更红火。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在五指山市水满乡毛纳村，同当地干部群众亲切交谈。新华社记者 李学仁 摄', '在村寨凉亭内，习近平同驻村第一书记、乡镇乡村振兴工作队队长、村支部书记、老党员、致富带头人代表等亲切交谈，了解当地因地制宜发展特色产业，加强民族传统文化保护传承等情况。习近平强调，推动乡村全面振兴，关键靠人。要建设一支政治过硬、本领过硬、作风过硬的乡村振兴干部队伍，吸引包括致富带头人、返乡创业大学生、退役军人等在内的各类人才在乡村振兴中建功立业。要强化农村基层党组织建设，充分发挥基层党组织战斗堡垒作用。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在五指山市水满乡毛纳村同村民们亲切交流。新华社记者 李学仁 摄', '习近平沿长廊察看黎族特色农产品和黎锦、藤编等非物质文化遗产展示。广场上，歌声悠扬、鼓乐齐奏，村民们跳起竹竿舞迎接远方的客人。习近平亲切地对大家说，很高兴来看望黎族乡亲们，看到你们过上幸福生活，我感到很欣慰。我们全面建成小康社会以后，还要继续奔向全体人民共同富裕，建设社会主义现代化国家。乡村振兴要在产业生态化和生态产业化上下功夫，继续做强做大有机农产品生产、乡村旅游、休闲农业等产业，搞好非物质文化遗产传承，推动巩固拓展脱贫攻坚成果同乡村全面振兴有效衔接。各级领导干部要贯彻党的群众路线，牢记党的根本宗旨，想群众之所想，急群众之所急，把所有精力都用在让老百姓过好日子上。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在五指山市水满乡毛纳村向村民们挥手致意。新华社记者 李学仁 摄', '12日上午，习近平来到地处海南岛西北部的儋州市考察调研。在展示馆，习近平听取洋浦经济开发区建设发展总体情况介绍，并仔细观看了开发区发展历程、建设成就、未来规划以及入驻企业成果等展示。习近平指出，洋浦经济开发区作为海南自由贸易港先行区、示范区，要总结好海南办经济特区经验，用好“中国洋浦港”船籍港的政策优势，大胆创新、先行先试。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是12日上午，习近平在洋浦经济开发区考察。新华社记者 李学仁 摄', '随后，习近平来到洋浦国际集装箱码头小铲滩港区，了解港口建设发展情况，同现场作业人员、挂职干部代表等亲切交流。习近平强调，振兴港口、发展运输业，要把握好定位，增强适配性，坚持绿色发展、生态优先，推动港口发展同洋浦经济开发区、自由贸易港建设相得益彰、互促共进，更好服务建设西部陆海新通道、共建“一带一路”。他指出，党中央选派干部来自由贸易港挂职，既体现了党中央对自由贸易港建设的关心和支持，也是对干部的培养锻炼，要发挥挂职干部的积极作用，让他们在基层一线增长才干。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是12日上午，习近平在洋浦国际集装箱码头小铲滩港区，同现场作业人员、挂职干部代表等亲切交流。新华社记者 燕雁 摄', '13日上午，习近平在参观海南全面深化改革开放和中国特色自由贸易港建设成果展后，听取了海南省委和省政府工作汇报，对海南各项工作取得的成绩给予肯定，希望海南以“功成不必在我”的精神境界和“功成必定有我”的历史担当，把海南自由贸易港打造成展示中国风范的靓丽名片。', '习近平指出，推进自由贸易港建设是一个复杂的系统工程，要做好长期奋斗的思想准备和工作准备。要继续抓好海南自由贸易港建设总体方案和海南自由贸易港法贯彻落实，把制度集成创新摆在突出位置，强化“中央统筹、部门支持、省抓落实”的工作推进机制，确保海南自由贸易港如期顺利封关运作。要坚持党的领导不动摇，自觉站在党和国家大局上想问题、办事情，始终坚持正确政治方向。要坚持中国特色社会主义制度不动摇，牢牢把握中国特色社会主义这个定性。要坚持维护国家安全不动摇，加强重大风险识别和防范，统筹改革发展稳定，坚持先立后破、不立不破。', '习近平强调，要把海南更好发展起来，贯彻新发展理念、推动高质量发展是根本出路。要聚焦发展旅游业、现代服务业、高新技术产业、热带特色高效农业，加快构建现代产业体系。要加快科技体制机制改革，加大科技创新和成果转化力度。要突出陆海统筹、山海联动、资源融通，推动城乡区域协调发展。要着力破除各方面体制机制弊端，形成更大范围、更宽领域、更深层次对外开放格局。', '习近平指出，要深入推进农业供给侧结构性改革，加强农业全产业链建设，严守生态保护红线、永久基本农田、城镇开发边界三条控制线。要推进城乡及垦区一体化协调发展，加快推进国家南繁科研育种基地建设，完善天然橡胶产业扶持政策。要深入打好污染防治攻坚战，落实最严格的围填海管控和岸线开发管控措施。要扎实推进国家生态文明试验区建设。热带雨林国家公园是国宝，是水库、粮库、钱库，更是碳库，要充分认识其对国家的战略意义，努力结出累累硕果。', '习近平强调，越是深化改革、扩大开放，越要加强精神文明建设。要持之以恒抓好理想信念教育，培育和弘扬社会主义核心价值观，广泛开展群众性精神文明创建活动，不断提升人民文明素养和社会文明程度。要加强诚信建设，倡导遵纪守法、诚实守信的社会风尚。', '习近平指出，要实施更多有温度的举措，落实更多暖民心的行动，用心用情用力解决好人民群众的急难愁盼问题，积极探索共同富裕的实现途径。要继续实施减负稳岗扩就业政策，健全重要民生商品保供稳价机制。要全面贯彻党的教育方针，统筹推进义务教育均衡发展和城乡一体化。要全面做好社会治理工作，扎实做好安全生产工作，常态化开展扫黑除恶斗争，严厉打击各类涉海违法犯罪活动。', '习近平强调，要坚持严的主基调，深入推进全面从严治党，以党的政治建设为统领推进党的各方面建设。要巩固拓展党史学习教育成果，弘扬伟大建党精神，用好海南琼崖纵队纪念场所、红色娘子军纪念园等红色资源，引导广大党员、干部坚定理想信念，传承红色基因，赓续红色血脉。要加强干部教育培训，引导广大党员、干部用党的创新理论武装头脑，自觉践行初心使命，着力解决“本领恐慌”、能力不足的问题，着力克服形式主义、官僚主义。要夯实基层基础，持续扩大党组织有效覆盖，把各领域基层党组织建设成为坚强战斗堡垒。要保持反腐败的高压态势，准确把握反腐败斗争新的阶段性特征，一体推进不敢腐、不能腐、不想腐，在土地批租、房地产开发、招商引资、项目建设等方面健全制度、堵塞漏洞，营造良好政治生态。', '习近平指出，当前全球新冠肺炎疫情仍然十分严重，尤其不能放松防控工作。坚持就是胜利。要坚持人民至上、生命至上，坚持外防输入、内防反弹，坚持科学精准、动态清零，抓细抓实疫情防控各项举措。要克服麻痹思想、厌战情绪、侥幸心理、松劲心态，针对病毒变异的新特点，提高科学精准防控本领，完善各种应急预案，严格落实常态化防控措施，最大限度减少疫情对经济社会发展的影响。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>177</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>祁东县贵州省普定县考察团来祁考察招商等工作</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019-11-01</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200111/i20473.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['29日，贵州省安顺市委常委、普定县委书记徐德祥率普定县党政考察团来祁东县考察招商引资、农业产业、脱贫攻坚等工作。祁东“基础先行、产业支撑、园区加速、民生改善、文明提升”的总体发展态势，给考察团留下了良好印象。该县县委书记杜登峰，县委副书记周志敏，县委常委、县委办主任周跃军等县领导陪同考察。', '徐德祥一行先后参观了设在“新发食品”的黄花菜博物馆、官家嘴镇石龙村的黄花源、华兴农业公司蔬菜基地、白地市万亩油茶种植基地、衡师祁东附中、衡缘物流和归阳工业园。听取了关于黄花菜种植、加工、储存、销售以及黄花菜产业的产业文化、产业规模、产品研发等方面的介绍后，了解到祁东县是中国黄花菜原产地、中国黄花菜之乡，黄花菜种植面积达16万亩，已经成为当地40万菜农的“幸福花”、“致富花”。考察团认为，祁东把产业支撑和乡村振兴、脱贫攻坚有机融合的成功经验值得借鉴，普定同祁东一样都是贫困县，急需解决产业发展瓶颈，带动百姓致富。', '在衡缘物流、归阳工业园，考察团深入企业、走进车间，详细调研招商工作和工业发展情况，体验现代产品技术，交流企业管理经验。', '座谈会上，杜登峰代表祁东县委、县政府对普定县党政领导来我县考察表示热烈欢迎。杜登峰说，此次考察活动，既是两县加强合作、增进友谊的契机，更能加深了解、互通有无。近几年，祁东经济“稳”字当头，稳中有进、稳中向好，今年1-9月份，全县GDP增长8.7%;农业产业化来势很好，通过实施“五个十万”产业工程，培育了黄花菜、油茶、枣业、商品果蔬、中药材等现代农业支柱产业，全县黄花菜种植面积16.5万亩，油茶18万亩，酥脆枣6万亩，商品蔬菜接近20万亩，薯粉年加工20万吨;祁东交通便利，区位优势明显，归阳工业园离南岳机场仅半个小时车程，高铁直达北京、上海、广州、深圳等大中城市，高速公路四通八达，农村“毛细血管”公路也打造得非常好;抓重大项目有突破，碧桂园、奥园、红星美凯龙、温氏集团、威马新能源、敏雅高能比电芯项目、万祺科技、尚鑫新材料等一大批规模企业入驻，必将推动祁东新一轮快速发展。希望普定、祁东两县今后多走动，越走越亲，多合作，争取更多共赢机会。', '安顺市委常委、普定县委书记徐德祥表示，来祁东考察一天，看农业、看工业、看交通、看教育、看城市，触动很大，收获颇丰，祁东不仅农业抓得好，而且工业也有大好的发展前景。普定作为国家级贫困县，近年来一直把脱贫攻坚放在第一位，农业方面主抓韮黄、朵贝茶、养兔三大产业，已经形成一定规模，老百姓普遍受益;易地扶贫搬迁，2000多户、9000多人搬迁进城，打造了“普定模式”;传统工业煤碳、电力、铅锌矿等继续发挥主体效应。普定已于今年脱贫，县委政府及时调整思路，由脱贫前抓农业、农村、农民转向脱贫后集中精力抓工业，促进旅游业。考察团将把祁东好的经验带回去，结合普定实际，灵活运用，互通有无。', '会上，普定县人民政府副县长李兆颖、祁东县人民政府副县长许仁宗代表两县签订合作协议书，为两地进一步交流合作奠定基础。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>177</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>中核集团考察团来衡考察白沙绿岛产业园建设工作</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2018-05-30</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20200111/i40133.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['5月29日，中核集团外部董事率考察团一行莅临衡阳，就湖南白沙绿岛融合产业园合作事项展开深入交流和讨论，并赴产业园基地、二七二铀业公司实地考察。在下午召开的汇报会上，衡阳市委副书记、市长邓群策强调，衡阳真诚希望与中核集团携手并进，共同将白沙绿岛建设成为国家级千亿军民融合产业园，开创强军、富民、兴城的合作共赢局面。', '中核集团湖南核工业局局长宋克祥首先对湖南白沙绿岛军民融合产业园整体开发项目进行了全面介绍。目前，为加快白沙绿岛军民融合产业园建设，衡阳市委、市政府已确定由市政协主席廖炎秋牵头，在土地、财政、税收、水电气等方面给予最优的政策，并继续深化“放管服”改革，全面简化审批流程，全程代办项目落地手续；同时，还将实施更高层次、更宽领域的对外开放，在衡阳综保区建立核工业产品出口贸易窗口，全力支持衡阳核产业参与国际产能合作，推动核相关产品“走出去”。', '会上气氛热烈，与会人员从衡阳地域优势、双方合作前景、军民融合产业园发展思路等多个方面畅谈各自的感受与建议。考察团成员纷纷表示对于衡阳经济社会发展的认可和期待，认为衡阳对白沙绿岛的项目建设热情高涨，合作氛围浓厚，也感受到了大家干事创业的务实精神，双方合作的建立和开展意义重大且来之不易，希望能实现合作共赢的局面，共同创造美好发展前景。', '邓群策对中核集团外部董事一行的到来表示欢迎。他介绍，紧跟党中央关于加强军民融合产业发展的步伐，衡阳在发展白沙绿岛军民融合产业方面占据了政治和经济优势。接下来，要铆足干劲，尽快组建绿岛公司，加快推进项目实质性运作和建设，把握创新模式，注重市场化、专业化和专注化运作，统筹发展高端制造、新能源等各种新行业、新业态，不断探索，以开放胸怀广纳百川，实现高标准建设，高效率运作。', '邓群策强调，当前乃至今后一段时期，是衡阳大开发、大建设、大发展的黄金时期，真诚希望中核集团与衡阳携手并进，情谊长存。衡阳将以最强执行力营造竞争有序的市场环境、透明高效的政务环境、公平正义的法治环境和稳定可预期的营商环境，努力用政府的工作效率换来企业的发展效益，推动核产业打造为衡阳经济发展的“领头雁”，将白沙绿岛军民融合产业园打造成老工业基地转型发展示范区、核产业绿色集聚发展引领区、全国有影响力的千亿国家级军民融合产业示范区，实现真真正正的互利共赢。', '中核集团外部董事王树山、苏征、杨卓、杨海滨出席会议；衡阳市政协主席廖炎秋、副市长刘正兴出席会议。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>177</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>衡阳市农业技术服务中心专题学习习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/bmxxgkml/sydw/snyjsfwzx/gzjz/20200930/i2158520.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['9月30日，市农业技术服务中心党委书记、主任贺卫红主持召开党委中心组学习(扩大)会议，专题学习习近平总书记在湖南考察时的重要讲话精神。市农业技术服务中心班子成员和科室主要负责人参加了会议。', '会议传达了市直工委《关于深入贯彻习近平总书记在湖南考察时的重要讲话精神的通知》，贺卫红带领大家学习了习近平总书记在湖南考察期间和在基层代表座谈会上的重要讲话精神，并围绕"如何结合实际高质高效开展农技服务工作"为主题开展学习交流和讨论，班子成员及业务科室负责人分别畅谈了各自的学习心得体会并对下一步业务工作如何开展提出了思路和看法。', '贺卫红提出，党总支要组织各支部进一步学习讨论、贯彻落实；要做好"四个结合"，与学习《习近平谈治国理政》一二三卷结合起来，与践行新时代党的组织路线结合起来，与职能职责结合起来，与正在做的事情相结合起来，确保落实在具体工作上，以实际行动抓好贯彻落实；要守好廉洁底线、安全底线，廉洁过节、安全过节。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>177</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>耒阳市平江县人大考察组来耒考察交流杜甫文化</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2021-09-07</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20210907/i2475198.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['9月3日，岳阳市平江县人大常委会主任黎耀辉一行来耒，考察交流杜甫文化。市人大常委会主任黎家能，市人大常委会副主任李连飞，市政府党组成员阳姣丽等参加活动。', '考察组来到位于耒阳一中的杜甫墓、杜甫文化馆进行实地考察参观，听取一中负责人解说杜甫文化。随后召开的座谈会上，双方就两地杜甫文化建设优势、可开发利用资源、未来杜甫文化发展定位进行了交流探讨。', '黎耀辉对耒阳杜甫文化的发展规划给予了充分肯定，表示将把好的做法运用到平江县杜甫文化发展中，并表示希望保持合作交流，促进两地学术研究和旅游事业发展。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>177</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>市卫生计生综合监督执法局集中学习宣传习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2024-04-18</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20240418/i3317427.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['为深入学习宣传贯彻习近平新时代中国特色社会主义思想，4月12日，市卫生计生综合监督执法局组织全体干部职工集中学习宣传习近平总书记在湖南考察时的重要讲话精神。', '会议指出，领导干部要树立正确的权力观、政绩观、事业观，实事求是、求真务实地推进工作，全体干部职工要加强理论武装，不断巩固拓展主题教育成果，把学到的科学理论转换为认识世界、改造世界的强大精神力量', '会议强调，要深入学习宣传贯彻习近平总书记在湖南考察调研时的系列重要讲话指示精神，把习近平总书记的指示要求转化为推动高质量发展、加快建设富饶美丽幸福新衡阳的强大动力。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>177</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>耒阳市衡阳市委宣讲团来耒阳宣讲学习贯彻习近平总书记考察湖南重要讲话精神</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2020-10-27</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20201027/i2188158.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['10月23日下午，耒阳市学习贯彻习近平总书记考察湖南重要讲话精神衡阳市委宣讲团报告会召开。衡阳市委常委、耒阳市委书记罗琼主持报告会并作总结讲话，衡阳市委宣讲团成员作宣讲报告。', '衡阳市委宣讲团成员在宣讲报告中全面概括了习近平总书记考察湖南重要讲话精神的主要内容、丰富内涵、精神实质、核心要义及湖南贯彻落实的生动实践，深刻阐述了习近平总书记对湖南各项工作的高度肯定、对湖南发展的新目标新定位以及湖南当前和今后一段时期工作的重点任务，真情传达了习近平总书记对湖南的亲切关怀、深情厚望和殷切期盼，并结合耒阳经济社会发展实际，对我市的学习宣传贯彻工作提出了指导意见。', '罗琼说，习近平总书记考察湖南系列重要讲话精神，对全省人民而言是巨大鼓舞、有力鞭策，对我们推动高质量发展而言是战略导航、系统指导，对广大党员干部而言是光辉榜样、深刻教育。全市上下要提高政治站位，以此次宣讲为契机，把学习贯彻习近平总书记考察湖南重要讲话精神作为首要政治任务抓实抓好，在学深悟透、知行合一、系统全面、融会贯通上下功夫，切实用总书记的系列重要讲话精神和省委全会精神统一思想、统揽全局、统领发展。要强化使命担当，把学习贯彻习近平总书记考察湖南重要讲话精神，转变为推动耒阳高质量发展的实际行动，围绕打造“三个高地”、履行“四新”使命、落实五项重点任务和省委全会精神的贯彻落实，立足耒阳实际，深入实施创新引领开放崛起战略，扎实做好“六稳”“六保”工作，加快推进现代产业立市三年行动计划，抓牢守实各项底线工作，科学谋划好“十四五”规划，奋力实现全年工作目标任务。要精心安排部署，做好结合文章，掀起学习宣传贯彻习近平总书记系列重要讲话精神的热潮，把总书记此次考察的重要讲话精神与总书记关于湖南工作的系列重要指示贯通起来，与省委十一届十一次全会通过的《决定》和《决议》贯通起来，与学习贯彻《习近平谈治国理政》第三卷贯通起来，与总书记系列最新讲话精神贯通起来，与即将召开的党的十九届五中全会精神贯通起来，确保习近平总书记系列重要讲话精神在耒阳落地生根、开花结果。', '吴旭东、邱小兵、黎家能、张东辉、李云、刘春晖、李兴武、昌曙光、郭松青、阳耀、曾三成、王星皓等全体在家市领导，市直各单位和各乡镇(街道)主要负责人等参加报告会。(记者 钟杰 刘喜 刘国剑)']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>177</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>蒸湘区学习贯彻习近平总书记考察湖南重要讲话精神凝心聚力谱写蒸湘发展新篇章</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2020-10-22</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20201022/i2182945.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['10月21日，蒸湘区举行学习贯彻习近平总书记考察湖南重要讲话精神市委宣传团报告会暨区委理论学习中心组集中（扩大）学习会议。市委宣讲团成员作宣讲报告，区委书记周法清主持会议。', '报告会围绕习近平总书记对湖南发展的战略定位、使命任务、重点任务，发展先进制造业和实体经济，脱贫攻坚和乡村振兴，生态文明建设等十二个方面，全面生动概括了习近平总书记考察湖南重要讲话精神的主要内容、丰富内涵、精神实质、核心要义，详细讲述了湖南贯彻落实的生动实践。', '“深受鼓舞，为蒸湘发展指明了方向、提供了遵循、积蓄了力量。”“我们将牢记嘱托，不断提升人民群众幸福感与获得感。”与会人员纷纷表示，习近平总书记考察湖南系列重要讲话精神充分体现了对湖南工作的高度重视，真情传达了对三湘大地的深情厚意，我们将始终坚持以人民为中心的发展思想，坚持发扬革命传统，保持干事创业的激情，在谱写湖南新篇章中贡献好蒸湘力量。', '会议强调，认真学习贯彻习近平总书记考察湖南系列重要讲话精神，是全区上下当前首要的政治任务和重大政治责任。要切实提高站位，增强政治自觉，深刻领会习近平总书记对湖南发展新定位新目标的内涵，确保习近平总书记重要讲话精神在蒸湘落地生根、开花结果；坚持人民至上，永葆为民情怀，始终心系人民群众，抓实抓好抓细民生实事，让人民群众的获得感幸福感安全感更加充实、更有保障、更可持续；决胜脱贫攻坚，加速乡村振兴，持续巩固提升脱贫质量，做好脱贫攻坚与乡村振兴的有效衔接，加快形成“一区一品”、“一镇一业”、“一村一特”；坚持创新引领，打造产业强区，紧紧围绕全市“一体两翼”发展战略和全区“两区一城”、“三路一带”发展战略及建设现代产业强区目标，坚定走好高质量发展之路。', '区委理论学习中心组成员、全体在家在职区级领导，各镇街（片）党（工）委书记、区直单位主要负责人参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>177</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>借鉴他山之石建设五好园区白沙洲工业园区党工委集体赴祁阳高新区考察学习</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20210617/i2405479.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['为贯彻落实全市产业园区高质量发展研修班会议精神，建设“五好”园区，6月16日，高新区党工委书记、白沙洲工业园区主任刘兴中率园区党工委班子赴全省园区先进典型——祁阳高新技术产业开发区考察学习。', '考察团一行先后参观了祁阳科创产业园、智慧园区运营中心等项目。座谈会上，祁阳高新技术产业开发区负责人就园区基本情况、产业特色、创新模式等方面进行了详细介绍。双方围绕全省产业园区高质量发展推进会提出的规划定位好、创新平台好、产业项目好、体制机制好、发展形象好的“五好”园区创建目标要求进行了交流讨论。', '刘兴中指出，此次考察学习是贯彻落实全市产业园区高质量发展研修班学习精神的生动实践，既感受到了祁阳高新区的创新动力和发展活力，也充分认识到自身的差距和不足，下一步将借鉴他山之石，以创建“五好”园区为目标，以市场化改革为方向，以产业链建设为核心，推动“政府建园”向“市场建园”转变、“行政招商”向“市场招商”转变、“项目聚集”向“产业聚集”转变、“传统服务”向“专业服务”转变，强化园区经济功能体作用，发挥“衡阳智造谷”工业互联网平台作用，为企业智能化改造提供强有力的数字专业支撑，为衡阳经济高质量发展贡献白沙力量，同时也希望祁阳高新技术产业开发区来白沙洲工业园区传经送宝、加强交流合作。', '园区在家领导张金华、刘林生、黄辉，高新投白沙事业部部长邓红宇，园区党政办、招商和发展改革局、建设局、社会事务管理局、财政局、企业服务中心、市自然资源和规划局白沙洲分局、市生态环境局白沙洲分局负责人参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>177</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>衡阳市级机关认真学习宣传贯彻习近平总书记在湖南考察时的系列重要讲话指示精神</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2020-09-30</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20200930/i2157509.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['根据市委统一部署，连日来，各市级机关认真学习宣传贯彻习近平总书记在湖南考察时的系列重要讲话指示精神，深刻把握习近平总书记对湖南发展提出的新定位新目标，结合各自工作实际进行全面动员部署，努力在习近平总书记赋予湖南的战略定位中走在前、当主力。', '市委常委会举行扩大会议，专题传达学习习近平总书记在湖南考察时的重要讲话精神。会议强调，全市上下要全面贯彻落实，坚定不移沿着习近平总书记指引的方向开拓前进。要大力发展实体经济，全力加快高质量发展；加快农业农村优先发展，促进全面脱贫和乡村振兴有效衔接；坚定不移走生态优先、绿色发展的路子，持续改善生态环境质量；用心用情用力办好民生实事，让人民群众的获得感、幸福感、安全感更加充实、更有保障、更可持续；大力传承和弘扬红色基因，着力推进全面从严治党向纵深发展。要在全市上下迅速掀起学习宣传贯彻热潮，推动习近平总书记重要讲话精神入脑入心、落地生根。', '市人大常委会召开党组会议，传达学习习近平总书记在湖南考察时的重要讲话精神。会议强调，人大机关要对标习近平总书记对湖南的新要求，坚定不移贯彻习近平总书记对湖南工作和湖南发展的新定位新要求新部署，紧扣强化党的政治建设，坚持纵深推进常委会及机关全面从严治党。紧扣各方面重点任务，在补短板、强弱项上下功夫，紧扣“十四五”规划编制和审议，坚持人民至上，用心用情用力解决群众关心的实际问题。切实发挥全市各级人大和人大代表的聪明才智，脚踏实地践行新时代使命和担当，确保党中央决策部署和省委、市委要求在人大工作中得到全面贯彻和有效执行。', '市政府召开党组会议，专题学习贯彻习近平总书记在湖南考察时的重要讲话精神。会议强调，要全力推动经济高质量发展，聚焦现代产业强市持续攻坚，全力当好承接东部地区产业转移“领头雁”，助力打造以国内大循环为主体、国内国际双循环相互促进的新发展格局。要加快推进农业农村现代化，大力推进农产品精深加工；要全面提升农村公共服务水平，推动脱贫攻坚与乡村振兴有效衔接。要全面加强生态文明建设，奋力推进经济社会发展全面绿色转型。要坚持以人民为中心的发展思想，用心用情改善民生、维护社会稳定。要推动全面从严治党向纵深发展，深入推进简政放权、互联网+政务服务等建设，持续优化政务服务、提升行政效能。', '市政协召开全体机关党员干部会议，专题学习传达习近平总书记在湖南考察时的重要讲话精神。会议强调，要围绕习近平总书记在湖南考察时关注的基层建设、粮食生产、现代农业、乡村教育、文化科技、产业项目、生态环境等，把握衡阳高质量发展新阶段新要求，突出协商重点，创新协商方式，增加协商频次，通过不同层面的协商交流，促进问题解决，真正发挥政协作为专门协商机构在服务国家治理体系和治理能力现代化中的作用。要用心用情办好民生实事，突出政协“人民性”的本质属性，真诚听取群众呼声，真实反映社情民意，最大限度团结争取人心、凝聚各方力量。', '衡阳警备区召开会议专题学习传达习近平总书记在湖南考察时的重要讲话精神。会议强调，要用习近平总书记重要讲话统一思想认识，坚持学习宣传与贯彻落实一体谋划、一体推动，将之化为奋发有为做好衡阳各项工作的强大动力。要积极统筹推进疫情防控、防汛救灾和经济社会发展工作，牢牢把握各项工作的关键点着力点平衡点，在常态化疫情防控中推动衡阳经济高质量发展。要扎实推进新时代党的建设，把全面从严治党要求落实到党的建设全过程，大力营造风清气正政治生态。要始终牢固树立以人民为中心的发展思想，积极改善民生，推动社会平安和谐。', '市纪委召开常委会（扩大）会议，传达学习贯彻习近平总书记在湖南考察时的重要讲话精神。会议强调，要提高政治站位，坚决做到“两个维护”，抓好习近平总书记重要讲话精神的贯彻落实。要立足职能职责，聚焦推动经济高质量发展，聚焦推进农业农村现代化，聚焦加强生态文明建设，做好监督工作，积极营造良好的发展环境。要做实监督工作，推进全面从严治党向基层一线、群众身边延伸。一体推进“四个监督文件”的贯彻落实，一体推进形式主义、官僚主义集中整治，一体推进基层组织建设，一体推进不敢腐、不能腐、不想腐体制机制建设，持续营造风清气正的政治生态。', '市委办公室召开秘书长（主任）办公会议，专题传达学习习近平总书记在湖南考察时的重要讲话精神。会议强调，要把深入学习贯彻习近平总书记重要讲话和重要指示作为当前首要政治任务，采取不同方式，不断地学、持续地学、深入地学，吃透精神实质，深刻认识习近平总书记视察湖南的重大意义，不断将学习成果转化为武装头脑、指导实践、推动工作的强大动力。要按照市委常委会会议要求，全面深入、不折不扣抓好习近平总书记重要讲话指示精神在衡阳的落实落地，努力在服务全市工作大局中创新思路，主动作为，为建设名副其实的省域副中心城市、现代产业强市、最美地级市作出新贡献。', '市委组织部召开全市党员干部学习贯彻习近平总书记在湖南考察时的重要讲话精神座谈会。会议强调，全市各级领导干要带头学，全体党员深入学，教育培训重点学，联系实际结合学，形式多样广泛学，学深悟透、学以致用。将习近平总书记重要讲话精神内化于心、外化于行，转化为践行初心使命的自觉行动，把新要求、新目标、新任务全面贯彻到“十四五”规划编制工作中去。深刻把握其中的思想精髓和核心要义、鲜明的人民性、贯穿的守正创新精神、强基固本的导向，加强党的政治建设，强化干部人才队伍建设，着力夯实基层基础，提升基层治理水平，努力彰显党员干部担当作为，推动衡阳高质量发展。', '市委宣传部召开部务会（扩大）会议，传达习近平总书记考察湖南时系列重要讲话精神。会议强调，要提高政治站位，深刻理解总书记考察湖南时的重要讲话和指示的丰富内涵，坚定不移沿着总书记指引的方向开拓前行，切实做到学习跟进、认识跟进、行动跟进。要坚持立说立行，掀起学习宣传热潮，宣传系统要充分发挥学习“先行者”、宣传“排头兵”作用，坚持学习在前、宣传在前，做到真学真懂真信真用。要注重对标对表，全面落实具体要求，着力在抓好顶层设计、制定文化规划上下功夫，在开展红色教育、传承红色基因上下功夫，在坚持正确导向、发展文化产业上下功夫，在突出立德树人、培育时代新人上下功夫。', '市委统战部召开全体机关干部大会，专题传达学习习近平总书记在湖南考察时的重要讲话精神。会议强调，全市统一战线要迅速掀起学习宣传贯彻热潮，迅速把总书记在湘调研重要讲话指示精神传达给广大统战成员。要积极引导广大统战成员不断增强“四个意识”，坚定“四个自信”，做到“两个维护”，为助推衡阳经济社会发展汇聚强大合力。全体机关干部要为全市统一战线作表率，带头认真学习、深刻领会并抓好习近平总书记在湘调研重要指示精神的贯彻落实。要结合工作实际，将习近平总书记提出的新要求、新目标、新任务全面贯彻到全市统一战线各领域工作中去。', '市委政法委举行会议，传达习近平总书记考察湖南时的系列重要讲话精神。会议强调，习近平总书记来湘考察时对我省经济高质量发展和基层治理能力建设等方面提出了新的要求，寄予了更高的希望。全市政法系统要以防范化解重大风险为牵引，全力维护特殊年份社会稳定。要以优化营商环境为主线，奋力提升社会高效治理水平，大力推进社会治理现代化工作全面高效开展。要以解决群众“急难愁盼”问题为导向，大力提升公众安全感、满意度。要以政法系统教育整顿为抓手，努力锻造党和人民放心的衡阳政法铁军。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>177</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>衡阳市科协召开党组扩大会议学习贯彻习近平总书记在湖南考察重要讲话和指示精神</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2024-03-29</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20240329/i3303073.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['3月29日上午，衡阳市科协召开2024年第三次党组（扩大）会议，传达学习习近平总书记在湖南考察时的重要讲话和指示精神以及新时代推动中部地区崛起座谈会精神，研究部署全市科协系统贯彻落实工作。会议由衡阳市科协党组书记、副主席周湘晖主持。', '会议指出，全市科协系统各级党组织和全体党员干部要把学习贯彻习近平总书记重要讲话重要指示精神作为当前和今后一个时期的首要政治任务，在学习中深刻认识习近平总书记到湖南考察的重大意义，在学习中深刻领悟总书记重要讲话丰富内涵和时间要求，在学习中深入把握总书记重要讲话中蕴含的立场观点和方法，自觉把思想和行动统一到习近平总书记重要讲话精神上来。', '会议要求，要在深刻学习领悟中抓好贯彻落实。要把科协的职能职责摆进去、结合好，从总书记重要讲话中找任务，进行系统梳理，把任务清单化、具体化，认真履行好科协责任使命，把"四服务"职责扛在肩上、做出实绩，不断推进科协事业高质量发展。', '会议强调，要把习近平总书记在湖南考察时的重要讲话和指示精神化为市科协干事创业的强大动力，全力抓好当前重点工作，扎实推进年初确定的各项工作目标。要充分利用"科创中国"这块金字招牌，主动联络全市十四条产业链，主动了解各产业链的智库资源需求，全力营造创新、创业、创造生态，促进经济与科技深度融合；要大力开展科技助力乡村振兴行动，为广大农民群众获取农业科技知识、提升生产劳动技能、提升科学素质水平提供便利；要借助市委巡察契机，以高的标准、实的举措、严的氛围，着力抓好巡察期间的边巡边改工作，力争让科协整体工作水平上新台阶，在实现"三高四新"美好蓝图、实施"制造立市、文旅兴城"战略中彰显科协应有作为。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>177</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>市文旅广体局召开党委扩大会议传达学习习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2020-09-23</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/hyly/hyly/xx/20200923/i2151578.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['传达学习习近平总书记在湖南考察时的重要讲话精神。局党委成员和副处级以上领导、直属单位主要负责人、局机关全体党员干部参加学习。', '按照省委、市委的安排部署，要把学习宣传贯彻习近平总书记重要讲话精神作为当前头等大事和长期任务，各级党组织要提高认识，加强政治学习，组织好党员干部学习讲话精神，把讲话精神学深悟透，要联系工作学，结合实际学。', '强调，文旅广体系统党员干部要对标习近平总书记对湖南的新要求，结合文旅广体工作实际，认真谋划工作，以实际行动', '确我市文化产业健康持续发展。要做好文旅结合文章，弘扬好红色文化、保护好红色文物、开发好红色旅游，宣讲好"衡阳故事"，使革命传统、红色基因代代相传。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>177</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>市文旅广体局召开党委扩大会议传达学习习近平总书记在湖南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2020-09-24</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20200923/i2151575.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['9月22日下午，市文旅广体局党委书记、局长王郦君主持召开党委扩大会议，传达学习习近平总书记在湖南考察时的重要讲话精神。局党委成员和副处级以上领导、直属单位主要负责人、局机关全体党员干部参加学习。', '王郦君指出，按照省委、市委的安排部署，要把学习宣传贯彻习近平总书记重要讲话精神作为当前头等大事和长期任务，各级党组织要提高认识，加强政治学习，组织好党员干部学习讲话精神，把讲话精神学深悟透，要联系工作学，结合实际学。', '王郦君强调，文旅广体系统党员干部要对标习近平总书记对湖南的新要求，结合文旅广体工作实际，认真谋划工作，以实际行动落实好总书记讲话精神。文旅产业发展、艺术精品创作、公共文旅服务等要坚持正确导向、坚持守正创新，确我市文化产业健康持续发展。要做好文旅结合文章，弘扬好红色文化、保护好红色文物、开发好红色旅游，宣讲好"衡阳故事"，使革命传统、红色基因代代相传。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>177</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>中旅联投资考察团来衡考察共同谱写文旅合作新篇章</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20231208/i3207799.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['12月6日—7日，由市政府驻广州（深圳）办事处、CTDU中旅联组织的文旅项目投资考察团来衡考察，并举行衡阳市对接中旅联控股暨文旅项目招商推介会，共襄文旅发展盛事。市委常委、市委宣传部部长周玉梅出席推介会并讲话。副市长谢宏主持推介会。', '7日举行的推介会上，我市作了招商推介，并进行了部分重点文旅项目路演。周玉梅围绕衡阳的特色定位、文旅产业的政策利好及当前文旅项目铺排情况等方面，向各位企业家推介衡阳。她说，衡阳是国家区域重点城市和湖南省域副中心城市，对周边辐射带动能力强。当前衡阳正深入学习贯彻习近平文化思想，以承办第三届湖南旅发大会为契机，进一步擦亮湖南旅游历史文化名片，全力做好“王船山”“南岳衡山”两篇文章，重点推进以“十里湘江”“雨母山”等文旅项目。希望双方持续深化在文旅资源开发利用、文旅企业重点项目建设等领域的进一步合作，共同谱写文旅合作新篇章。', '据了解，CTDU中旅联是中国文旅行业资源整合与产业集成服务商，通过举办丰富的文旅资源交易大会、论坛峰会、政府投资考察等活动，为文旅行业搭建观点分享、政企互通、资源联动、合作共赢的桥梁与平台。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>177</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>市社召开专题会议部署学习贯彻习近平总书记在湖南考察时的重要讲话和重要指示精神</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2024-04-08</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/eyc7Wy0qupmPJPrlXuRNwA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['4月7日上午，衡阳市供销合作总社召开理事会主任办公会，传达学习习近平总书记在湖南考察时的重要讲话和重要指示精神、新时代推动中部地区崛起座谈会精神，传达学习市委、市政府部署要求，研究供销系统推进工作落实的具体举措。市社党组书记、理事会主任刘定安主持会议。', '会议指出，习近平总书记亲临湖南考察指导并在湖南主持召开新时代推动中部地区崛起座谈会，充分体现了对湖南的高度重视和亲切关怀，为我们指明了前进方向、提供了根本遵循、注入了强大动力。全市供销系统要认真学习领会，抓好贯彻落实，坚定不移沿着习近平总书记指引的方向前进，扛牢服务“三农”工作的政治责任，全力推进乡村振兴工作。', '会议要求，要进一步提高政治站位，按照市社党组统一部署，紧盯年初制定的工作目标，在探索供销新质生产力、深化供销综合改革、增强为农服务能力、挖掘提炼供销文化等方面有所作为。要以持续推进城乡产业运营平台为抓手，进一步拓展农业社会化服务的影响和效果，高标准用好中央财政资金，充分发挥农资供应为春耕生产服务的保障作用；要进一步畅通城乡要素流动，推动各县级城乡产业运营公司做实做活做强，明确责任主体，压实主体责任，争取政策支持，扎实做好争资争项、基层社建设、数字供销、农产品销售等重点工作；要进一步强化规矩意识，增强纪律观念，管好队伍，优化作风。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>177</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>共享衡阳发展机遇何文君率深圳企业家考察组来衡考察</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2020-09-09</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20200909/i2139901.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['9月8日下午，省政府驻深圳办事处主任何文君率深圳企业家考察组来衡考察。市委副书记、市长朱健参加。', '考察组一行先后来到白沙洲工业园、衡山科学城，考察工业企业、参观衡阳工业博物馆，详细了解衡阳工业的辉煌历史和发展现状，并举行了座谈会。', '“今年以来，衡阳市发展形势喜人、成绩显著，在建设名副其实的省域副中心城市、现代产业强市和最美地级市征程上，写下了浓墨重彩的一笔！”何文君指出，省政府驻深圳办事处与衡阳市渊源深厚，有着特殊的情谊，今后将一如既往地积极参与服务衡阳市的招商引资工作。', '何文君建议，衡阳市要进一步擦亮“湘南湘西承接产业转移示范区”这块“金字招牌”，积极对接粤港澳大湾区，加快承接产业转移，争当全省招商引资的排头兵；深化产学研合作，加强科技成果转化，打造新兴产业链，力争在高科技领域走到全省前列；深化“一件事一次办”改革，提升政务服务效率，持续保持营商环境位居全省前列。', '朱健介绍了衡阳市基本情况，并回应了与会企业家的发言和诉求。他指出，市委十一届九次全会提出现代产业强市的战略蓝图，全面吹响了衡阳从老工业城市向现代产业强市进军的号角，衡阳将重点做好产业链构建的文章，推进产业链、创新链、人才链、资金链、政策链“五链融合”，不断提升产业链发展水平；做好园区升级的文章，进一步理顺园区管理体制，提高园区亩均效益，推进产城融合，全面提升园区发展吸引力和承载力；做好企业活力的文章，着力依靠并发挥好央企（省企）、独角兽企业、老衡企、新衡企等“四路大军”作用，切实为现代产业强市建设注入新的动力和活力；做好要素支撑的文章，推动“项目等地”转变为“地等项目”，加大财政资金支持保障力度，加快构建“人才生态圈”；做好营商环境的文章，坚持“亲清”政商关系，继续倡导“不叫不到、随叫随到、服务周到、说到做到”的“四到精神”，全力为企业提供精细化、人性化服务。', '“衡阳正处于高质量发展的‘黄金时期’。”朱健指出，希望与大家共享衡阳发展机遇，带着感情不断深化交流与合作，加快承接产业转移，高效推进项目签约、落地、投产，推动实现互利共赢。', '省政府驻深圳办事处一级巡视员于云彩，中国科技开发院党委书记杨斌，市领导周玉梅、胡水龙参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>177</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>耒阳市省文旅厅湖南文旅对接央企系列活动考察组来耒考察</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2021-03-15</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20210312/i2324502.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['日前，省文旅厅产业发展处副处长何作利率专家考察组，来耒开展“2021湖南文旅对接央企系列活动”实地考察调研，衡阳市文旅产业链顾问左琼颖，衡阳文旅广体局副局长罗志宏等衡阳、耒阳市相关单位负责人参加调研。', '此次考察项目为“蔡伦竹海旅游文化聚集区”。考察组一行通过召开座谈会、实地走访查看蔡伦竹海核心景区、大河滩喷泉等地，全方位了解蔡伦竹海历史文化、规划布局、发展模式、运营机制以及周边产业经济发展与相关配套设施等情况。', '考察组一致认为我市文化底蕴深厚、旅游资源丰富、交通区位优势明显，是一个文旅产业投资的好地方，并表示将通过此次实地考察调研，借助省文旅厅搭建的平台，积极寻求与央企的合作商机，努力实现双方共赢发展。(记者 袁成龙 刘喜)']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>177</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>山西省政协考察组来衡考察为全民健身的活力衡阳点赞</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2020-10-14</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20201014/i2169386.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['10月13日，山西省政协副主席李青山率队来衡，就我市全民健身等工作开展情况进行考察。市政协主席刘光跃参加考察活动。', '为满足群众日益增长的健身需求，近年来我市在大力推进全民健身的进程中，着力构建全民健身公共服务体系，不断强化体育健身设施、科学健身指导等方面的建设，推动各类群众体育活动广泛开展。依托衡阳的自然资源和独特的人文资源，打造了元旦环城赛跑、衡阳马拉松、“三大球”联赛等品牌赛事，成功举办了CBA预备队衡阳站比赛、中澳国际男篮对抗赛、国际马拉松、国际网球公开赛等国家A级赛事，进一步激发了全民健身热情，让老百姓实实在在感受到了体育为民惠民的成效。', '李青山一行先后深入博雅网球公园、市全民健身服务中心、东洲岛船山书院、祁东县体育文化公园、祁东文武学校等地，通过实地查看、与群众交流、听取相关部门负责人汇报等多种方式，就我市体育基础设施建设、全民健身工作开展情况进行了详细了解，切身感受衡阳体育事业发展及全民健身工作的蓬勃生机。', '考察组边走边看，称赞衡阳群众文化体育活动平台好、功能全、活动多，在全民健身方面积累了不少好经验、好做法，有一批叫得响、有特色的品牌，全面提高了群众身体素质，展示了充满生机和活力的城市形象，值得借鉴和学习。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>177</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>交流经验加强合作吐鲁番市考察团来衡考察教育工作</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20220801/i2764251.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['7月29日，新疆吐鲁番市委常委、市委宣传部部长、教育工委书记陈锦带领吐鲁番市教育工作考察团来衡考察教育工作，交流经验、加强合作。衡阳市委常委、市委秘书长尹培国，副市长谢宏分别陪同考察并参加座谈。', '吐鲁番市教育工作考察团一行先后赴市一中、船山书院、市八中实地考察。“做有情怀的教育，办有故事的学校……”双方就教师培训和教育科研工作体制机制、教育评价综合、新高考改革、基础教育、教育信息化、教育基金会等工作展开座谈，进行了深入探讨交流。', '尹培国代表衡阳市委、市政府欢迎吐鲁番客人的到来，并用“一张纸”“两座山”“三条江”“四大优势”简要介绍了大城衡阳、名城衡阳。他表示，衡阳是湖南的教育大市、教育强市，高校数量名列全省第二，基础教育名校名师名生层出不穷，支援吐鲁番市、鄯善县的教育工作，衡阳义不容辞，务求全力以赴。', '陈锦表示，非常感谢衡阳市24年来对吐鲁番市、鄯善县的无私援助。这一次的考察亲身感受了衡阳同志的热情、衡阳教育的高水平。“湘吐一家亲、衡鄯一家亲。”亲戚之间要互相走动，盛情邀请大家到吐鲁番传经送宝、旅游观光，让衡阳和吐鲁番两座有文化的城市在新时代的交流交融更加全方位、立体化。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>177</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>习近平在黑龙江考察</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://hunan.gov.cn/hnszf/hnyw/sy/tt1/202309/t20230909_29480917.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['新华社哈尔滨9月8日电 中共中央总书记、国家主席、中央军委主席习近平近日在黑龙江考察时强调，要牢牢把握在国家发展大局中的战略定位，扭住推动高质量发展这个首要任务，落实好党中央关于推动东北全面振兴的决策部署，扬长补短，把资源优势、生态优势、科研优势、产业优势、区位优势转化为发展新动能新优势，建好建强国家重要商品粮生产基地、重型装备生产制造基地、重要能源及原材料基地、北方生态安全屏障、向北开放新高地，在维护国家国防安全、粮食安全、生态安全、能源安全、产业安全中积极履职尽责，在全面振兴、全方位振兴中奋力开创黑龙江高质量发展新局面。', '9月6日至8日，习近平在黑龙江省委书记许勤和省长梁惠玲陪同下，来到大兴安岭、哈尔滨等地，深入林场、乡村、高校等进行调研，前往灾后恢复重建现场看望慰问受灾群众。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。新华社记者 殷博古 摄', '6日下午，习近平来到大兴安岭地区漠河市，考察漠河林场自然林区，察看自然林生长态势和林下作物展示，听取当地深化森林资源资产管理改革、推进生态产业化和产业生态化以及加强森林防火灭火情况介绍。习近平指出，要坚持造林与护林并重，做到未雨绸缪、防患于未然，决不能让几十年、几百年、上千年之功毁于一旦。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村，同村民史瑞娟一家亲切交谈。新华社记者 鞠鹏 摄', '随后，习近平乘车来到我国大陆最北端的边境临江村落北极村，仔细了解当地结合地域优势发展特色旅游、将生态优势转化成发展优势等情况。习近平强调，森林是集水库、粮库、钱库、碳库于一身的大宝库。要树立增绿就是增优势、护林就是护财富的理念，在保护的前提下让老百姓通过发展林下经济增加收入。在村民史瑞娟家的民宿小院，习近平向乡亲们了解当地发展乡村特色产业、助推兴边富民乡村振兴等情况。他指出，北极村的发展和群众的生活状况好，看了很高兴。发展旅游业是推动高质量发展的重要着力点。把大兴安岭森林护好，旅游业才有吸引力。这里的旅游资源得天独厚，地方党委和政府要提供政策支持，坚持林下经济和旅游业两业并举，让北国边塞风光、冰雪资源为乡亲们带来源源不断的收入。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，向当地群众挥手致意。新华社记者 鞠鹏 摄', '离开小院时，当地群众在道路两旁热情欢送总书记。习近平亲切地对大家说，北极村前景可期。希望广大干部、群众共同努力，把乡村建设得更好、把生态保护得更好、让人民生活得更好，共同奔向中国式现代化的美好未来。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 谢环驰 摄', '习近平十分牵挂洪涝灾害地区灾后恢复重建工作和受灾群众的生活保障问题。7日上午，习近平乘车来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾和水毁房屋重建情况。村民杨春贵家房屋在洪灾中进水浸泡，屋内设施受损、间墙开裂，正在修缮。习近平走进杨春贵家中，看到房屋修缮即将完毕、生产生活都有安排，感到很欣慰。习近平指出，我一直牵挂受灾群众，尚志市这次受灾较为严重，看到灾后恢复重建快速顺利，乡亲们生活有了着落、生产有了保障，心里很踏实。东北冬季来得早、时间长，要确保受灾群众安全温暖过冬，地方党委和政府要抓紧谋划，提前行动，把吃、喝、住、行、就业、教育、医疗防疫等事关群众生产生活的大小事情考虑得更细致、更周全一些，不留一丝纰漏。要抓紧修复受损房屋，加快推进灾后重建，最大程度减少农业因灾损失，确保受灾群众安心安全。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水毁房屋重建情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，习近平走进村民杨春贵家中，察看受损房屋修缮情况。新华社记者 殷博古 摄', '看到总书记来了，当地村民和施工人员纷纷围拢过来，向总书记问好。习近平亲切地对大家说，党和政府十分关心灾区群众，始终同大家风雨同舟、携手同行，希望乡亲们在党组织领导下齐心协力、共克时艰，努力建设美好家园。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，同当地村民和施工人员亲切交流。新华社记者 谢环驰 摄', '7日上午，习近平还来到哈尔滨工程大学，了解学校发展历程和为我国国防科技事业作出的贡献，察看教学科研成果展示。习近平强调，哈尔滨工程大学要发扬“哈军工”优良传统，紧贴强国强军需要，抓好教育、科技、人才工作，为建设教育强国、科技强国、人才强国再立新功。年轻一代成为奋力拼搏、振兴中华的一代，实现第二个百年奋斗目标就充满希望。青年学子要树牢科技报国志，刻苦学习钻研，勇攀科学高峰，在推进强国建设、民族复兴伟业中绽放青春光彩。再过几天就是教师节，向全校教师致以节日祝福，祝全国广大教师节日快乐。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学哈军工纪念馆考察。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学考察时，同师生代表亲切交流。新华社记者 谢环驰 摄', '8日上午，习近平听取了黑龙江省委和省政府工作汇报，对黑龙江各项工作取得的成绩给予肯定。', '习近平指出，要以科技创新引领产业全面振兴。要立足现有产业基础，扎实推进先进制造业高质量发展，加快推动传统制造业升级，发挥科技创新的增量器作用，全面提升三次产业，不断优化经济结构、调整产业结构。整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。提高国有企业核心竞争力，引领民营经济健康发展，打造一批产业集群，做大做强实体经济。把企业作为科技成果转化核心载体，提高科技成果落地转化率。主动对接全国产业链供应链，在优势产业和产业优势领域深耕细作，更好融入全国统一大市场，在联通国内国际双循环中发挥更大作用。坚持绿色发展，加强绿色发展技术创新，建立健全绿色低碳循环发展经济体系。', '习近平强调，黑龙江要当好国家粮食安全“压舱石”。要以发展现代化大农业为主攻方向，加快建设现代农业大基地、大企业、大产业，率先实现农业物质装备现代化、科技现代化、经营管理现代化、农业信息化、资源利用可持续化。强化数字技术和生物技术赋能，优先把黑土地建成高标准农田，切实把黑土地保护好。把发展农业科技放在更加突出的位置，统筹推进科技农业、绿色农业、质量农业、品牌农业，推进现代种业提升工程，配套推广先进适用科技和高端农机装备，发展农业循环经济。创新农业经营方式，发展规模化经营、社会化服务。打造食品和饲料产业集群，提高粮食生产综合效益。加快推进乡村振兴，让农村具备现代化生产生活条件。', '习近平指出，要大力发展特色文化旅游。把发展冰雪经济作为新增长点，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。守护好森林、江河、湖泊、湿地、冰雪等原生态风貌，改善边境地区基础设施条件，积极发展边境旅游，更好地促进兴边富民、稳边固边。勇担新的文化使命，繁荣发展文化事业和文化产业，深入开展城乡精神文明建设，推进城乡公共文化服务体系一体建设，努力培育新风尚、展示新形象。', '习近平强调，要构筑我国向北开放新高地。更好统筹贸易、投资、通道和平台建设，在市场准入、要素流动、制度型开放等方面大胆探索、先行先试，形成全方位对外开放新格局。加快建设重要陆路通道、河海航道、能源管道等基础设施，完善面向东北亚开放的交通运输网络。要加强自贸试验区、综合保税区等开放平台创新发展，深度融入共建“一带一路”，积极参与区域合作。要切实做好重点领域风险防范化解工作，落实安全生产责任，坚决避免发生重特大安全生产事故。', '习近平指出，第一批主题教育已经告一段落，要抓好继续整改和建章立制工作，把主题教育探索的好经验好做法转化为长效机制。要建立健全理论学习、调查研究、推动高质量发展、密切联系群众、防止形式主义和官僚主义等长效机制，巩固发展主题教育成果。第二批主题教育已经启动，各地要坚持科学谋划、统筹安排、分类指导，确保取得实效。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第四巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>177</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>上海星驾科技有限公司考察团来我市实地考察交流</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20221101/i2829069.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['10月27日上午，上海星驾科技有限公司考察团来我市进行实地考察交流，市商务局党组成员、副局长曾雯敏，衡阳综保区管理局副局长肖巍峰，市商务局相关科室负责人陪同座谈。', '上海星驾科技有限公司是一家集智能换电车的生产制造、能源网络(充电桩、换电柜)、智慧出行于一体的科技公司。公司自主研发有智能充\\换电平台、大租车平台、新零售SAAS平台、车电柜物联网平台、新一代智能换电车、智能换电柜、智能换电电池、智能充电桩等平台及智能硬件，整合上下游产业链资源，以车电分离、可租可售，可充可换的创新型商业模式打造城市智慧出行的全生态产业链，真正实现两轮智慧出行领域全产业链闭环。', '上海星驾科技有限公司创始人、董事长余林表示，5G网络的商用和普及，给我们带来很大的启示和想象空间。依托我市优越的资源禀赋和区位条件以及庞大的两轮电动车需求市场，星驾科技有意在我市打造具备全球竞争力的一流企业，成为智能两轮电动车行业的“小蔚来”。', '曾雯敏对考察团的到来表示热烈欢迎，并简要介绍我市的基本情况，全面推介我市的资源优势、产业优势、政策优势和环境优势，希望双方以此次考察交流为契机，进一步加强沟通对接，深化交流合作，共促高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>177</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>习近平在广东考察调研</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202304/t20230411_29311401.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['10日，习近平总书记在广东省考察调研。他首先来到湛江市，先后考察了国家863计划项目海水养殖种子工程南方基地、麻章区湖光镇金牛岛红树林片区、徐闻港、环北部湾广东水资源配置工程，了解当地发展海洋渔业、加强红树林保护、提升交通基础设施互联互通水平、推动广东海南相向发展、优化水资源配置等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、李学仁、燕雁、刘彬）']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>177</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>习近平在四川考察调研</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202307/t20230726_29411592.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['25日下午和26日下午，习近平总书记在四川省广元市、德阳市分别考察了翠云廊古蜀道、三星堆博物馆，了解当地推进历史文化传承、加强生态文明建设和历史文化遗址发掘研究、文物保护修复等情况。（文字记者：朱基钗、林晖；摄影记者：鞠鹏、谢环驰、李涛）']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>177</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>习近平在重庆考察调研</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202404/t20240423_33284135.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['4月22日至23日，习近平总书记在重庆市考察调研。他先后来到重庆国际物流枢纽园区、九龙坡区谢家湾街道民主村社区、重庆市数字化城市运行和治理中心，了解当地加快建设西部陆海新通道、实施城市更新和保障改善民生、提高城市治理现代化水平等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、王晔、岳月伟）']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>177</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>衡阳市教育局党委中心组传达学习贯彻习近平总书记在湖南考察调研时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2020-09-29</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20200929/i2156299.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['9月28日下午，衡阳市教育局召开党委中心组学习会议，专题传达学习贯彻习近平总书记在湖南考察调研时的重要讲话精神。市教育局党委书记、局长程少平主持会议。市教育局全体领导班子成员参加学习。', '会上，程少平组织大家一同学习了习近平总书记在湖南考察调研时的重要讲话精神、在基层代表座谈会上的重要讲话精神，传达学习省市相关会议精神，并研究贯彻落实意见，与会局领导班子成员结合自身实际就深入落实习近平总书记讲话精神先后作了表态发言。', '程少平要求，全市教育系统广大党员干部、教职工要深入学习领会、全面贯彻落实习近平总书记在湖南考察时的重要讲话精神、习近平总书记在基层代表座谈会上的重要讲话精神。一要抓好学习贯彻。全市教育系统各级各类学校要把习近平总书记的讲话精神纳入学习的重要内容，在全市教育系统掀起学习贯彻总书记讲话精神的热潮，确保学习对象全覆盖，确保讲话精神能够入脑入心。二要抓牢立德树人根本任务。教育系统要按照习近平总书记的要求，全面贯彻党的教育方针，全面落实立德树人根本任务，牢记为党育人、为国育才使命，讲好红色故事，传承红色基因，办好思政教育。坚持"五育并举"，真正把学生培养成为"德智体美劳"全面发展的社会主义事业建设者和接班人。三要抓实下一步工作。全市教育系统要把习近平总书记讲话精神与建设教育强市工作相结合，把总书记的指示要求转化为推动教育高质量发展、办人民满意教育强大动力，确保2020年各项工作交出满意的成绩单，要认真制定好"十四五"教育规划，全面提高全市教育事业水平。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>177</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>习近平在上海考察调研</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202311/t20231129_32452619.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['28日至29日，习近平总书记在上海市考察调研。他先后考察上海期货交易所、上海科技创新成果展、闵行区新时代城市建设者管理者之家，了解上海增强国际金融中心竞争力、推进国际科技创新中心建设、保障性租赁住房建设等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、王晔、申宏）']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>177</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>衡东县鄯善县达朗坎乡考察团来我县交流考察并签订合作协议</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2023-12-19</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20231219/i3218977.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['衡东融媒12月19日讯（融媒体记者 谭忠 李玲（试用））12月16日，衡阳市委副秘书长、衡阳市第十批援疆工作队领队、鄯善县委副书记高廉明率鄯善县达朗坎乡考察团来我县交流考察并签订结对共建合作协议。县委副书记、统战部长伍松出席衡东县与鄯善县达朗坎乡结对共建交流座谈会。', '座谈会由县委常委、组织部长雷继红主持。会上，考察团一行首先观看了宣传视频《何以衡东》，对我县相关情况进行了解。衡阳市委副秘书长、衡阳市第十批援疆工作队领队、鄯善县委副书记高廉明就此次考察目标以及结对共建发展规划进行了介绍；鄯善县达朗坎乡主要负责人就达浪坎乡相关情况进行了介绍；县政府副县长尹乙鸣代表县委县政府与鄯善县达浪坎乡签订合作协议；随后，两地农业农村、乡村振兴、发展改革等领域相关负责人就后续合作共建相关事宜提出交流意见建议进行深入交流探讨。', '高廉明表示，为贯彻落实习近平总书记在听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报时的讲话精神，加强衡鄯两地交流交往，学习借鉴衡阳市在乡村振兴、产业发展、乡村旅游等方面的先进经验及运行模式，进一步拓宽工作思路，拓展多领域合作交流，全面加强两地交往交流交融。希望鄯善县达浪坎乡与衡东在促进文化润疆工作、拓展农产品销售渠道、搭建就业平台、引进农产品加工企业等方面开展进一步的结对共建交流，互帮互助、共同发展、共赢未来。', '伍松对考察团的到来表示诚挚欢迎，并对我县人文地理、土菜文化、红色文化等领域相关情况进行了介绍，对结对共建签约合作事宜表示高度肯定。他强调，下阶段，衡东将坚决贯彻党中央和市委、市政府决策部署，始终把对口援疆作为一项重要的政治任务和光荣的职责使命，牢记上级所托、紧扣当地所需、竭尽衡东所能，把对口援疆工作放在全县经济社会发展全局中统筹谋划与推进；强化要素保障、提升产业援疆效能，推动援疆工作在支持力度上再加大、工作标准上再提升、覆盖领域上再拓展，不断提高衡鄯两地同心共行、同向发力、同频共振综合效能；坚持对口支援与深化合作相结合，进一步深化双方合作交流，强化产业对接合作、拓展产品开发与服务合作，推进民族团结合作，完善交流协作机制，实现双方资源共享、优势互补、协调发展，奋力谱写衡鄯交流协作的新篇章。', '考察期间，考察团一行还先后前往霞流镇李花村李花缘种养专业合作社、湖南聚味堂食品有限公司等地进行参观学习交流。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>177</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>习近平在湖北武汉考察</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2022-06-29</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202206/t20220629_26697169.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['新华社武汉6月29日电 中共中央总书记、国家主席、中央军委主席习近平28日在湖北省武汉市考察时强调，科技自立自强是国家强盛之基、安全之要。我们必须完整、准确、全面贯彻新发展理念，深入实施创新驱动发展战略，把科技的命脉牢牢掌握在自己手中，在科技自立自强上取得更大进展，不断提升我国发展独立性、自主性、安全性，催生更多新技术新产业，开辟经济发展的新领域新赛道，形成国际竞争新优势。', '28日下午，习近平在湖北省委书记王蒙徽、省长王忠林陪同下，深入武汉的企业、社区调研。', '习近平首先来到武汉华工激光工程有限责任公司考察。在企业研发综合大楼，习近平听取湖北省光电子信息产业发展及核心技术攻关情况介绍，仔细察看芯片产业创新成果展示。习近平指出，光电子信息产业是应用广泛的战略高技术产业，也是我国有条件率先实现突破的高技术产业。湖北武汉东湖新技术开发区在光电子信息产业领域独树一帜。要加强技术研发攻关，掌握更多具有自主知识产权的核心技术，不断延伸创新链、完善产业链，为推动我国光电子信息产业加快发展作出更大贡献。随着我国发展壮大，突破“卡脖子”关键核心技术刻不容缓，必须坚持问题导向，发挥新型举国体制优势，踔厉奋发、奋起直追，加快实现科技自立自强。', '习近平先后走进企业激光科技馆、半导体面板激光智能装备生产车间，察看激光技术产业应用展品。习近平强调，高端制造是经济高质量发展的重要支撑。推动我国制造业转型升级，建设制造强国，必须加强技术研发，提高国产化替代率，把科技的命脉掌握在自己手中，国家才能真正强大起来。', '在车间大楼前，习近平同企业职工亲切交流。习近平指出，我国是世界第二大经济体，但还有不少短板，一些产业的基础还不是很牢固，进一步发展必须靠创新。全面建设社会主义现代化国家，实现第二个百年奋斗目标，创新是一个决定性因素。党中央高度重视科技创新，实施科教兴国战略和创新驱动发展战略。如果我们每一座城市、每一个高新技术开发区、每一家科技企业、每一位科研工作者都能围绕国家确定的发展方向扎扎实实推进科技创新，那么我们就一定能够实现既定目标。我们这一代人必须承担起这一光荣使命。科技创新，一靠投入，二靠人才。看到这里聚集了不少精英人才，大家都很年轻，充满活力，我感到很高兴。党中央十分关心科技人才成长，各级党委和政府要尽可能创造有利于科技创新的体制机制和工作生活环境，让科技工作者为祖国和人民作贡献。希望大家继续努力，取得更大成绩。', '习近平随后来到东湖高新区左岭街道智苑社区考察。该社区是一个国有企业棚改还建小区，新冠肺炎疫情发生后，严格落实五级包保制度，形成返岗复工和防控管理相结合的社区稳定保障体系，有序推动居民生活工作恢复正常。在听取湖北省常态化疫情防控和疫后社区治理情况介绍后，习近平强调，2020年武汉保卫战胜利以来，武汉这两年又遇到了多次聚集性疫情，但很快控制住了，没有发生大的反弹。武汉市常态化疫情防控工作做得是好的，经验值得总结。实践证明，党中央确定的疫情防控方针政策是正确的、有效的，必须毫不动摇坚持。', '习近平走进志愿服务客厅，向社区工作者、下沉党员干部、志愿者了解基层疫情联防联控机制运行情况，勉励他们把防控一线的篱笆扎结实，为居民营造一个安心祥和的生活环境。习近平在社区边走边看，对社区便民核酸采样等常态化疫情防控措施表示肯定。习近平强调，在应对疫情的斗争中，无论是应急状态防控还是常态化防控，社区都发挥了十分重要的作用。总的来讲，要靠早发现、快处置，靠广大人民群众众志成城，靠社区这个重要基础。要完善社区常态化防控措施，发现疫情后一定要果断，不能迟疑，采取科学严格的管控措施，提高科学防控、精准防控水平，坚决守住社区这道防线。', '智苑社区围绕老龄化突出问题，创新养老服务模式，建立了以居家为基础、社区为依托、机构为补充、医养相结合的养老服务模式。在社区党群服务中心，习近平向社区工作者了解党建引领基层社区治理及便民服务等情况，并同前来办事的老年人亲切交谈，详细询问他们的家庭情况。习近平指出，社区是城市治理体系的基本单元。我国国家治理体系的一个优势就是把城乡社区基础筑牢。要加强社区党组织建设，强化党组织的政治功能和组织功能，更好发挥党组织在社区治理中的领导作用，更好发挥党员先锋模范作用。要把更多资源下沉到社区来，充实工作力量，加强信息化建设，提高应急反应能力和管理服务水平，夯实城市治理基层基础。', '社区小广场上，干部群众纷纷围拢过来，欢呼着向总书记问好。习近平亲切地对大家说，我一直牵挂着武汉人民，时隔两年，再次来到武汉这座英雄的城市看望大家。疫情暴发以来，广大社区工作者长期坚守在防控一线，承担了大量繁杂琐碎的具体工作，竭诚为社区居民服务，非常辛苦，功不可没。这里，我向大家并向全国广大社区工作者表示诚挚的慰问。', '习近平强调，新冠肺炎疫情是一场大考。我们坚持人民至上、生命至上，坚持外防输入、内防反弹，坚持动态清零，因时因势不断调整防控措施，最大程度保护了人民生命安全和身体健康。我国人口基数大，如果搞“集体免疫”、“躺平”之类的防控政策，后果不堪设想。我们实施动态清零政策，是党中央从党的性质宗旨出发、从我国国情出发确定的，宁可暂时影响一点经济发展，也不能让人民群众生命安全和身体健康受到伤害，尤其是要保护好老人、孩子。如果算总账，我们的防疫措施是最经济的、效果最好的。我们有中国共产党领导，有社区这个重要基层基础，有能力也有实力实行动态清零政策，直至取得最后胜利。', '习近平指出，当前，疫情还没有见底，外防输入、内防反弹压力还很大。坚持就是胜利。要克服麻痹思想、厌战情绪、松劲心态，抓实抓细疫情防控各项工作，同时要尽可能推动经济平稳健康发展。各级党委和政府要想办法帮助人民群众解决实际困难，确保经济发展和人民群众生产生活少受影响。我们有信心统筹好疫情防控和经济社会发展工作，争取今年我国经济发展达到较好水平。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>177</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>坚持用好改革开放这个关键一招二论深入学习贯彻习近平总书记考察湖南重要讲话精神</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20240326/i3299604.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['坚持用好改革开放这个“关键一招”——二论深入学习贯彻习近平总书记考察湖南重要讲话精神', '改革和开放如同“一体两翼”，以开放促改革、以改革促发展，是40多年来我们不断取得举世瞩目新成就的宝贵经验。习近平总书记日前在长沙主持召开新时代推动中部地区崛起座谈会，从挺起中部“脊梁”的角度，强调“统筹推进深层次改革和高水平开放，持续打造更具竞争力的内陆开放高地”，为湖南主动融入国家发展大局、加快实现“三高四新”美好蓝图提供了重大战略指引、指明了根本前进方向。', '惟改革者进，惟创新者强，惟改革创新者胜。近年来，湖南牢记总书记殷殷嘱托，大力推进内陆地区改革开放高地建设。宏观来看，湖南自贸试验区探索形成了39项全国首创制度创新成果。不沿边、不靠海的湖南进出口年均增速达18.4%，高于全国7.1个百分点。湖南经贸“朋友圈”已遍布全球235个国家和地区，湘企“出海”走进了111个国家和地区。实际利用外资、对外投资规模均居中部第一，对非洲进出口年均增长31.6%，规模保持中西部第一。具体而言，从去年9月15日开始，位于湘西南山区的邵阳结束没有国际贸易班列的历史，迈入全新的“口岸时代”。与它相邻的怀化则打开山门，沿着怀化国际陆港这条大通道，紧密对接东盟国家……敢为人先的湖南人，努力以改革开放的主动赢得经济社会高质量发展的主动、赢得国际竞争的主动，进而把握发展先机。', '“要坚持用改革开放这个关键一招解决发展中的问题、应对前进道路上的风险挑战。”过去5年来，中部地区高质量发展取得了新成效。但同时要看到，推动中部地区崛起仍面临不少困难和挑战。地处中部地区的湖南尽管改革开放取得了不少成绩，但与东部沿海地区相比还有差距，必须以更大的决心和力度深化改革开放。必须着力解决制约构建新发展格局和推动高质量发展的卡点堵点问题、发展环境和民生领域的痛点难点问题、有悖社会公平正义的焦点热点问题；必须加强改革系统集成，更好参与全国统一大市场建设，全面融入中部地区崛起和长江经济带发展战略，深度融入共建“一带一路”，稳步扩大制度型开放，高标准建设好自由贸易试验区，着力打造中非经贸深度合作先行区。只有坚持向改革要动力、善于用改革的办法解决发展中的问题，向开放要活力、善于以开放促改革促发展，才能持续打破“不可以”的旧观念，不断创造“不可能”的新奇迹。', '春草萌发、春花吐蕊，这是吐故纳新的生命本能；深化改革、不断创新，这是推动社会进步、国家发展的实践之需；打造更具活力的内陆地区改革开放高地，这是加快实现“三高四新”美好蓝图的内在要求。坚定不移沿着习近平总书记指引的方向前进，坚持用好改革开放这个“关键一招”，湖南必将迎来更为广阔的发展新天地。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>177</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>厅党委会传达学习习近平总书记在海南考察时的重要讲话研究部署尾矿库整治应急值守等工作</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2022-04-29</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://yjt.hunan.gov.cn/yjt/xxgk/gzdt/ajyw/202204/t20220429_23001785.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['厅党委会传达学习习近平总书记在海南考察时的重要讲话 研究部署尾矿库整治、应急值守等工作 - 湖南省应急管理厅', '厅党委会传达学习习近平总书记在海南考察时的重要讲话 研究部署尾矿库整治、应急值守等工作', 'if("厅党委会传达学习习近平总书记在海南考察时的重要讲话 研究部署尾矿库整治、应急值守等工作"!="厅党委会传达学习习近平总书记在海南考察时的重要讲话 研究部署尾矿库整治、应急值守等工作"){document.write("厅党委会传达学习习近平总书记在海南考察时的重要讲话 研究部署尾矿库整治、应急值守等工作")}', '日，省应急管理厅党委书记、厅长李大剑主持召开厅党委会议，学习贯彻习近平总书记在海南考察时的重要讲话，研究部署尾矿库整治、应急值守等工作。', '会议指出，习近平总书记在海南考察时的重要讲话，立意高远、思想深刻、内涵丰富，具有很强的思想性、政治性、指导性和针对性，对做好应急管理工作具有重要指导意义。全厅全系统要提高思想认识，把握精神要义。始终坚持', '统一到党中央决策部署上来，不断提高政治判断力、政治领悟力、政治执行力。坚持稳字当头，睁大眼睛，耳听八方，加强风险辨识和防控，有效防范化解风险，严防', '事件发生。要认真学习领悟，加强宣传贯彻。把学习贯彻习近平新时代中国特色社会主义思想作为首要政治任务，及时跟进学习习近平总书记重要讲话精神，忠诚拥护', '。始终站稳人民立场，把以人民为中心的发展思想贯彻落实到应急管理的全过程，切实担负起保护人民群众生命财产安全和维护社会稳定的重要使命。要认真履职尽责，务求工作实效。切实统筹好发展和安全，振奋精神、敢于斗争，结合湖南实际，全面推动国务院安委会安全生产十五条措施落地落实，扎实做好安全生产工作，坚决守住不发生系统性风险底线，确保各项工作不松劲、各类事故不反弹、应对各种灾害不松懈，以安全发展的实绩实效迎接党的二十大胜利召开。', '会议指出，湖南尾矿库基数多、风险高，安全防范任务重。全系统要迅速贯彻落实湖南省推动长江经济带发展领导小组', '年第一次全体会议精神，认真履行尾矿库安全监管职责，提请党委政府领导同志带队检查，细化实化尾矿库安全防范措施。要坚持', '、综合整治、一抓到底，精细精准管控安全风险，持续深入推进尾矿库专项整治，确保整治工作落地见效。要紧盯重点尾矿库闭库销号，强化', '会议要求，要充分认清应急值守的极端重要性，以极端负责的态度做好值守工作，做到人在、心在、状态在。要全方位、全时段、全过程值守，及时洞察风险，及时掌握倾向性、苗头性问题，下好先手棋、打好主动仗，真正的担起应急值守的工作职责。要菜单化、流程化、规范化应急值守工作，确保应急值守行之有效，确保突发事件能及时科学高效处置。', '会议还研究了其他事项。厅党委委员出席会议，安职院党委书记、二级巡视员、驻厅纪检监察组、厅机关各处室、直属单位负责人列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>177</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>省政法委考察组来我县考察高家信见义勇为先进事迹</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2020-11-20</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.qdxw.com.cn/content/2020/11/20/8624573.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['11月18日，省政法委法治处、市政法委组织联合考察组赴我县粮市镇考察见义勇为先进个人高家信的事迹。', '高家信是我县粮市镇鑫安村高家皂村民小组村民，生前担任该组组长。2019年11月20日下午4时许，高家信和妻子正在地里做农活，听到附近废弃冶炼厂有锯铁的声音，怀疑有人在偷东西，就立即放下手中的农活，只身前往查看，一进厂门发现一陌生男子在搬运厂里的东西，高家信严斥该男子不许偷盗，并疾步上前将男子抱住进行制止。男子挣扎中，用手中的磨机向高家信的头部连续砸了两下，高家信忍着剧痛紧紧抱住该男子不肯松手。该男子此时已完全丧失理智，用磨机向高家信的头部又连续猛砸了七八下，致高家信当场昏死过去，该男子随即与其同伙驾驶三轮车逃离现场，两天后，该男子与其同伙被公安机关抓获归案。高家信因伤势过重经医院抢救无效不幸身亡，被评为我县2019年度见义勇为先进个人。', '当天上午，考察组深入当年案发现场，详细了解了案情的真相，并对高家信的英雄事迹给予了充分肯定，希望全社会向高家信学习，学习高家信在关键时刻，临危不惧，挺身而出的拼搏精神、奋不顾身，见义勇为的高尚情操、舍己为人，无私奉献的优秀品质。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>177</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>蒸湘区市委政法委政治建设第四考察组进驻蒸湘开展考察工作</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2020-09-21</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200921/i2148828.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['会上，市委政法委政治建设第四考察组组长、市委政法委副书记曾小成对此次考察工作提出了四个方面的要求，一是从讲政治的高度对待政治建设考察工作;二是政治建设考察必须聚焦坚决做到“两个维护”;三是政治建设考察必须最讲政治纪律;四是通过政治建设考察加强政治建设。', '区委书记周法清代表蒸湘区作了表态发言，一是提升政治站位。要把这次考察当成对全区政法系统政治建设的一项“全面检阅”，进一步树牢“四个意识”，坚定“四个自信”，坚决做到“两个维护”，全面提升政法队伍政治素养，彰显对党绝对忠诚的政治品格，打造过硬队伍。二是全力支持配合。要围绕考察组的安排部署，不折不扣完成各项考察任务，让考察组客观全面、准确深入地了解全区政法工作，找到问题症结，开出整改良方。三是认真整改落实。要端正态度，切实把自己摆进去，直面问题，敢于亮丑，本着深入反思、彻底整改的态度，建章立制，以铁的手腕、铁的举措、铁的作风切实抓好整改落实。', '会议由区委常委、组织部长刘华文主持，区领导乐喜莲、贺晓斌、胡国平和区纪委监委相关领导出席会议，区委政法委、法院、检察院、公安分局、司法局领导班子成员参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>177</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>感受家乡巨变共叙乡情乡谊海外侨商侨领考察团赴耒阳南岳考察</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20230529/i3019294.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['5月25日，’2023首届“聚侨兴湘·侨系衡阳”活动考察团先后赴耒阳市、南岳区考察，并分别举行耒阳市、南岳区招商引资推介会，感受家乡变化，共叙乡情乡谊。衡阳市委副书记、耒阳市委书记赖馨正，省侨联党组成员、副主席李祖元，新中友好协会奥克兰分会主席MikeDawson分别参加。', '当天，由近200名海外侨商侨领组成的考察团先后赴耒阳市正源学校、金代科技发展有限公司、韶能集团耒阳纸品有限公司等侨资企业考察，深入了解教育事业、产业发展等情况，感受耒阳县域经济发展新成果新变化。在南岳区，考察团实地察看了湖南省华侨文化交流基地，了解基地建设、管理及功能设置情况，感受南岳深厚的人文历史和文化底蕴。', '考察期间，看到家乡面貌的巨大变化，侨胞们欣喜不已。“多年不见，家乡的产业在发展、企业在进步、文化事业蓬勃兴旺。作为耒阳人，我感到非常骄傲和自豪。”随团考察的新西兰湖南总商会会长周惠斌表示，希望有更多侨商来家乡投资兴业。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>177</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>蒸湘区推进项目合作中德特色产业小镇项目考察团来我区考察</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2020-06-16</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200616/i2062888.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['6月15日，友谊国际工程咨询有限公司董事长张海岸一行来我区就中德特色产业小镇项目进行考察洽谈。区委书记周法清，区领导于德辉、尹熙明、阳宏伟、廖东笙、刘著章、杨雪峰、黄文洁出席座谈会。', '中德特色产业小镇项目，借鉴先进地区经验，结合我区城市转型升级及城镇化建设实际，初步设计以低碳节能环保、产城人文有机融合为特色，以新能源汽车产业及低碳节能产业为核心，打造一个生态健康、低碳高效、可持续发展的综合型特色产业小镇。', '会议就我区发展概况、产业优势、交通条件、未来定位等，向考察团做了详细的介绍，并听取了中德特色产业小镇项目考察团负责人关于友谊国际企业发展理念、经营状况及项目分析、定位与规划等方案的汇报。', '考察团表示蒸湘区政治生态良好、自然资源丰富、文化底蕴深厚、区位优势明显，此次考察更是感受到我区火热的建设发展势头，希望通过进一步深入了解，找到双方的合作点，努力实现共赢发展。', '周法清对考察团一行来我区考察洽谈表示欢迎，他指出，中德特色产业小镇项目立足我区生态文化特色，以新型产业为发展之源，契合我区未来发展规划，希望以此次参观考察为契机，争取尽快促成项目落地，为蒸湘发展再添助力。政府也将一如既往为来我区投资兴业的企业提供高效、热情、周到的服务，以最诚意的态度，最大的力度，尽最大的努力把事情落实，把项目推进。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>177</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>常宁市市政协考察团到汨罗市湘潭县考察调研县域经济发展工作</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20221128/i2859218.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['11月24日，市政协考察团到汨罗市、湘潭县考察调研县域经济发展工作。市政协副主席郭秀清参加。', '在汨罗市高新区，考察团一行先后来到龙智新材料、恒塑新材料、福缘新材料等地进行调研，通过实地参观、听取介绍等方式，详细了解汨罗市产业集群建设、企业技术研发和县域经济高质量发展等工作情况。考察团表示，汨罗市立足当地区位优势，不断优化营商环境，为助力县域经济高质量发展提供新的动能，这些先进发展经验值得学习与借鉴，希望今后能进一步加强两地经验交流，共同推动经济高质量发展。', '在湘潭县天易经开区，考察团先后来到伍子醉、湖南珠江啤酒、新向维、信诺颜料等企业，进车间，看生产，听介绍，问效益，详细了解各企业的生产经营、发展理念、发展前景和创新能力等方面情况，学习发展县域经济、营造良好营商环境、招商引资等方面的好经验、好做法。考察团表示，常宁将认真总结学习湘潭的成功经验，加快常宁县域经济高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>177</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>衡山县县政府考察团赴粤开展招商联络处授牌及招商考察活动</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2023-04-03</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230403/i2975263.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['3月29日至31日，县政府考察团前往广东省佛山市和东莞市开展招商联络处授牌及招商洽谈、考察活动。县委常委、副县长张志斌、副县长涂闻卿参加。', '在佛山市、东莞市举行的招商活动洽谈会上，涂闻卿作了招商引资优惠政策及重点项目推介，并诚挚欢迎广大企业家常回家看看，一如既往地关心家乡发展，投资家乡建设，帮助家乡招商引资，支持家乡产业升级、乡村振兴事业。', '张志斌就推进项目建设、拓展合作空间、谋划共赢发展与企业家们进行深入探讨和交流，并详细介绍了衡山县独特的区位优势、产业优势、交通便利优势、政策红利优势等，深入阐述了衡山产业发展情况和重点发展、招商引资方向。他期望商会能进一步发挥广大企业家的优势，积极搭建佛山市、东莞市与衡山县之间沟通的桥梁，不断拓展在衡山县投资合作领域，进一步深化合作交流，为推进“五兴六强”现代化新衡山贡献力量。', '连日来，考察团先后走访并实地考察了广东衡达消防教育基地、广东红蜘蛛纳米新材料有限公司、佛山市三水区衡邦玻璃有限公司、广东玺世铝幕墙科技有限公司、广东鸿福新材料科技股份有限公司、广东荣建幕墙装饰工程有限公司、广东永铭建设工程有限公司、广东汇齐新材料有限公司以及东莞启煜电子科技有限公司，对各企业的基本情况和发展目标进行了深入了解，极大地增进了家乡政府与在粤衡商之间的沟通和交流，振奋了衡商坚定为家乡投资、引资的信念。', '企业家们纷纷表示，作为家乡的一份子，带领优质企业“引进来”既是责任也是荣誉，未来也将进一步强化商会的联动作用，加强粤商与衡商之间的互通互联，实现以商引商，以企带企的招商新模式，为家乡高质量发展出策出力。（胡程远）']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>177</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>习近平在沧州市考察调研</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202305/t20230511_29335543.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['11日，习近平总书记在河北省沧州市，先后考察了黄骅市旧城镇仙庄片区旱碱地麦田、黄骅港煤炭港区，了解当地旱碱麦种植推广及产业化、港区生产经营及发展规划等情况。（文字记者：张晓松、林晖；摄影记者：李学仁、燕雁、申宏、殷博古）']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>177</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>赖馨正率队赴三峡电能考察</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2023-10-16</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20231016/i3135360.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['全省最大生物天然气项目——三峡电能耒阳生物天然气项目10月8日投产发电并网后，10月9日—10日，衡阳市委副书记、耒阳市委书记赖馨正率队赴三峡电能有限公司考察，就建设生物天然气项目集群、城市综合能源管家等合作事宜进行交流。中国长江电力股份有限公司副总经理、三峡电能有限公司董事长谢俊陪同考察。', '赖馨正简要介绍了耒阳市经济社会发展情况及特色亮点工作。他说，耒阳是古色之城、红色之城、绿色之城、白色之城、夜色之城，在湖南省委、省政府，衡阳市委、市政府坚强领导下，已步入高质量发展起势起航的新阶段。三峡电能耒阳生物天然气项目投产发电并网，是地企互信互利、紧密合作取得的重要成果，对于优化耒阳“211+X”产业布局，加快循环经济产业发展，具有代表性、标志性意义，期盼双方在分布式光伏规模化开发、智慧综合能源利用等更多领域、更大范围、更高层次开展务实合作，携手共创更加广阔的未来。', '赖馨正希望，三峡电能进一步加大在衡阳及耒阳的投资布局力度，依托耒阳区位优势大力发展总部经济，助推地方经济社会高质量发展。耒阳市委、市政府坚定不移支持企业做强做优做大，持续深入推进“安商行动”，竭力为广大企业和企业家提供“共同成长式”服务，让在耒阳的企业安心、安神、安稳、安全发展。', '谢俊热烈欢迎赖馨正一行，衷心感谢耒阳市委市政府对三峡电能在耒企业的大力支持，期待双方再续合作、再谱新篇。三峡电能将深耕智慧综合能源服务，充分发挥自身优势，积极推动双方开展务实合作，为绿色低碳高质量发展贡献更大力量，助力“五个耒阳”建设。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>177</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>秦振衡赴深圳东莞招商考察</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20230529/i3019282.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['5月24日至26日，衡阳国家高新区党工委书记秦振衡率队，赴深圳和东莞两地开展招商引资工作。', '秦振衡一行密集走访考察飞尚实业集团、优必选科技、威广骏电子、美宜佳控股等企业。参观了企业的生产车间、智能化仓库和展示中心，详细了解企业的生产流程，市场应用及发展规划。在与企业负责人座谈中，根据企业的投资意向和诉求，就下一步投资合作事宜进行深度交流。', '秦振衡结合高新区的地理位置、产业配套、政策落实等优势，向企业家们进行推介，诚挚邀请他们到衡阳高新区多走一走、多转一转、多看一看，更多地支持高新、助力高新、赋能高新。秦振衡表示，衡阳高新区将以最大诚意、最好政策、最优环境，打造安商富商“洼地”；高起点规划、高标准建设、高效能管理，打造发财发展“宝地”；树立新理念、发展新业态、开拓新局面，打造创新创业“福地”。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>177</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>市领导率队赴上海考察招商</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20230925/i3107332.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['期间，黄艳娥一行考察走访了历保科技、明园集团、彬复资本等重点企业，与上海衡阳商会企业家、部分重点招商企业家座谈交流，就进一步推动“金秋九月·相聚雁城”招商主题月活动进行对接交流。', '座谈会上，与会企业家分别介绍了企业发展情况，并从引资入衡、投资办企、打造研发创新平台、建强产业链等方面提出意见建议。各企业家对衡阳强劲的发展态势、良好的投资环境予以赞赏，对投资衡阳充满信心、充满期待，表示将发挥商会联系广泛优势，结合企业自身特点，进一步深化合作，努力实现共赢发展。', '黄艳娥对衡阳籍和湖南朋友圈企业家心系家乡发展表示感谢，希望各位企业家们一如既往关心、关注、关爱家乡，发挥各自优势，加强合作交流，进一步引领和推动产业回归、资本回流、项目回投、人才回聚，积极投入到家乡建设中来，为衡阳“制造立市、文旅兴城”增添发展动能。衡阳将为广大投资商在衡发展搭建更好平台、创造更优条件、营造更佳环境，让大家在家乡放心投资、安心发展、舒心生活。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>177</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>衡东县市委考察组对我县政法系统领导干部政治建设进行考察</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2020-09-07</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200907/i2137027.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['9月2日，市委第七考察组正式进驻衡东，对我县政法各单位开展为期半个月的政治建设考察，并于当天上午，召开政法系统领导班子和领导干部政治建设考察工作见面会。市委第七考察组组长、市委政法委副书记赵伟，县委副书记、县长徐志毅出席。', '会上，考察组就做好政治建设考察的相关要求及考察涉及的各项工作做出了全面安排部署。赵伟作动员讲话。他强调，要提高政治站位，认真对待此次政治建设考察。要务实高效，紧密结合扫黑除恶等中心工作来考察，传导压实政治责任。要严守纪律，以最严的纪律开展政治考察。要聚焦重点，围绕领导班子、领导干部履职不到位，黑恶势力犯罪发现不及时，打击不主动、群众反映强烈等方面进行察。', '徐志毅指出，开展政治建设考察，是贯彻落实中央、省委关于加强党的政治建设的要求的重要举措，是对我县政法系统进行的一次全面“政治体检”，必将有力地推动我县政法系统政治建设。衡东县将以此次政治建设考察为契机，进一步提高政治站位，配合考察组做好各项工作，全面提升自身政治素养，及时梳理建立问题清单并制定好整改方案，逐项对照检查，限期落实整改。以整改的实际成效促进考察成果的转化应用，把全面从严治党落实到各项工作的全过程，努力营造风清气正政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>177</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>秦振衡赴深圳和东莞考察企业</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20231106/i3157214.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['10月31日至11月2日，衡阳国家高新区党工委书记秦振衡带队赴深圳、东莞考察衡阳智能视听产业集群项目拟落地企业，与企业家面对面交流洽谈，精准对接合作项目，深入了解企业发展情况和落地需求。', '此次考察的深圳市悠乐华实业有限公司、深圳市蓝图信息技术有限公司、东莞市鑫鼎鸿光电有限公司、东莞市文泰光学有限公司等4家公司均为衡阳智能视听产业集群项目拟落地企业。该集群项目总投资约50亿元，租赁园区厂房面积约11.5万平方米。预计项目首期投产后年产值达30亿元以上，年缴税不低于6200万元。', '在座谈会上，企业家们纷纷表示，衡阳区位优势明显、交通便利，衡阳高新区营商环境优、政策好，是企业投资创业的福地。对在衡阳高新区投资兴业充满期待，希望能加快落地进度，促进合作共赢。', '秦振衡表示，衡阳高新区将积极承接沿海地区产业转移，为项目建设提供优质、高效、便捷服务。紧扣湖南省视听产业发展规划，助力企业融入视听产业链上下游融通配套，期待衡阳智能视听产业集群项目早落地、早投产、早见效。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>177</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>雁峰区专题招商引项目考察取经促发展王燕带队赴广州深圳等地招商考察</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20220826/i2778860.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['8月22日至24日，雁峰区委书记王燕带领区科工信局、区商务局等相关部门主要负责人前往广州、深圳等地，就输变电产业进行专题招商，以及就党建引领、乡村振兴、城乡治理标准化等工作进行考察学习。区委副书记、统战部长李世钧参加。', '22日上午，王燕一行到广州电缆厂有限公司进行考察，走进公司展厅及生产车间，深入了解企业战略布局、技术研发、生产经营等情况。座谈会上，双方观看了《雁峰如此多娇》等视频，就业务合作、产业转型等问题进行了交流与探讨。“百年双菱，百闻不如一见”，王燕对企业发展实力给予了高度评价。“华菱天下，要聚天下之英才和财气”，王燕向企业介绍了雁峰基本情况及产业优势，重点介绍了湖南省输变电特色配套产业园和输变电特色工业小镇推进情况，并诚邀广州电缆到雁峰考察投资，携手开拓美美共美、互利共赢新局面。', '22日下午，在广州白云电气有限公司，王燕一行考察了公司建设情况，并听取了企业发展历程、技术研发、投资布局、文化理念等情况。王燕对企业的管理模式表示了充分肯定，希望双方能加强沟通交流，积极探索输变电产业合作。', '23日上午，在广东新中南电缆有限公司，王燕与企业负责人进行了座谈。王燕指出，雁峰区是工业强区、文化名区、教育大区、生态美区，合作优势明显，希望双方坚定合作信心，雁峰将全力为前来投资兴业的企业做好服务。', '为推动雁峰区和粤港澳大湾区进一步深化产业合作、携手共赢发展，23日下午，在深圳市罗湖区举行了衡阳市雁峰区输变电产业链专题招商推介暨企业家座谈会。“雁到衡阳不南飞，客到雁峰不思归”，会上，王燕向各位企业家详细介绍了输变电产业链招商项目、优惠政策等，诚邀他们常回雁峰看看，关心支持雁峰的建设发展。随后，双方进行了全面深入的对接交流，共同探寻合作发展路径。参会企业纷纷表示，雁峰的发展优势独特、来势较好，为双方以后合作打下良好基础。', '24日上午，王燕一行前往深圳正威国际集团考察，并就合作事宜与相关负责人进行了交流洽谈。', '期间，王燕一行还先后前往广东省江门市鹤山市来苏村民委员会、深圳市罗湖区翠竹街道水贝社区及周边农贸市场等地进行考察，学习基层党建、乡村振兴、文明创建等工作特色、经验做法。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>177</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>习近平在湖南常德市考察调研</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2024-03-20</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20240320/i3295502.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['19日，习近平总书记在湖南省常德市，先后考察了常德河街、鼎城区谢家铺镇港中坪村，了解历史文化街区修复利用、城市水环境综合治理和春耕备耕、提升基层治理效能等情况。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>177</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>习近平在海南三亚市考察调研</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2022-04-11</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202204/t20220411_22733507.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['10日下午，习近平总书记在海南省三亚市先后考察了崖州湾种子实验室、中国海洋大学三亚海洋研究院，了解海南支持种业创新、发展海洋科技等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>177</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>习近平在江西九江市考察调研</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2023-10-11</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202310/t20231011_31663318.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['10日下午，习近平总书记在江西省九江市先后考察了长江国家文化公园九江城区段、中国石化九江分公司，了解当地长江国家文化公园建设、长江岸线生态修复、石化企业转型升级绿色发展等情况。（文字记者：张晓松、林晖；摄影记者：鞠鹏、谢环驰、燕雁、刘彬）']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>177</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>徐宪平率调研组来衡考察调研</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2022-07-21</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20220721/i2757386.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['7月20日，两岸企业家峰会综合组召集人、国家发展改革委原副主任徐宪平率调研组来衡考察调研。省委台办主任曾智夫，省发改委党组成员、副主任王亮方，市委常委、常务副市长于新凡参加。', '据介绍，本次调研重在了解我市各项惠台政策措施的落实情况、助力台企应对新冠肺炎疫情纾困政策成效和台企参与数字化低碳化转型发展情况等。', '来到工业富联衡阳智造谷，徐宪平参观了智能制造体验馆，详细了解平台建设、场景应用、智能制造、企业赋能、人才培养等多方面情况。他说，作为新一轮科技革命和产业变革的“领头雁”，衡阳智造谷要充分发挥“灯塔工厂”引领作用，更好地为企业赋能，共同推动中国智能制造转型。', '徐宪平还走访了富泰宏、万魔声学等台资企业。每到一处，徐宪平都实地察看企业生产线，详细了解企业规划、生产经营、研发投入、市场销售、营商环境及各项支持政策贯彻落实等情况。徐宪平强调，企业参与数字化低碳化转型发展，要进一步强化创新主体地位，加大科技研发力度，掌握关键核心技术，突破“卡脖子”技术难题。要充分发挥工业互联网、人工智能等现代化信息技术优势，继续保持良好发展势头，加快产品创新，拓展市场，为企业发展赋能助力。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>177</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>习近平在浙江绍兴市考察调研</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202309/t20230922_29497698.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['20日下午，习近平总书记在浙江省绍兴市考察。他来到枫桥经验陈列馆，重温“枫桥经验”诞生演进历程，了解新时代“枫桥经验”创新发展情况，并前往浙东运河文化园，了解古运河发展演变历史和大运河保护及大运河国家文化公园建设等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>177</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>抓住科技创新这一关键培育发展新质生产力一论深入学习贯彻习近平总书记考察湖南重要讲话精神</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2024-03-26</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20240326/i3299594.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['抓住科技创新这一关键，培育发展新质生产力——一论深入学习贯彻习近平总书记考察湖南重要讲话精神', '“科技创新是发展新质生产力的核心要素”“要在以科技创新引领产业创新方面下更大功夫”“科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在”……习近平总书记在湖南考察时的重要讲话，充分体现了对三湘儿女和湖南经济社会发展的关心关怀、殷切期待，充分彰显了加强科技创新、加快培育发展新质生产力的鲜明导向、实践要求。', '“科技创新，就像撬动地球的杠杆，总能创造令人意想不到的奇迹。”这些年，省委、省政府锚定“三高四新”美好蓝图，全力推进高质量发展：北斗产业产值增长18.4%、长沙比亚迪新能源汽车产量增长64.3%、各有8家企业进入中国制造业企业500强和新增百亿工业企业之列……总书记关于科技创新的重要讲话，特别是对我省打造“具有核心竞争力的科技创新高地”的重要讲话和指示批示精神，已充分展现出真理的力量、实践的伟力。', '竞争如逆水行舟，科技创新是最有力的引擎。当前，世界百年未有之大变局加速演进，中华民族伟大复兴进入关键时期，我们比以往任何时候都更加需要强大的科技创新力量。老是在产业链的低端打拼，老是在“微笑曲线”的底端摸爬，老是在附加值最低的制造环节停留而占领不了附加值高的研发和销售两端，不会有根本出路。突破“小院高墙”、攻克“卡脖子”技术，于危机中育先机、于变局中开新局，必须向“科技创新”要答案，必须把关键核心技术“牢牢掌握在我们自己手里”。', '如何以科技创新培育发展新质生产力，习近平总书记给了我们三个“锦囊”：一是要在以科技创新引领产业创新方面下更大功夫，主动对接国家战略科技力量，积极引进国内外一流研发机构，提高关键领域自主创新能力。二是要强化企业科技创新主体地位，促进创新链产业链资金链人才链深度融合，推动科技成果加快转化为现实生产力。三是要聚焦优势产业，强化产业基础再造和重大技术装备攻关，继续做大做强先进制造业，推动产业高端化、智能化、绿色化发展，打造国家级产业集群。习近平总书记的重要讲话，是对如何发展新质生产力作出的更明确的路径指引，充满了前瞻性、科学性和指导性，是我们的行动指南、根本遵循。奋力谱写中国式现代化湖南篇章，就必须深刻领悟总书记的重要讲话精神，更鲜明地树立起重视科技创新、加快科技创新的实践导向，以科技创新培育新质生产力、打开发展新局面，以科技创新贡献湖南之为、共襄复兴伟业。', '深入学习贯彻习近平总书记考察湖南时的重要讲话精神，必须落实到具体行动上，落实到每一个人身上，鲜明地做科技体制改革和科技成果转化的推进者、支持者，“鼓励创新、宽容失败”良好创新生态的创造者、维护者，奏响三湘大地上科技创新的“最强音”、刷新“具有核心竞争力的科技创新高地”的新高度。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>177</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>深圳民政部门来衡考察交流</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2019-11-12</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20200111/i19764.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['11月7日，深圳市民政局、深圳社会工作者协会、深圳社会工作学院相关人员来衡考察，调研社会工作及民政部“牵手计划”实施情况。', '当天，考察调研组实地察看了珠晖区北斗星社工站，了解衡阳“禾计划”项目运营情况，对社工站的规范化建设管理、项目实施、平台创建、党建引领、参与脱贫攻坚和社会治理等方面给予了高度评价和赞赏。随后又前往常宁市，与民政部门及牵手帮扶的社工站座谈交流，检验“牵手计划”取得的成效，并详细了解结对帮扶中出现的问题。', '座谈中，双方就社会工作专业人才队伍建设、社会工作服务机构发展、社会工作助力脱贫攻坚等问题进行了广泛交流和深入探讨。通过本次调研考察，进一步加强了两市在社会工作领域中的交流与合作。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>177</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>习近平在广西来宾市考察调研</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202312/t20231215_32512259.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['14日下午，习近平总书记在广西来宾市考察调研。他先后来到来宾市国家现代农业产业园黄安优质“双高”糖料蔗基地和东糖凤凰有限公司，了解甘蔗良种繁育、种植收成、糖产业发展等情况。（文字记者：林晖；摄影记者： 谢环驰、王晔、燕雁、岳月伟）']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>177</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>习近平在四川眉山市考察调研</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2022-06-09</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202206/t20220609_25441273.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['8日上午，习近平总书记在四川省眉山市先后考察了东坡区太和镇永丰村、三苏祠，了解当地推进高标准农田建设、加强粮食生产、推动乡村振兴、做好疫情防控、保护历史文化遗产等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、申宏、姚大伟）']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>177</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>习近平在浙江金华市考察调研</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202309/t20230922_29497692.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['20日上午，习近平总书记在浙江省金华市先后考察了义乌市后宅街道李祖村、义乌国际商贸城，了解当地因地制宜发展特色产业、推进乡村振兴和发展对外贸易、推动高质量发展等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、燕雁、岳月伟）']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>177</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>习近平在辽宁锦州市考察调研</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2022-08-18</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202208/t20220818_27585519.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['16日下午，习近平总书记在辽宁省锦州市先后考察了辽沈战役纪念馆、东湖森林公园，回顾东北解放战争历史和辽沈战役胜利进程，听取辽宁省防汛工作和当地加强生态环境修复保护情况介绍，并就做好防汛工作、提高灾害防御能力作出重要指示。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、姚大伟、申宏、燕雁）']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>177</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>习近平在新疆吐鲁番市考察调研</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.gov.cn/xinwen/2022-07/15/content_5701178.htm</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['14日下午，习近平总书记来到新疆吐鲁番市，先后考察了葡萄沟、高昌区亚尔镇新城片区新城西门村、交河故城，了解当地发展特色产业、推进乡村振兴、文化遗产保护利用等情况。（文字记者：张晓松、朱基钗；摄影记者：李学仁、谢环驰、申宏、燕雁）', '14日下午，习近平总书记来到新疆吐鲁番市，先后考察了葡萄沟、高昌区亚尔镇新城片区新城西门村、交河故城，了解当地发展特色产业、推进乡村振兴、文化遗产保护利用等情况。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>177</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>秦国文率队赴华侨城集团考察</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2021-12-08</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20211208/i2561839.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['12月6日，市委书记秦国文率队前往位于深圳的华侨城集团考察，并与华侨城集团党委副书记、总经理刘凤喜座谈，就下一步创新合作模式、拓展合作空间进行了深入的沟通交流。', '座谈会上，秦国文对华侨城为衡阳发展作出的重要贡献表示感谢，对华侨城先进的发展理念、运营模式以及高度的社会责任感表示赞赏。他说，华侨城集团与衡阳携手创造了央地合作的典范，建立了良好的合作基础。未来，希望双方在加快推进现有合作项目的同时，进一步寻求双方价值理念的共同点、合作共赢的平衡点、提升发展空间的切入点，进一步加强加大加深合作，积极助推衡阳落实“三高四新”战略定位和使命任务、推进“三强一化”建设。', '刘凤喜对秦国文一行的到访表示热烈欢迎，并介绍了华侨城集团的基本情况。他表示，华侨城落子衡阳，是华侨城集团践行“央地混改”战略和加速中部崛起的重要举措。华侨城集团在确保实现国有资产保值增值的前提下，立足企业生产经营实际，全力支持配合衡阳市委、市政府各项工作，积极服务地方经济社会发展。同时，将继续加大在衡投资力度、深化拓展双方合作，探索发展新路径、打造合作新模式，努力为衡阳高质量发展作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>177</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>朱健率队赴三一集团考察交流</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20231211/i3209562.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['12月9日，市委副书记、市长朱健就产业项目合作、智能建造场景应用等，率队赴三一集团考察交流。', '来到三一集团，朱健一行参观了企业发展历史展览、三一重工18号工厂，并与三一集团轮值董事长、总裁唐修国等高管座谈，就深化双方合作达成了广泛共识。', '朱健在座谈中指出，衡阳作为省域副中心城市，全面锚定“三高四新”美好蓝图，大力实施“制造立市、文旅兴城”发展战略，社会治理能力不断提升，营商环境持续改善，经济持续多年高位增长，主要经济指标稳居全省前列，明年还将迎来承办第三届湖南旅发大会的机遇。希望三一集团与衡阳共享时代机遇，深化智能重卡、工业互联等领域的合作，共同推进智能建造场景在衡阳应用，制定明确的路径图、时间表，压茬推进互利合作。', '唐修国介绍了三一集团的基本情况，着重分享了智能建造板块的发展动态与未来展望。他说，三一集团凭借自身掌握的核心技术，以“树根互联”工业互联网为基础，着力开辟“建筑工业化”新产业、新赛道，正致力打造一个千亿级的智能建造“硬科技公司”。希望双方保持紧密沟通，共同推进智能建造场景应用在衡阳承办的第三届湖南旅发大会上，展现智能建造的独特魅力，引领建筑行业的颠覆性变革，拓展合作领域，携手共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>177</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>湖南省老科协来衡南考察调研</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2021-12-24</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20211224/i2573909.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['12月23日，湖南省老科协副会长张伟达、副秘书长荣彩春一行来我县考察调研科技助力乡村振兴工作情况。衡阳市老科协会长许祥发，衡南县委书记胡果雄，县委副书记、县委政法委书记胡琼峰参加调研。', '省老科协调研组来到衡南鑫海现代农业发展有限公司，深入基地和大棚车间，听取企业负责人情况汇报，详细了解企业生产销售、劳务用工及科技创新情况。', '衡南鑫海现代农业发展有限公司近年积极流转土地，种植双季稻500多亩、烟叶500多亩，并培育了沃柑、脐橙、三红蜜柚、金秋沙糖桔等多个经济果木，生鲜冷链仓储已经建成，年产值300多万元，为周边农户提供了30多个就业岗位。调研组对该公司的发展成就表示赞赏，希望衡南各相关单位加大对企业的科技帮扶力度，走农业可持续发展之路，让更多群众在现代农业发展中受益。', '当天，调研组一行还参观了衡南县新时代文明实践中心，并对屋场恳谈会制度开展情况进行详细了解，调研组表示，衡南屋场恳谈会制度创新了基层治理模式，察民情、听民意、释民惑、解民忧、聚民力，是拉近干群关系的有效载体，实现了宣传群众、教育群众、关心群众、服务群众"零距离"，希望进一步加大推广力度，不断提升基层治理水平。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>177</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>朱健率队赴重庆开展招商考察活动</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20240321/i3296575.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['3月19日，市委副书记、市长朱健率队赴重庆开展招商考察活动，走访中兵装建设工业集团、赛力斯集团、湘渝盐化有限责任公司，与各企业负责人、在渝衡商就深化合作关系、扩大企业在衡投资、加快合作项目落地建设进行洽谈。', '当天上午，朱健一行实地考察了中兵装建设工业集团，参观建设工业展览馆，了解企业发展历史、先进产品和生产经营情况。朱健指出，中兵装建设工业集团是我国国防建设和国民经济建设的重要战略性企业，是民族工业发展的生力军，也是落实习近平强军思想的大国利器，希望集团发挥现代企业在产业、科技和人才领域的资源优势，为衡阳交流培育一批现代化企业管理人才，推动企业项目实现工艺创新和管理升级。同时，针对材料领域进一步拓展应用场景和市场渠道，围绕汽车配件、瞄准器具等产业探索高起点、多层次、全方位战略合作，争取更多新兴产业项目落地。', '随后，朱健一行与重庆市衡阳商会企业家代表开展座谈。在渝衡商代表先后发言，分享创业故事，并围绕回馈家乡、建设家乡畅谈打算和规划。朱健向各位企业家盛情介绍衡阳的发展变化与美好前景，并为大家在外创业取得的辉煌成绩点赞。他说，过去一年，衡阳锚定“三高四新”美好蓝图，大力实施“制造立市、文旅兴城”发展战略，全市高质量发展取得了新成效，社会治理欣欣向荣，精准守住了各类红线，是投资的热土、发展的福地。希望各位衡商聚焦自身优势领域，为家乡引进优质资源、积极探索合作方向、融入发展大潮，为衡阳省域副中心城市建设作出新的更大贡献。市委、市政府将一如既往为各位提供一流发展环境、一流政策供给、一流保障服务，让大家在家乡安心投资、舒心创业。', '当天下午，朱健一行来到重庆湘渝盐化有限责任公司，深入湘渝盐化新厂区、空分事业部、盐包装事业部考察学习。他强调，要学习“万州效率”，借鉴化工园区管理行之有效的先进经验，进一步优化服务，加快完成衡东经开区化工园区扩片工作，推动绿色纯碱产业基地项目尽早落地达产，打造成“省十大产业项目”的样板工程。', '中兵装建设工业集团党委书记、董事长鲜志刚，党委副书记、总经理王自勇，湖南省轻工盐业集团党委副书记、总经理李志勇，重庆市万州区委副书记、区长、万州经开区党工委书记（兼）李庆，万州经开区党工委副书记、管委会主任、万州区政府党组副书记（兼）钟涛，万州区委常委、常务副区长骆高燕，副市长刘平，湘渝盐化党委书记、董事长刘行忠，湘渝盐化党委副书记、总经理彭建强参加。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>177</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>常宁市常宁经贸交流团赴台考察</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2018-06-28</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200111/i36804.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['为加强两岸乡情联络,促进和带动常宁与台湾经贸文化交流，近日，市委副书记唐奇林率队赴台交流考察，市领导郭松青、彭芳楠、郭秀清等参加。', '旅台同乡会理事长李陆洋对常宁市委市政府赴台交流团的到来表示热烈欢迎。我市赴台交流团介绍了近年来我市经济社会发展情况，并向旅台常宁同乡会赠送了寄予乡情的礼物。同时还深入桃园市私立愈健老人长期照顾中心（养护型）考察，并围绕养老先进理念进行认真交流，共商合作事宜。随后，交流团还参观考察了新竹工业园区。', '据悉，愈健养护中心宗旨是“服务大众、社会需求、关怀老人、再造生命”，是理想的老人福利机构，在软件和硬件上都达到一定的水准，在当地享有很高的声誉。荣获桃园县政府优等奖。创办人陈敬吾1984年毕业于台大医学院复健系，先后就职于长庚医学中心和台北医院。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>177</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>名高层次人才赴海南研修考察</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2019-03-17</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/2019hyszwgkgzydzl/gkpthzdjs/jczwgk/jycy/20200112/i101786.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['13日下午，市委人才办组织来自全市各战线、各行业的38名高层次人才赴海南，参加“弘扬爱国奋斗精神、建功立业新时代”研修考察活动，市委常委、市委组织部部长陈竞出席欢送会并讲话。', '据介绍，此次研修考察活动为期七天，这是我市首次组织高层次人才外出研修考察。参加本次活动的38名同志由12个县（市）区、4个园区、7个市直部门推荐，报经市委人才办审定同意，都是我市行政区域内企事业单位中从事教育、科研、医疗卫生和生产一线工作，且符合《衡阳市高层次人才分类目录》中的高层次人才。', '陈竞对此次研修考察活动提出四点希望：希望通过活动引导广大知识分子树立家国情怀，通过活动激励广大知识分子更加奋发有为，通过活动落实好服务广大知识分子的政策待遇，通过活动帮助广大知识分子调养身心、开拓视野、激发活力。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>177</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>习近平在湖南长沙市考察调研</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20240319/i3294825.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['18日下午，习近平总书记在湖南省长沙市，先后考察了湖南第一师范学院（城南书院校区）和巴斯夫杉杉电池材料有限公司，了解学校用好红色资源、坚持立德树人和当地加快发展新质生产力、扩大高水平对外开放等情况。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>177</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>雁峰区省政协考察组来雁峰区实地考察全省示范性委员工作室建设情况</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2022-11-07</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20221107/i2839106.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['11月5日下午，湖南省政协人口资源环境委员会办公室二级调研员汪细伍、省政协办公厅人事处四级调研员李静一行来雁峰区实地考察全省示范性委员工作室建设情况。衡阳市政协委员学习联络委主任石献忠，雁峰区政协主席尹熙明陪同。', '考察组一行先后前往雁峰区政协教育界别委员工作室、经济界别委员工作室，实地考察委员队伍、工作台账和履职活动等示范性委员工作室建设工作。', '为深入贯彻习近平总书记关于加强和改进人民政协工作的重要思想和“政协委员要更好联系和服务所在界别的群众”的重要指示精神，雁峰区政协根据省市政协的统一部署，按照“横向到边、纵向到底、网络全覆盖”的标准和要求，制定出台《雁峰区政协委员工作室建设方案》，围绕重点行业、界别、镇(街道)，全区以镇(街道)、政协界别、个人为依托组建委员工作室10个，159名区政协委员全部进驻，实现全覆盖。', '考察组对雁峰区政协委员工作室“建、管、用”工作给予高度评价，考察组认为，雁峰区教育界别委员工作室在重点打造“委员工作室+家长课堂”、“委员工作室+教育咨询”“委员工作室+学生心理健康辅导”等方面做了许多实实在在的工作。经济界别委员工作室重点围绕“委员工作室+企业家论坛”、“委员工作室+法治社区”和“首峰夜话”等活动，开展得有声有色、卓有成效。同时，考察组希望，要创新开展委员工作室特色活动，增强委员履职尽责理念，广泛收集民情，积极反映民意，用心用情为民服务。要切实加强委员工作室标准化、规范化建设，建立健全相关制度，确保委员工作室有序、规范、高效运行，推动政协工作向基层延伸。要依托委员工作室建在居民身边的优势，充分发挥基层协商和基层自治作用，进一步做优做精做强“首峰夜话”委员履职品牌，解决居民“急难愁盼”问题。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>177</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>习近平在广西南宁市考察调研</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2023-12-14</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>https://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202312/t20231214_32511856.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['14日上午，习近平总书记在广西南宁市考察调研。他先后来到中国—东盟信息港股份有限公司和良庆区蟠龙社区，围绕中国—东盟经贸合作和信息化建设应用，健全城市社区治理体系、加强民族团结工作等进行实地调研。（文字记者：林晖；摄影记者：谢环驰、王晔、岳月伟）']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>177</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>习近平在江苏苏州市考察调研</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2023-07-07</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202307/t20230707_29395437.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['5日下午至6日上午，习近平总书记在江苏省苏州市考察。习近平先后来到苏州工业园区展示中心、苏州华兴源创科技股份有限公司、平江历史文化街区，了解高科技园区建设和发展、企业科技创新和历史文化名城保护等情况。（文字记者：张晓松、朱基钗；摄影记者：鞠鹏、谢环驰、燕雁、翟健岚）']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>177</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>东南亚旅行商来南岳踩线考察</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20231017/i3136552.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['10月14日、15日，来自马来西亚、新加坡、越南、印尼等国的东南亚旅行商来南岳开展为期两天的踩线考察活动。', '一行人先后前往南台寺、磨镜台、祝融峰、南岳大庙、万寿大鼎等景点观光考察，感受南岳衡山秀美的自然风光和厚重的历史文化，全方面了解南岳衡山的文旅魅力。', '“之前知道南岳衡山，是通过看一些书籍，包括金庸的书，今天终于到了这个地方，感觉非常好！我们还登上了南岳衡山最高的山峰祝融峰，非常高兴！”越南顺捷旅行社总经理陈侨汉兴奋地说。', '南岳以“五岳独秀”“中华寿岳”“宗教圣地”“文明奥区”“抗战名山”著称于世，是名副其实的生态宝地、文化重地、宗教圣地、心灵福地、宜居佳地。', '马来西亚辉马旅行社执行董事李文毅告诉记者，“这两天我们游了五六个地方，感觉南岳这个地方不错，尤其是祝融峰，我会带一些客户过来看看走走，带一些游客过来南岳这个地方看看！”', '南岳作为湖南对外开放、文化交流的重要窗口，正积极引进境外旅行商，开拓东南亚入境旅游市场，全力以赴打造世界级文化旅游目的地。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>177</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>汉寿县审计局来我局考察交流</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2022-01-13</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20220113/i2588215.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['近日，汉寿县审计局党组书记、局长廖永红一行13人来我局考察交流。衡阳市审计局副局长何华榕、总审计师王振旭，电子数据审计科、行政事业审计科、固定资产投资审计二科、农业与资源环保审计科等相关人员参加了座谈。', '座谈会上，何华榕对汉寿县审计局来我局考察交流表示欢迎，并介绍了近年来我局开展大数据审计的工作情况及取得的成效。各科室相关人员就审计信息化建设以及大数据在预算执行、社保基金、政府投资、自然资源（资产）等审计项目上的应用情况做了交流发言。(衡阳市审计局 魏鹏旨)']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>177</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>衡南县许达率队赴北京招商考察</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20240226/i3262462.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['2月22日至23日，衡南县委副书记、县长许达率队赴北京市拜会博鳌亚洲论坛秘书长李保东先生并走进（慧策）掌上先机网络科技有限公司招商考察，到湖南华冠银杏产业集团有限公司（北京办事处）宣传推介衡南，诚邀在外湘商企业到衡南实地考察、投资兴业，为衡南经济社会高质量发展积蓄强劲动能。', '许达介绍，衡南正面临历史性的发展机遇与挑战，一方面，经过多年发展，全县经济社会已呈现出经济运行平稳、社会和谐安稳、改革蹄疾步稳，经济结构调优、生态环境变优、营商环境趋优，乡村振兴基础好、项目建设成效好、产业发展来势好、干事创业氛围好"三稳三优四好"的优良态势；另一方面，作为百万人口大县、农业大县，全县正在积极探索依托国家战略布局和政策支持，打造乡村振兴衡南样板，"由点及面"推动全面发展。', '（慧策）北京市掌上先机网络科技有限公司是一家技术驱动型智能零售服务商，基于云计算PaaS、SaaS模式，以一体化智能零售解决方案，帮助零售企业数字化智能化升级，实现企业规模化发展。许达详细了解企业发展历程、科技创新、发展规划等情况，并向负责人介绍了衡南营商环境及产业发展情况。他表示，衡南区位优势明显、交通便利、物流发达，目前衡南规上工业企业132家、零售企业万余家，欢迎公司来衡南投资发展，希望双方加强沟通交流，发挥各自优势，在供销平台、跨境电商等方面加强合作，实现互利共赢、共同发展。', '（慧策）北京市掌上先机网络科技有限公司负责人肖彬表示，衡南产业基础和发展环境良好，将持续加强与家乡的沟通交流，深入考察研究合作项目，找准合作切入点，早日达成实质性合作，同时企业也将积极发挥行业优势，努力为家乡经济社会高质量发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>177</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>衡南县许达率队赴天津招商考察</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2023-09-18</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230918/i3101928.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['9月15日至16日，衡南县委副书记、县长许达率队赴天津大桥焊材集团有限公司招商考察，与天津大桥焊材集团总经理杨松就衡南生产经营项目投资扩产进行洽谈。', '天津大桥焊材集团有限公司始建于1957年，是一家以焊接材料研发及生产为主的综合性企业，主要生产焊条、气体保护焊实心焊丝、药芯焊丝、焊剂等产品。许达一行先后参观了企业自动化生产车间和企业文化展示中心，详细了解了企业发展历程、产品结构、企业文化等情况。许达频频点赞企业取得的非凡成绩，向企业宣传推介了衡南招商政策、发展优势及营商环境，并诚邀企业再次考察、投资扩产，衡南将真心实意为企业做好服务，助力企业在衡南不断发展壮大。', '杨松表示，天津大桥焊材集团衡阳焊接材料有限公司自2005年成立以来，在衡南县委、县政府的大力支持下，公司生产经营工作顺利，发展势头良好。企业计划进一步扩大生产经营规模，希望县委、县政府持续加大政策扶持，助力公司平稳健康发展。企业将积极充分发挥行业优势，不断做大做强，为县域经济社会高质量发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>177</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>衡南县许达率队赴广西招商考察</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2024-03-25</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20240325/i3299061.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['为大力推进衡南输变电产业链建设，3月20日至21日，衡南县委副书记、县长许达率队赴广西开展招商考察活动，宣传推介衡南发展优势，与南方有色集团董事长周南方就深化合作关系、加快意向合作项目落地建设进行洽谈。', '南方有色集团成立于1996年，是一家集有色金属铅、锌、铜、锑、锡冶炼和资源综合回收于一体的大型民营企业，经过数十年发展，在广西河池市和崇左市形成了南丹南方（铅锌）与南国铜业（铜）两大生产基地。', '在周南方的陪同下，许达一行先后参观了该企业电解铜生产车间和生产调度指挥中心，详细了解企业经营情况、发展历程、有色金属行业发展现状及公司未来发展规划等情况。', '许达说，衡南水陆空交通便利，"宁电入湘"工程的衡阳换流站落地衡南县泉湖镇，2025年建成后，将为企业生产经营用电提供坚强保障。希望双方坚定合作信心和决心，加强沟通交流，全力推动意向合作项目早落地、早投产、早见效。衡南将以一流的营商环境，全力做好对接落实和服务保障工作，以更加优质高效的工作推动项目落地、服务企业发展。', '周南方表示，衡南交通区位优势明显，营商环境不断优化，政策扶持力度大，对待客商诚意十足，为企业投资衡南增添了信心，下阶段将加大实地考察力度，深入洽谈对接，进一步挖掘合作潜力，力争意向合作项目早日落地投产。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>177</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>市领导与京东集团考察团座谈交流</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2022-05-20</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20220520/i2693139.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['5月19日，京东集团副总裁范磊一行来衡考察，双方就战略合作相关事宜对接座谈。市委常委、常务副市长于新凡出席座谈会。', '会上，京东集团详细介绍了京东物流、京东科技等主营业务发展情况和合作规划愿景。双方就物流枢纽、智慧城市、数字经济产业园、招商引资、乡村振兴示范工程等合作项目进行深入交流。', '于新凡对范磊一行的到来表示欢迎。他表示，当前衡阳正处于转型发展的关键时期，全市上下以高质量发展为目标，加快推进“三强一化”建设，发展前景更为广阔。京东集团作为全国互联网产业龙头性企业，希望能够把自身的科技、资金、资源等优势同衡阳的区位、产业优势等相结合，抢抓数字经济发展机遇，开创更多的合作空间和共赢点。', '于新凡指出，经过前期对接和洽谈，双方在合作方向、内容、模式等方面基本达成共识。下一步，双方要建立常态化工作联络机制，联手推动合作项目早日落地达效。衡阳将组建专班加强精准对接，全力提供优质服务和优良的营商环境，携手共创互赢互惠的美好未来。', '范磊表示，对于此次合作项目，京东方面将做好做实前期工作。同时，将充分发挥自身优势，努力拓宽产业发展路径，实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>177</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>习近平在中国人民大学考察</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2022-04-26</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.hunan.gov.cn/hnszf/hnyw/sy/tt1/202204/t20220426_22747580.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['新华社北京4月25日电 在五四青年节即将到来之际，中共中央总书记、国家主席、中央军委主席习近平25日上午来到中国人民大学考察调研。习近平代表党中央，向全国各族青年致以节日的祝贺，向中国人民大学全体师生员工、向全国广大教育工作者和青年工作者致以诚挚的问候。习近平希望全国广大青年牢记党的教诲，立志民族复兴，不负韶华，不负时代，不负人民，在青春的赛道上奋力奔跑，争取跑出当代青年的最好成绩！', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在立德楼观摩思政课智慧教室现场教学并参与讨论。新华社记者 鞠鹏 摄', '习近平强调，“为谁培养人、培养什么人、怎样培养人”始终是教育的根本问题。要坚持党的领导，坚持马克思主义指导地位，坚持为党和人民事业服务，落实立德树人根本任务，传承红色基因，扎根中国大地办大学，走出一条建设中国特色、世界一流大学的新路。广大青年要做社会主义核心价值观的坚定信仰者、积极传播者、模范践行者，向英雄学习、向前辈学习、向榜样学习，争做堪当民族复兴重任的时代新人，在实现中华民族伟大复兴的时代洪流中踔厉奋发、勇毅前进。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平同师生代表座谈并发表重要讲话。新华社记者 谢环驰 摄', '中国人民大学是中国共产党创办的第一所新型正规大学，前身是1937年诞生于抗日战争烽火中的陕北公学，以及后来的华北联合大学和北方大学、华北大学，在长期的办学实践中，注重人文社会科学高等教育和马克思主义教学与研究，被誉为“我国人文社会科学高等教育领域的一面旗帜”。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平向师生们挥手致意。新华社记者 谢环驰 摄', '上午9时20分许，习近平在中国人民大学党委书记张东刚、校长刘伟陪同下，首先来到立德楼，观摩思政课智慧教室现场教学。习近平同青年学生一起就座，认真倾听并参与讨论，对学校立足自身优势，不断推进思政课教学改革创新，打造高精尖水平思政课的做法表示肯定。他强调，思想政治理论课能否在立德树人中发挥应有作用，关键看重视不重视、适应不适应、做得好不好。思政课的本质是讲道理，要注重方式方法，把道理讲深、讲透、讲活，老师要用心教，学生要用心悟，达到沟通心灵、启智润心、激扬斗志。青少年思想政治教育是一个接续的过程，要针对青少年成长的不同阶段，有针对性地开展思想政治教育。希望人民大学绵绵用力，久久为功，止于至善，为全国大中小学思政课教学提供更多“金课”。也鼓励各地高校积极开展与中小学思政课共建，共同推动大中小学思政课一体化建设。习近平勉励同学们坚定中国特色社会主义道路自信、理论自信、制度自信、文化自信，在全面建设社会主义现代化国家新征程中勇当开路先锋、争当事业闯将。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在立德楼观摩思政课智慧教室现场教学并参与讨论。新华社记者 燕雁 摄', '中国人民大学校史展设立于学校博物馆内。习近平来到这里，详细了解学校历史沿革、建设发展和近年来教学科研成果等情况。习近平强调，中国人民大学在抗日烽火中诞生，在党的关怀下发展壮大，具有光荣的革命传统和鲜明的红色基因。一定要把这一光荣传统和红色基因传承好，守好党的这块重要阵地。要加强校史资料的挖掘、整理和研究，讲好中国共产党的故事，讲好党创办人民大学的故事，激励广大师生继承优良传统，赓续红色血脉。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在博物馆了解学校近年来教学科研成果等情况。新华社记者 谢环驰 摄', '在博物馆门前广场上，习近平看望了老教授、老专家和中青年骨干教师代表，并同他们亲切交谈。看到老教授、老专家身体健康、精神矍铄，习近平非常高兴。他指出，中国人民大学历来是人才荟萃、名家云集的地方。老教授、老专家们为党的教育事业付出了巨大心血，作出了重要贡献。希望中青年教师向老教授老专家学习，立志成为大先生，在教书育人和科研创新上不断创造新业绩。习近平强调，建设世界一流的中国特色社会主义大学，培养社会主义建设者和接班人，必须有世界一流的大师。要高度重视教师队伍建设，特别是要加强中青年教师骨干的培养，把人民大学打造成为我国人文社会科学研究和教学领域的重要人才中心和创新高地。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在博物馆门前广场上，同老教授、老专家和中青年骨干教师代表亲切交谈。新华社记者 谢环驰 摄', '中国人民大学图书馆以人文社会科学学术性文献馆藏为主，有藏书410余万册。习近平来到这里，考察馆藏红色文献、古籍集中展示，察看现代化检索平台和复印报刊资料等数字化学术资源，听取学校加强文献古籍保护利用，促进理论研究成果转化应用等情况介绍。习近平强调，人民大学馆藏红色文献，鉴证了我们党创办正规高等教育的艰辛历程，是十分宝贵的红色记忆，要精心保护好，逐步推进数字化，让更多的人受到教育、得到启迪。要运用现代科技手段加强古籍典藏的保护修复和综合利用，深入挖掘古籍蕴含的哲学思想、人文精神、价值理念、道德规范，推动中华优秀传统文化创造性转化、创新性发展。要加强学术资源库建设，更好发挥学术文献信息传播、搜集、整合、编辑、拓展、共享功能，打造中国特色、世界一流的学术资源信息平台，提升国家文化软实力。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平在图书馆考察。新华社记者 燕雁 摄', '随后，习近平来到世纪馆北大厅同中国人民大学师生代表座谈。中国人民大学党委书记张东刚、“人民教育家”国家荣誉称号获得者高铭暄、经济学院教授赵峰、新闻学院博士生周晓辉、哲学院本科生王海蓉先后发言，现场气氛轻松热烈。', '在认真听取大家发言后，习近平发表重要讲话。他强调，我国有独特的历史、独特的文化、独特的国情，建设中国特色、世界一流大学不能跟在别人后面依样画葫芦，简单以国外大学作为标准和模式，而是要扎根中国大地，走出一条建设中国特色、世界一流大学的新路。中国人民大学从陕北公学成立之初就鲜明提出要培养“革命的先锋队”，到新中国成立之初提出培养“万千建国干部”，到改革开放新时期提出培养“国民表率、社会栋梁”，再到新时代提出培养“复兴栋梁、强国先锋”，始终不变的是“为党育人、为国育才”，展现了“党办的大学让党放心、人民的大学不负人民”的精神品格。希望中国人民大学落实立德树人根本任务，传承红色基因，让听党话、跟党走的信念成为人大师生的自觉追求。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平同师生代表座谈并发表重要讲话。新华社记者 鞠鹏 摄', '习近平指出，高校是我国哲学社会科学“五路大军”中的重要力量。当前，坚持和发展中国特色社会主义理论和实践提出了大量亟待解决的新问题，世界百年未有之大变局加速演进，世界进入新的动荡变革期，迫切需要回答好“世界怎么了”、“人类向何处去”的时代之题。要坚持把马克思主义基本原理同中国具体实际相结合、同中华优秀传统文化相结合，立足中华民族伟大复兴战略全局和世界百年未有之大变局，不断推进马克思主义中国化时代化。加快构建中国特色哲学社会科学，归根结底是建构中国自主的知识体系。要以中国为观照、以时代为观照，立足中国实际，解决中国问题，不断推动中华优秀传统文化创造性转化、创新性发展，不断推进知识创新、理论创新、方法创新，使中国特色哲学社会科学真正屹立于世界学术之林。哲学社会科学工作者要做到方向明、主义真、学问高、德行正，自觉以回答中国之问、世界之问、人民之问、时代之问为学术己任，以彰显中国之路、中国之治、中国之理为思想追求，在研究解决事关党和国家全局性、根本性、关键性的重大问题上拿出真本事、取得好成果。要发挥哲学社会科学在融通中外文化、增进文明交流中的独特作用，传播中国声音、中国理论、中国思想，让世界更好读懂中国，为推动构建人类命运共同体作出积极贡献。', '习近平强调，好的学校特色各不相同，但有一个共同特点，都有一支优秀教师队伍。对教师来说，想把学生培养成什么样的人，自己首先就应该成为什么样的人。培养社会主义建设者和接班人，迫切需要我们的教师既精通专业知识、做好“经师”，又涵养德行、成为“人师”，努力做精于“传道授业解惑”的“经师”和“人师”的统一者。教育是一门“仁而爱人”的事业，有爱才有责任。广大教师要严爱相济、润己泽人，以人格魅力呵护学生心灵，以学术造诣开启学生智慧，把自己的温暖和情感倾注到每一个学生身上，让每一个学生都健康成长，让每一个孩子都有人生出彩的机会。老师应该有言为士则、行为世范的自觉，不断提高自身道德修养，以模范行为影响和带动学生，做学生为学、为事、为人的大先生，成为被社会尊重的楷模，成为世人效法的榜样。', '习近平指出，立足新时代新征程，中国青年的奋斗目标和前行方向归结到一点，就是坚定不移听党话、跟党走，努力成长为堪当民族复兴重任的时代新人。希望广大青年用脚步丈量祖国大地，用眼睛发现中国精神，用耳朵倾听人民呼声，用内心感应时代脉搏，把对祖国血浓于水、与人民同呼吸共命运的情感贯穿学业全过程、融汇在事业追求中。', '4月25日上午，中共中央总书记、国家主席、中央军委主席习近平来到中国人民大学考察调研。这是习近平向师生们挥手致意。新华社记者 鞠鹏 摄', '习近平离开学校时，道路两旁站满了师生，大家激动地向总书记问好，齐声高呼“青春向党、不负人民”、“复兴栋梁、强国先锋”，习近平向大家挥手致意，掌声、欢呼声在校园内久久回荡。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>177</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>耒阳市赖馨正率队赴韶能集团考察</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2021-12-07</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20211207/i2560940.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['12月6日下午，衡阳市委副书记、耒阳市委书记赖馨正率队赴广东韶能集团股份有限公司考察，并与公司高管座谈，就深化战略合作达成进一步共识。', '日昇生物质发电有限公司是韶能集团旗下企业，也是韶关市生物制品行业知名企业。赖馨正一行参观了该公司原料车间、机组、控制室等关键部位，实地感受其先进的技术设备和科学的管理方法。', '赖馨正简要介绍了耒阳经济社会发展情况。他表示，湖南省委省政府、衡阳市委市政府对耒阳非常重视、十分关心、寄予厚望，耒阳已经迎来了崭新的、重要的发展机遇，潜力无限，前景广阔。衷心感谢韶能集团近20年的信任与坚守，企地双方紧密协作、全力推进项目建设，取得了重要成果，结下了深厚友谊，充分体现了双方的诚意、互信和担当。当前，耒阳各级各部门正以“等不起”“慢不得”的紧迫感、责任感和使命感，围绕“211+X”产业布局做实功、尽全力，各类要素保障有力，干部作风转变明显，服务质效大幅提升，营商环境日益向好，希望韶能集团进一步坚定在耒发展信心，不断深化拓展双方合作，只要我们目标一致、步调一致，一门心思、竭尽全力地往前干，就一定会是什么都能干好、什么都能干成，韶能与耒阳的高质量发展一定会是未来可期、指日可待。', '韶能集团董事长陈来泉热烈欢迎赖馨正一行，衷心感谢耒阳市委市政府长期以来对韶能集团在耒企业的关心与支持。他表示，为耒阳创造性开展安商行动、打防溺水人民战争等措施点赞，对朝气蓬勃、充满活力的耒阳信心满满，特别是对“等不起”“慢不得”的理念共鸣强烈，韶能集团将以“加速度”推进拟拓展合作项目，一如既往地为耒阳经济社会发展添砖加瓦、增添正能量。真诚希望双方充分发挥各方面优势，共同做好实现更大合作共赢这篇文章。', '企地双方就打造蔡伦抄纸品牌全产业链、筹备生物质发电项目和煤炭产业合作等进行了坦诚高效的交流，并当即成立了对应的工作专班。', '韶能集团副董事长、总经理肖南贵，副总经理邱啟华、罗德强；耒阳市领导郭松青、尹建恒、张涛，经济开发区领导王威、郭伟等参加。（通讯员 陈志坚 记者 曾志明）']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>177</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>衡东县吴伟生天津考察电商产业</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2019-01-29</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200111/i30818.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['1月27日，县委书记吴伟生前往天津衡阳商会会员单位山品堂生物科技有限公司考察，就发展衡东农特产品电商产业进行考察学习。', '天津山品堂生物科技有限公司主要精选全国各地纯生态无污染大米、蜂蜜、茶油等优质农特产品，沿袭传统生产工艺，遵循植物天然生长规律，以提供“原生态、纯天然、健康品”的食品为目标，满足人们对食品安全的需求。目前，公司产品采用线上线下的融合方式销往马来西亚、美国等地。', '吴伟生十分看好该企业的营销模式和营销平台，并重点就线上线下运营进行了深入了解。吴伟生说，近年来，我县主动把握“互联网+”发展新趋势，坚持把电商产业发展作为推动经济转型发展，推进大众创业、万众创新的重要抓手，全县电商产业发展取得了明显成效。希望衡东电商产业能与该企业“牵手”发展，充分发挥平台融合优势，把三樟黄贡椒、茶油、米酒、衡东土菜等农副产品推介出去，同时，加大人员孵化、产品孵化力度，积极探索农特产品包装、质量保障、网上推销的有效途径，做大做强电商产业，促进县域经济快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>177</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>吐鲁番市党政代表团来衡考察交流</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/hydt/20230221/i2933102.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['2月20日，吐鲁番市党政代表团来衡阳考察交流，并召开两市工作交流座谈会。衡阳市委书记刘越高主持座谈会并讲话。吐鲁番市委书记马学良介绍有关情况并讲话。衡阳市委副书记、市长朱健介绍衡阳市经济社会发展情况。湖南省政府副秘书长、省援疆工作队总领队、吐鲁番市委副书记刘中杰参加。', '座谈会上，刘越高对吐鲁番市党政代表团一行的到来表示热烈欢迎，并感谢吐鲁番市长期以来对衡阳援疆事业的大力支持、对衡阳援疆干部的关心爱护。他说，湖南与新疆、衡阳与吐鲁番虽相隔万里，但一直是关山无阻、渊源深厚，结下了亲如兄弟、情同手足的深厚友谊。衡阳市委、市政府将坚决贯彻习近平总书记重要指示精神和新时代党的治疆方略，深入贯彻落实党的二十大精神，始终高度重视对口援疆工作，把援疆工作打造成推动发展的工程、民族团结的工程、凝聚人心的工程，持续做好对口支援、经贸交流协作、文化旅游合作、两地交流交融的文章，更加注重落实规划要求、提升综合效益、办好民生实事，不断实现优势互补、共同发展、合作共赢，大力推动两地合作成果向更高水平、更宽领域、更深层次迈进，共同谱写团结奋斗、繁荣发展全新篇章。', '马学良代表吐鲁番市委市政府对湖南省委省政府、衡阳市委市政府长期以来给予吐鲁番市、鄯善县的大力支持和帮助表示衷心的感谢，并介绍了吐鲁番市经济社会发展基本情况。他说，吐鲁番市和衡阳市在长期的交往交流中建立了亲如一家的深厚友谊。此次来衡阳，是学习贯彻党的二十大精神的具体行动，也是感恩之旅、学习之旅、合作之旅。希望衡阳充分发挥各项优势，持续深化产业援疆、智力援疆、民生援疆、文化润疆，不断提升双方合作水平、扩大合作成效，共同续写好两地现代化建设新篇章。', '朱健全面介绍了衡阳市经济社会发展情况，他说，将以此次吐鲁番市党政代表团来衡阳考察为新起点，进一步扛牢援疆政治责任，持续加强与吐鲁番市的沟通联系，加大对口支援力度，携手奋进书写两地经济社会高质量发展新篇章。', '在衡期间，吐鲁番市党政代表团还先后深入特变电工衡变公司、衡阳富泰宏精密工业有限公司实地考察。', '省直有关部门负责人贺建壬、文会中、彭清辉，衡阳市领导胡绪阳、于新凡、尹培国，吐鲁番市领导玉买尔江·买买提、汤红杰、王泓维，以及鄯善县有关领导参加。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>177</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>衡南县广州工控集团来衡南考察</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2022-08-05</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20220804/i2766717.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['8月2日，广州工业投资控股集团总法律顾问兼基础装备事业部部长汪帆一行来衡南考察。衡阳市委一级巡视员胡丘陵，副市长黄艳娥，衡南县委副书记、县长许达参加。', '汪帆一行先后前往高致精工、广州工控洽谈项目拟选址地、特变电工5G产业园、国创电力等项目，了解相关项目的加工、生产和技术应用等情况。', '座谈会上，考察团一行观看了专题片《商聚衡南·圆梦辉煌》，进一步了解我县经济社会发展和招商引资政策等方面情况。考察团成员介绍了关于集团投资与开发的最新技术、产品和产品市场。', '胡丘陵向考察团介绍了衡阳市"一核两电三色四新"等主导产业。他表示，广州工控集团企业强、资本强、市场强、品牌强，衡阳资源优势强、产业链条强、交通区位强、消费能力强，希望考察团能够进一步把握合作机遇、瞄准合作方向、优化合作布局，把衡南作为产业优化调整和项目投资的首选地，加强资源和资本的合作，衡阳将给予最大的政策支持和扶持力度，为企业在衡阳落地创造有利条件，努力实现合作共赢。', '许达代表衡南县委、县政府对广州工业投资控股集团来衡南考察表示热烈欢迎。他表示，衡南一直以来坚持以"审批环节最少、审批速度最快、政务服务最优、营商环境最好"为目标，为企业落地衡南提供更加优质、高效、便捷、公平的服务，助力企业在衡南不断发展壮大，希望双方进一步坚定合作信心，找到合作契合点，达成合作共识，拓宽合作领域，努力实现"企业得发展、政府得税收、百姓得收入"的良好发展格局。', '汪帆表示，衡南区位交通优势明显、营商环境良好、政策扶持力度大、对待客商诚意十足，集团将积极发挥自身优势，深入加强与衡南交流沟通，进一步深挖合作潜力，找准双方战略合作的结合点，争取在衡南投资建设相关项目，实现互利共赢。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>177</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>衡南县南方有色集团来衡南考察</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20230901/i3087522.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['8月31日，南方有色集团董事长周南方率队来衡南考察交流，衡阳市人民政府副厅级参事晏华衡、衡南县委书记胡果雄、特变电工南方输变电产业集团董事长种衍民陪同考察。', '在特变电工云集 5G 科技产业园，周南方一行在听取企业负责人项目介绍的同时，仔细察看数字化自动生产设备运行状况，并详细了解园区建设及产业发展等情况。随后，周南方一行还来到精铜杆项目拟选址地进行实地考察，详细了解用地规模、周边环境等情况。', '座谈会上，周南方对衡南县的热情接待表示感谢，希望双方进一步对接洽谈，深化战略合作，加强市场调研，拓宽发展视野，更加注重企业文化传承和科技创新，共同探讨新材料应用研发，助力湖南电力装备配套产业园建设，实现互利互赢。', '胡果雄说，近年来，衡南经济社会呈现"三稳、三优、四好"发展态势，坚持全面提升产业集聚力、改革创新力、服务保障力，具有区位优势好、产业基础好、发展环境好等优势，期待双方合作早日结出更丰硕成果，实现共赢发展。', '南方有色集团考察组全体成员，衡阳市工信局二级调研员万克俭、湘雁输变电产业服务中心主任江剑飞，衡南县级领导旷诗秦、万倩雯、周向阳参加。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>177</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>耒阳市吴旭东率队赴广州考察招商</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2019-11-20</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/xsqdt/20200111/i19755.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['11月14日，耒阳市委副书记、市长吴旭东率队赴广州市对化妆品企业进行考察招商，并与相关企业进行了座谈。耒阳市委常委、市经济开发区党工委副书记、管委会主任李云参加考察活动。', '在广州期间，吴旭东一行先后实地考察了广东柏文生物科技股份有限公司、广东尚品弘美化妆品制造有限公司等企业，还深入企业生产车间、研发中心，了解企业产品生产、研发、经营管理情况，并与企业负责人现场进行了简短的交流。', '座谈会上，李云从历史人文、区位优势、开发区承接基础等方面介绍了耒阳经济社会发展情况，并就引进化妆品企业优惠政策黄金十条作了重点推介。', '吴旭东从化妆品行业的发展趋势谈到了企业的发展要素，并就耒阳为什么要将化妆品作为主导产业的理由作了充分说明，勉励企业家畅所欲言，同时诚挚邀请各位企业家莅耒考察。', '参加座谈会的化妆品企业负责人踊跃发言，对耒阳如何打造化妆品产业集聚地提出了中肯的意见和建议。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>177</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>毛泽东考察湖南农民运动旧址</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2019-03-26</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/hyly/hyly/ts/wzhy/20200111/i58392.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['毛泽东考察湖南农民运动旧址——康王庙在衡山县城关镇湘江路13号。民国15年（1926），衡山成立了中共党小组。同年9月，中共湖南区委员会派向钧到衡山工作，成立中共衡山地方执行委员会，机关就设在康王庙内。次年1月15～24日，毛泽东经湘乡到衡山，进行10天的农民运动调查，住在康王庙。康王庙始建年代不详，为庙宇式建筑，原有正殿、偏房、戏台、拙庐等，1949年尚存，后被拆除，仅存偏屋。1969年将偏屋落架重建，1976年，在旧址右侧建“毛泽东同志考察湖南农民运动；日址——康王庙辅助陈列室”，建筑面积439平方米。1982年于此设“衡山农民运动纪念馆”，1972、1983年公布为省级文物保护单位。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>湖南省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>177</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>衡阳市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>衡阳市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>新疆吐鲁番考察组来衡推动疆品入湘</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2018-08-10</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>https://www.hengyang.gov.cn/xxgk/dtxx/bmdt/20200111/i38671.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['新疆吐鲁番市委常委、统战部长玉买尔江·买买提今天率考察组来衡，就“疆品入湘”工作与我市进行沟通对接。衡阳市委常委、市纪委书记、市监委主任包昌林参加对接会。', '近年来，借助援疆通道，吐鲁番特色农产品持续进入衡阳市场。在衡阳相关部门和企业努力下，衡阳消费者已经能常年品尝到来自吐鲁番的新鲜水果，对吐鲁番当地农产销售起到了助推作用。玉买尔江·买买提对衡阳长期以来大力支持吐鲁番经济社会发展表示感谢，他希望双方继续深化交流合作，务实推进“疆品入湘”，造福两地人民。', '包昌林对考察组一行的到来表示热烈欢迎，并希望双方继续秉持优势互补、互利共赢的理念，在市场布点、需求培育、运输组织、活动宣传等方面形成合力，通力协作，确保“疆品入湘”各环节无缝对接。鼓励衡阳企业积极对接“疆品入湘”，并借助援疆通道，推动“湘品入疆”，服务两地人民，实现互利双赢。']</t>
         </is>
